--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="995">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3984,10 +3984,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_lb1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_Ty_LB1Manager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4093,23 +4089,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2号</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>SYS_JBPManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4213,6 +4192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4258,6 +4238,43 @@
   </si>
   <si>
     <t>2月15号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_xxlbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_universal_dh</t>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_UNIVERSAL_DHManager</t>
+  </si>
+  <si>
+    <t>act_ty_universal_dh_style/act_001_universal</t>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4556,9 +4573,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4584,9 +4598,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4627,6 +4638,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4905,19 +4922,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="B327" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -6826,29 +6843,29 @@
         <v>643</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="40" customFormat="1" ht="16.5">
+    <row r="74" spans="1:9" s="38" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="39" t="s">
+      <c r="D74" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="39">
-        <v>0</v>
-      </c>
-      <c r="F74" s="40">
-        <v>0</v>
-      </c>
-      <c r="G74" s="40">
-        <v>0</v>
-      </c>
-      <c r="I74" s="41" t="s">
+      <c r="E74" s="37">
+        <v>0</v>
+      </c>
+      <c r="F74" s="38">
+        <v>0</v>
+      </c>
+      <c r="G74" s="38">
+        <v>0</v>
+      </c>
+      <c r="I74" s="39" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6878,30 +6895,30 @@
         <v>643</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="30" customFormat="1" ht="16.5">
+    <row r="76" spans="1:9" s="29" customFormat="1" ht="16.5">
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="49" t="s">
+      <c r="D76" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="49">
-        <v>1</v>
-      </c>
-      <c r="F76" s="30">
-        <v>1</v>
-      </c>
-      <c r="G76" s="30">
-        <v>1</v>
-      </c>
-      <c r="I76" s="50" t="s">
-        <v>986</v>
+      <c r="E76" s="47">
+        <v>1</v>
+      </c>
+      <c r="F76" s="29">
+        <v>1</v>
+      </c>
+      <c r="G76" s="29">
+        <v>1</v>
+      </c>
+      <c r="I76" s="48" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -11315,26 +11332,26 @@
       <c r="A253" s="16">
         <v>252</v>
       </c>
-      <c r="B253" s="29" t="s">
-        <v>969</v>
-      </c>
-      <c r="C253" s="30" t="s">
+      <c r="B253" s="28" t="s">
+        <v>967</v>
+      </c>
+      <c r="C253" s="29" t="s">
         <v>738</v>
       </c>
-      <c r="D253" s="29" t="s">
-        <v>970</v>
-      </c>
-      <c r="E253" s="30">
-        <v>0</v>
-      </c>
-      <c r="F253" s="30">
-        <v>0</v>
-      </c>
-      <c r="G253" s="30">
-        <v>0</v>
-      </c>
-      <c r="H253" s="30"/>
-      <c r="I253" s="29" t="s">
+      <c r="D253" s="28" t="s">
+        <v>968</v>
+      </c>
+      <c r="E253" s="29">
+        <v>0</v>
+      </c>
+      <c r="F253" s="29">
+        <v>0</v>
+      </c>
+      <c r="G253" s="29">
+        <v>0</v>
+      </c>
+      <c r="H253" s="29"/>
+      <c r="I253" s="28" t="s">
         <v>735</v>
       </c>
     </row>
@@ -11913,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="H275" s="17"/>
-      <c r="I275" s="28" t="s">
+      <c r="I275" s="27" t="s">
         <v>916</v>
       </c>
     </row>
@@ -11950,7 +11967,7 @@
       <c r="C277" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="D277" s="32" t="s">
+      <c r="D277" s="31" t="s">
         <v>823</v>
       </c>
       <c r="E277" s="15">
@@ -12094,55 +12111,55 @@
         <v>838</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="35" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" spans="1:9" s="34" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="16">
         <v>282</v>
       </c>
-      <c r="B283" s="34" t="s">
+      <c r="B283" s="33" t="s">
         <v>839</v>
       </c>
-      <c r="C283" s="33" t="s">
+      <c r="C283" s="32" t="s">
         <v>840</v>
       </c>
-      <c r="D283" s="34" t="s">
+      <c r="D283" s="33" t="s">
         <v>841</v>
       </c>
-      <c r="E283" s="35">
-        <v>1</v>
-      </c>
-      <c r="F283" s="35">
-        <v>1</v>
-      </c>
-      <c r="G283" s="35">
-        <v>1</v>
-      </c>
-      <c r="I283" s="36" t="s">
+      <c r="E283" s="34">
+        <v>1</v>
+      </c>
+      <c r="F283" s="34">
+        <v>1</v>
+      </c>
+      <c r="G283" s="34">
+        <v>1</v>
+      </c>
+      <c r="I283" s="35" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="284" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A284" s="16">
         <v>283</v>
       </c>
-      <c r="B284" s="34" t="s">
+      <c r="B284" s="33" t="s">
         <v>847</v>
       </c>
-      <c r="C284" s="33" t="s">
+      <c r="C284" s="32" t="s">
         <v>848</v>
       </c>
-      <c r="D284" s="34" t="s">
+      <c r="D284" s="33" t="s">
         <v>846</v>
       </c>
-      <c r="E284" s="35">
-        <v>1</v>
-      </c>
-      <c r="F284" s="35">
-        <v>1</v>
-      </c>
-      <c r="G284" s="35">
-        <v>1</v>
-      </c>
-      <c r="I284" s="36" t="s">
+      <c r="E284" s="34">
+        <v>1</v>
+      </c>
+      <c r="F284" s="34">
+        <v>1</v>
+      </c>
+      <c r="G284" s="34">
+        <v>1</v>
+      </c>
+      <c r="I284" s="35" t="s">
         <v>642</v>
       </c>
     </row>
@@ -12172,55 +12189,55 @@
         <v>853</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="286" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A286" s="16">
         <v>285</v>
       </c>
-      <c r="B286" s="33" t="s">
+      <c r="B286" s="32" t="s">
         <v>855</v>
       </c>
-      <c r="C286" s="33" t="s">
+      <c r="C286" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="D286" s="34" t="s">
+      <c r="D286" s="33" t="s">
         <v>854</v>
       </c>
-      <c r="E286" s="35">
-        <v>1</v>
-      </c>
-      <c r="F286" s="35">
-        <v>1</v>
-      </c>
-      <c r="G286" s="35">
-        <v>1</v>
-      </c>
-      <c r="I286" s="36" t="s">
+      <c r="E286" s="34">
+        <v>1</v>
+      </c>
+      <c r="F286" s="34">
+        <v>1</v>
+      </c>
+      <c r="G286" s="34">
+        <v>1</v>
+      </c>
+      <c r="I286" s="35" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="287" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A287" s="16">
         <v>286</v>
       </c>
-      <c r="B287" s="33" t="s">
+      <c r="B287" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="33" t="s">
+      <c r="C287" s="32" t="s">
         <v>858</v>
       </c>
-      <c r="D287" s="34" t="s">
+      <c r="D287" s="33" t="s">
         <v>859</v>
       </c>
-      <c r="E287" s="35">
-        <v>1</v>
-      </c>
-      <c r="F287" s="35">
-        <v>1</v>
-      </c>
-      <c r="G287" s="35">
-        <v>1</v>
-      </c>
-      <c r="I287" s="36" t="s">
+      <c r="E287" s="34">
+        <v>1</v>
+      </c>
+      <c r="F287" s="34">
+        <v>1</v>
+      </c>
+      <c r="G287" s="34">
+        <v>1</v>
+      </c>
+      <c r="I287" s="35" t="s">
         <v>860</v>
       </c>
     </row>
@@ -12228,208 +12245,208 @@
       <c r="A288" s="16">
         <v>287</v>
       </c>
-      <c r="B288" s="29" t="s">
+      <c r="B288" s="28" t="s">
         <v>861</v>
       </c>
-      <c r="C288" s="29" t="s">
+      <c r="C288" s="28" t="s">
         <v>862</v>
       </c>
-      <c r="D288" s="29" t="s">
+      <c r="D288" s="28" t="s">
         <v>863</v>
       </c>
-      <c r="E288" s="30">
-        <v>1</v>
-      </c>
-      <c r="F288" s="30">
-        <v>1</v>
-      </c>
-      <c r="G288" s="30">
-        <v>1</v>
-      </c>
-      <c r="H288" s="30"/>
-      <c r="I288" s="29" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="E288" s="29">
+        <v>1</v>
+      </c>
+      <c r="F288" s="29">
+        <v>1</v>
+      </c>
+      <c r="G288" s="29">
+        <v>1</v>
+      </c>
+      <c r="H288" s="29"/>
+      <c r="I288" s="28" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
-      <c r="B289" s="33" t="s">
+      <c r="B289" s="32" t="s">
         <v>864</v>
       </c>
-      <c r="C289" s="33" t="s">
+      <c r="C289" s="32" t="s">
         <v>865</v>
       </c>
-      <c r="D289" s="34" t="s">
+      <c r="D289" s="33" t="s">
         <v>866</v>
       </c>
-      <c r="E289" s="35">
-        <v>1</v>
-      </c>
-      <c r="F289" s="35">
-        <v>1</v>
-      </c>
-      <c r="G289" s="35">
-        <v>1</v>
-      </c>
-      <c r="I289" s="36" t="s">
+      <c r="E289" s="34">
+        <v>1</v>
+      </c>
+      <c r="F289" s="34">
+        <v>1</v>
+      </c>
+      <c r="G289" s="34">
+        <v>1</v>
+      </c>
+      <c r="I289" s="35" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="290" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A290" s="16">
         <v>289</v>
       </c>
-      <c r="B290" s="34" t="s">
+      <c r="B290" s="33" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="33" t="s">
+      <c r="C290" s="32" t="s">
         <v>869</v>
       </c>
-      <c r="D290" s="34" t="s">
+      <c r="D290" s="33" t="s">
         <v>870</v>
       </c>
-      <c r="E290" s="35">
-        <v>1</v>
-      </c>
-      <c r="F290" s="35">
-        <v>1</v>
-      </c>
-      <c r="G290" s="35">
-        <v>1</v>
-      </c>
-      <c r="I290" s="36" t="s">
+      <c r="E290" s="34">
+        <v>1</v>
+      </c>
+      <c r="F290" s="34">
+        <v>1</v>
+      </c>
+      <c r="G290" s="34">
+        <v>1</v>
+      </c>
+      <c r="I290" s="35" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="291" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A291" s="16">
         <v>290</v>
       </c>
-      <c r="B291" s="34" t="s">
+      <c r="B291" s="33" t="s">
         <v>872</v>
       </c>
-      <c r="C291" s="33" t="s">
+      <c r="C291" s="32" t="s">
         <v>873</v>
       </c>
-      <c r="D291" s="34" t="s">
+      <c r="D291" s="33" t="s">
         <v>874</v>
       </c>
-      <c r="E291" s="35">
-        <v>1</v>
-      </c>
-      <c r="F291" s="35">
-        <v>1</v>
-      </c>
-      <c r="G291" s="35">
-        <v>1</v>
-      </c>
-      <c r="I291" s="36" t="s">
+      <c r="E291" s="34">
+        <v>1</v>
+      </c>
+      <c r="F291" s="34">
+        <v>1</v>
+      </c>
+      <c r="G291" s="34">
+        <v>1</v>
+      </c>
+      <c r="I291" s="35" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="292" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A292" s="16">
         <v>291</v>
       </c>
-      <c r="B292" s="34" t="s">
+      <c r="B292" s="33" t="s">
         <v>875</v>
       </c>
-      <c r="C292" s="33" t="s">
+      <c r="C292" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="D292" s="34" t="s">
+      <c r="D292" s="33" t="s">
         <v>877</v>
       </c>
-      <c r="E292" s="35">
-        <v>1</v>
-      </c>
-      <c r="F292" s="35">
-        <v>1</v>
-      </c>
-      <c r="G292" s="35">
-        <v>1</v>
-      </c>
-      <c r="I292" s="36" t="s">
+      <c r="E292" s="34">
+        <v>1</v>
+      </c>
+      <c r="F292" s="34">
+        <v>1</v>
+      </c>
+      <c r="G292" s="34">
+        <v>1</v>
+      </c>
+      <c r="I292" s="35" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="293" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A293" s="16">
         <v>292</v>
       </c>
-      <c r="B293" s="34" t="s">
+      <c r="B293" s="33" t="s">
         <v>876</v>
       </c>
-      <c r="C293" s="33" t="s">
+      <c r="C293" s="32" t="s">
         <v>881</v>
       </c>
-      <c r="D293" s="34" t="s">
+      <c r="D293" s="33" t="s">
         <v>878</v>
       </c>
-      <c r="E293" s="35">
-        <v>1</v>
-      </c>
-      <c r="F293" s="35">
-        <v>1</v>
-      </c>
-      <c r="G293" s="35">
-        <v>1</v>
-      </c>
-      <c r="I293" s="36" t="s">
+      <c r="E293" s="34">
+        <v>1</v>
+      </c>
+      <c r="F293" s="34">
+        <v>1</v>
+      </c>
+      <c r="G293" s="34">
+        <v>1</v>
+      </c>
+      <c r="I293" s="35" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="294" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A294" s="16">
         <v>293</v>
       </c>
-      <c r="B294" s="34" t="s">
+      <c r="B294" s="33" t="s">
         <v>882</v>
       </c>
-      <c r="C294" s="33" t="s">
+      <c r="C294" s="32" t="s">
         <v>883</v>
       </c>
-      <c r="D294" s="34" t="s">
+      <c r="D294" s="33" t="s">
         <v>884</v>
       </c>
-      <c r="E294" s="35">
-        <v>1</v>
-      </c>
-      <c r="F294" s="35">
-        <v>1</v>
-      </c>
-      <c r="G294" s="35">
-        <v>1</v>
-      </c>
-      <c r="I294" s="36" t="s">
+      <c r="E294" s="34">
+        <v>1</v>
+      </c>
+      <c r="F294" s="34">
+        <v>1</v>
+      </c>
+      <c r="G294" s="34">
+        <v>1</v>
+      </c>
+      <c r="I294" s="35" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="295" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A295" s="16">
         <v>294</v>
       </c>
-      <c r="B295" s="34" t="s">
+      <c r="B295" s="33" t="s">
         <v>885</v>
       </c>
-      <c r="C295" s="33" t="s">
+      <c r="C295" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="D295" s="34" t="s">
+      <c r="D295" s="33" t="s">
         <v>887</v>
       </c>
-      <c r="E295" s="35">
-        <v>1</v>
-      </c>
-      <c r="F295" s="35">
-        <v>1</v>
-      </c>
-      <c r="G295" s="35">
-        <v>1</v>
-      </c>
-      <c r="I295" s="36" t="s">
+      <c r="E295" s="34">
+        <v>1</v>
+      </c>
+      <c r="F295" s="34">
+        <v>1</v>
+      </c>
+      <c r="G295" s="34">
+        <v>1</v>
+      </c>
+      <c r="I295" s="35" t="s">
         <v>642</v>
       </c>
     </row>
@@ -12511,29 +12528,29 @@
         <v>902</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="299" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="34" t="s">
+      <c r="B299" s="33" t="s">
         <v>897</v>
       </c>
-      <c r="C299" s="33" t="s">
+      <c r="C299" s="32" t="s">
         <v>898</v>
       </c>
-      <c r="D299" s="34" t="s">
+      <c r="D299" s="33" t="s">
         <v>899</v>
       </c>
-      <c r="E299" s="35">
-        <v>1</v>
-      </c>
-      <c r="F299" s="35">
-        <v>1</v>
-      </c>
-      <c r="G299" s="35">
-        <v>1</v>
-      </c>
-      <c r="I299" s="36" t="s">
+      <c r="E299" s="34">
+        <v>1</v>
+      </c>
+      <c r="F299" s="34">
+        <v>1</v>
+      </c>
+      <c r="G299" s="34">
+        <v>1</v>
+      </c>
+      <c r="I299" s="35" t="s">
         <v>900</v>
       </c>
     </row>
@@ -12641,29 +12658,29 @@
         <v>906</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="304" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="34" t="s">
+      <c r="B304" s="33" t="s">
         <v>913</v>
       </c>
-      <c r="C304" s="33" t="s">
+      <c r="C304" s="32" t="s">
         <v>917</v>
       </c>
-      <c r="D304" s="34" t="s">
+      <c r="D304" s="33" t="s">
         <v>914</v>
       </c>
-      <c r="E304" s="35">
-        <v>1</v>
-      </c>
-      <c r="F304" s="35">
-        <v>1</v>
-      </c>
-      <c r="G304" s="35">
-        <v>1</v>
-      </c>
-      <c r="I304" s="36" t="s">
+      <c r="E304" s="34">
+        <v>1</v>
+      </c>
+      <c r="F304" s="34">
+        <v>1</v>
+      </c>
+      <c r="G304" s="34">
+        <v>1</v>
+      </c>
+      <c r="I304" s="35" t="s">
         <v>915</v>
       </c>
     </row>
@@ -12671,80 +12688,80 @@
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="45" t="s">
-        <v>977</v>
-      </c>
-      <c r="C305" s="46" t="s">
-        <v>941</v>
-      </c>
-      <c r="D305" s="45" t="s">
-        <v>983</v>
-      </c>
-      <c r="E305" s="47">
-        <v>1</v>
-      </c>
-      <c r="F305" s="47">
-        <v>1</v>
-      </c>
-      <c r="G305" s="47">
-        <v>1</v>
-      </c>
-      <c r="H305" s="47"/>
-      <c r="I305" s="46" t="s">
-        <v>943</v>
+      <c r="B305" s="43" t="s">
+        <v>975</v>
+      </c>
+      <c r="C305" s="44" t="s">
+        <v>940</v>
+      </c>
+      <c r="D305" s="43" t="s">
+        <v>981</v>
+      </c>
+      <c r="E305" s="45">
+        <v>1</v>
+      </c>
+      <c r="F305" s="45">
+        <v>1</v>
+      </c>
+      <c r="G305" s="45">
+        <v>1</v>
+      </c>
+      <c r="H305" s="45"/>
+      <c r="I305" s="44" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="45" t="s">
-        <v>978</v>
-      </c>
-      <c r="C306" s="46" t="s">
+      <c r="B306" s="43" t="s">
+        <v>976</v>
+      </c>
+      <c r="C306" s="44" t="s">
+        <v>941</v>
+      </c>
+      <c r="D306" s="43" t="s">
+        <v>982</v>
+      </c>
+      <c r="E306" s="45">
+        <v>1</v>
+      </c>
+      <c r="F306" s="45">
+        <v>1</v>
+      </c>
+      <c r="G306" s="45">
+        <v>1</v>
+      </c>
+      <c r="H306" s="45"/>
+      <c r="I306" s="44" t="s">
         <v>942</v>
-      </c>
-      <c r="D306" s="45" t="s">
-        <v>984</v>
-      </c>
-      <c r="E306" s="47">
-        <v>1</v>
-      </c>
-      <c r="F306" s="47">
-        <v>1</v>
-      </c>
-      <c r="G306" s="47">
-        <v>1</v>
-      </c>
-      <c r="H306" s="47"/>
-      <c r="I306" s="46" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="45" t="s">
-        <v>971</v>
-      </c>
-      <c r="C307" s="45" t="s">
-        <v>948</v>
-      </c>
-      <c r="D307" s="45" t="s">
-        <v>972</v>
-      </c>
-      <c r="E307" s="47">
-        <v>1</v>
-      </c>
-      <c r="F307" s="47">
-        <v>1</v>
-      </c>
-      <c r="G307" s="47">
-        <v>1</v>
-      </c>
-      <c r="H307" s="47"/>
-      <c r="I307" s="48" t="s">
+      <c r="B307" s="43" t="s">
+        <v>969</v>
+      </c>
+      <c r="C307" s="43" t="s">
+        <v>947</v>
+      </c>
+      <c r="D307" s="43" t="s">
+        <v>970</v>
+      </c>
+      <c r="E307" s="45">
+        <v>1</v>
+      </c>
+      <c r="F307" s="45">
+        <v>1</v>
+      </c>
+      <c r="G307" s="45">
+        <v>1</v>
+      </c>
+      <c r="H307" s="45"/>
+      <c r="I307" s="46" t="s">
         <v>642</v>
       </c>
     </row>
@@ -12783,7 +12800,7 @@
         <v>925</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D309" s="18" t="s">
         <v>924</v>
@@ -12802,29 +12819,29 @@
         <v>923</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="35" customFormat="1" ht="16.5">
+    <row r="310" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="34" t="s">
+      <c r="B310" s="33" t="s">
         <v>932</v>
       </c>
-      <c r="C310" s="33" t="s">
+      <c r="C310" s="32" t="s">
         <v>933</v>
       </c>
-      <c r="D310" s="34" t="s">
+      <c r="D310" s="33" t="s">
         <v>931</v>
       </c>
-      <c r="E310" s="35">
-        <v>1</v>
-      </c>
-      <c r="F310" s="35">
-        <v>1</v>
-      </c>
-      <c r="G310" s="35">
-        <v>1</v>
-      </c>
-      <c r="I310" s="33" t="s">
+      <c r="E310" s="34">
+        <v>1</v>
+      </c>
+      <c r="F310" s="34">
+        <v>1</v>
+      </c>
+      <c r="G310" s="34">
+        <v>1</v>
+      </c>
+      <c r="I310" s="32" t="s">
         <v>934</v>
       </c>
     </row>
@@ -12852,33 +12869,33 @@
       </c>
       <c r="H311" s="17"/>
       <c r="I311" s="15" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A312" s="7">
+        <v>311</v>
+      </c>
+      <c r="B312" s="49" t="s">
+        <v>994</v>
+      </c>
+      <c r="C312" s="50" t="s">
+        <v>938</v>
+      </c>
+      <c r="D312" s="49" t="s">
+        <v>939</v>
+      </c>
+      <c r="E312" s="2">
+        <v>1</v>
+      </c>
+      <c r="F312" s="2">
+        <v>1</v>
+      </c>
+      <c r="G312" s="2">
+        <v>1</v>
+      </c>
+      <c r="I312" s="50" t="s">
         <v>943</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A312" s="16">
-        <v>311</v>
-      </c>
-      <c r="B312" s="18" t="s">
-        <v>939</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>938</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>940</v>
-      </c>
-      <c r="E312" s="17">
-        <v>1</v>
-      </c>
-      <c r="F312" s="17">
-        <v>1</v>
-      </c>
-      <c r="G312" s="17">
-        <v>1</v>
-      </c>
-      <c r="I312" s="15" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5">
@@ -12886,13 +12903,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="D313" s="18" t="s">
         <v>946</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>947</v>
       </c>
       <c r="E313" s="17">
         <v>0</v>
@@ -12908,14 +12925,14 @@
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="31" t="s">
-        <v>949</v>
+      <c r="B314" s="30" t="s">
+        <v>948</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E314" s="17">
         <v>1</v>
@@ -12927,21 +12944,21 @@
         <v>1</v>
       </c>
       <c r="I314" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="17.25">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="31" t="s">
-        <v>950</v>
+      <c r="B315" s="30" t="s">
+        <v>949</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>952</v>
-      </c>
-      <c r="D315" s="31" t="s">
-        <v>958</v>
+        <v>951</v>
+      </c>
+      <c r="D315" s="30" t="s">
+        <v>956</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12960,41 +12977,41 @@
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="27" t="s">
-        <v>962</v>
-      </c>
-      <c r="C316" s="25" t="s">
-        <v>956</v>
-      </c>
-      <c r="D316" s="27" t="s">
+      <c r="B316" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="C316" s="50" t="s">
         <v>955</v>
       </c>
-      <c r="E316" s="26">
-        <v>1</v>
-      </c>
-      <c r="F316" s="26">
-        <v>1</v>
-      </c>
-      <c r="G316" s="26">
-        <v>1</v>
-      </c>
-      <c r="H316" s="26"/>
-      <c r="I316" s="37" t="s">
-        <v>957</v>
+      <c r="D316" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="E316" s="2">
+        <v>1</v>
+      </c>
+      <c r="F316" s="2">
+        <v>1</v>
+      </c>
+      <c r="G316" s="2">
+        <v>1</v>
+      </c>
+      <c r="H316" s="2"/>
+      <c r="I316" s="50" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="17.25">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="38" t="s">
-        <v>963</v>
+      <c r="B317" s="36" t="s">
+        <v>961</v>
       </c>
       <c r="C317" s="25" t="s">
-        <v>960</v>
-      </c>
-      <c r="D317" s="38" t="s">
-        <v>959</v>
+        <v>958</v>
+      </c>
+      <c r="D317" s="36" t="s">
+        <v>957</v>
       </c>
       <c r="E317" s="26">
         <v>1</v>
@@ -13007,155 +13024,235 @@
       </c>
       <c r="H317" s="26"/>
       <c r="I317" s="25" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="44" t="s">
-        <v>979</v>
-      </c>
-      <c r="C318" s="42" t="s">
-        <v>964</v>
-      </c>
-      <c r="D318" s="43"/>
-      <c r="E318" s="43">
-        <v>1</v>
-      </c>
-      <c r="F318" s="43">
-        <v>1</v>
-      </c>
-      <c r="G318" s="43">
-        <v>1</v>
-      </c>
-      <c r="H318" s="43"/>
-      <c r="I318" s="42" t="s">
-        <v>976</v>
+      <c r="B318" s="42" t="s">
+        <v>977</v>
+      </c>
+      <c r="C318" s="40" t="s">
+        <v>962</v>
+      </c>
+      <c r="D318" s="41"/>
+      <c r="E318" s="41">
+        <v>1</v>
+      </c>
+      <c r="F318" s="41">
+        <v>1</v>
+      </c>
+      <c r="G318" s="41">
+        <v>1</v>
+      </c>
+      <c r="H318" s="41"/>
+      <c r="I318" s="40" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="44" t="s">
-        <v>980</v>
-      </c>
-      <c r="C319" s="42" t="s">
-        <v>965</v>
-      </c>
-      <c r="D319" s="43"/>
-      <c r="E319" s="43">
-        <v>1</v>
-      </c>
-      <c r="F319" s="43">
-        <v>1</v>
-      </c>
-      <c r="G319" s="43">
-        <v>1</v>
-      </c>
-      <c r="H319" s="43"/>
-      <c r="I319" s="42" t="s">
-        <v>975</v>
+      <c r="B319" s="42" t="s">
+        <v>978</v>
+      </c>
+      <c r="C319" s="40" t="s">
+        <v>963</v>
+      </c>
+      <c r="D319" s="41"/>
+      <c r="E319" s="41">
+        <v>1</v>
+      </c>
+      <c r="F319" s="41">
+        <v>1</v>
+      </c>
+      <c r="G319" s="41">
+        <v>1</v>
+      </c>
+      <c r="H319" s="41"/>
+      <c r="I319" s="40" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="44" t="s">
+      <c r="B320" s="42" t="s">
+        <v>972</v>
+      </c>
+      <c r="C320" s="41"/>
+      <c r="D320" s="41"/>
+      <c r="E320" s="41">
+        <v>1</v>
+      </c>
+      <c r="F320" s="41">
+        <v>1</v>
+      </c>
+      <c r="G320" s="41">
+        <v>1</v>
+      </c>
+      <c r="H320" s="41"/>
+      <c r="I320" s="40" t="s">
         <v>974</v>
-      </c>
-      <c r="C320" s="43"/>
-      <c r="D320" s="43"/>
-      <c r="E320" s="43">
-        <v>1</v>
-      </c>
-      <c r="F320" s="43">
-        <v>1</v>
-      </c>
-      <c r="G320" s="43">
-        <v>1</v>
-      </c>
-      <c r="H320" s="43"/>
-      <c r="I320" s="42" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="44" t="s">
-        <v>973</v>
-      </c>
-      <c r="C321" s="43"/>
-      <c r="D321" s="43"/>
-      <c r="E321" s="43">
-        <v>1</v>
-      </c>
-      <c r="F321" s="43">
-        <v>1</v>
-      </c>
-      <c r="G321" s="43">
-        <v>1</v>
-      </c>
-      <c r="H321" s="43"/>
-      <c r="I321" s="42" t="s">
-        <v>966</v>
+      <c r="B321" s="42" t="s">
+        <v>971</v>
+      </c>
+      <c r="C321" s="41"/>
+      <c r="D321" s="41"/>
+      <c r="E321" s="41">
+        <v>1</v>
+      </c>
+      <c r="F321" s="41">
+        <v>1</v>
+      </c>
+      <c r="G321" s="41">
+        <v>1</v>
+      </c>
+      <c r="H321" s="41"/>
+      <c r="I321" s="40" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="44" t="s">
-        <v>981</v>
-      </c>
-      <c r="C322" s="42" t="s">
-        <v>967</v>
-      </c>
-      <c r="D322" s="43"/>
-      <c r="E322" s="43">
-        <v>1</v>
-      </c>
-      <c r="F322" s="43">
-        <v>1</v>
-      </c>
-      <c r="G322" s="43">
-        <v>1</v>
-      </c>
-      <c r="H322" s="43"/>
-      <c r="I322" s="42" t="s">
-        <v>966</v>
+      <c r="B322" s="42" t="s">
+        <v>979</v>
+      </c>
+      <c r="C322" s="40" t="s">
+        <v>965</v>
+      </c>
+      <c r="D322" s="41"/>
+      <c r="E322" s="41">
+        <v>1</v>
+      </c>
+      <c r="F322" s="41">
+        <v>1</v>
+      </c>
+      <c r="G322" s="41">
+        <v>1</v>
+      </c>
+      <c r="H322" s="41"/>
+      <c r="I322" s="40" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="44" t="s">
-        <v>982</v>
-      </c>
-      <c r="C323" s="42" t="s">
-        <v>968</v>
-      </c>
-      <c r="D323" s="43"/>
-      <c r="E323" s="43">
-        <v>1</v>
-      </c>
-      <c r="F323" s="43">
-        <v>1</v>
-      </c>
-      <c r="G323" s="43">
-        <v>1</v>
-      </c>
-      <c r="H323" s="43"/>
-      <c r="I323" s="42" t="s">
+      <c r="B323" s="42" t="s">
+        <v>980</v>
+      </c>
+      <c r="C323" s="40" t="s">
         <v>966</v>
       </c>
-    </row>
+      <c r="D323" s="41"/>
+      <c r="E323" s="41">
+        <v>1</v>
+      </c>
+      <c r="F323" s="41">
+        <v>1</v>
+      </c>
+      <c r="G323" s="41">
+        <v>1</v>
+      </c>
+      <c r="H323" s="41"/>
+      <c r="I323" s="40" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="16.5">
+      <c r="A324" s="16">
+        <v>323</v>
+      </c>
+      <c r="B324" s="49" t="s">
+        <v>985</v>
+      </c>
+      <c r="C324" s="50" t="s">
+        <v>986</v>
+      </c>
+      <c r="D324" s="49" t="s">
+        <v>987</v>
+      </c>
+      <c r="E324" s="2">
+        <v>1</v>
+      </c>
+      <c r="F324" s="2">
+        <v>1</v>
+      </c>
+      <c r="G324" s="2">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2"/>
+      <c r="I324" s="50" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="16.5">
+      <c r="A325" s="16">
+        <v>324</v>
+      </c>
+      <c r="B325" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="C325" s="50" t="s">
+        <v>990</v>
+      </c>
+      <c r="D325" s="49" t="s">
+        <v>991</v>
+      </c>
+      <c r="E325" s="2">
+        <v>1</v>
+      </c>
+      <c r="F325" s="2">
+        <v>1</v>
+      </c>
+      <c r="G325" s="2">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2"/>
+      <c r="I325" s="50" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="16.5">
+      <c r="A326" s="16">
+        <v>325</v>
+      </c>
+      <c r="B326" s="49" t="s">
+        <v>992</v>
+      </c>
+      <c r="C326" s="50" t="s">
+        <v>993</v>
+      </c>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2">
+        <v>1</v>
+      </c>
+      <c r="F326" s="2">
+        <v>1</v>
+      </c>
+      <c r="G326" s="2">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2"/>
+      <c r="I326" s="50" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" s="17" customFormat="1"/>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="996">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4275,6 +4275,10 @@
   </si>
   <si>
     <t>act_ty_lb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4491,7 +4495,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4643,6 +4647,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4928,7 +4935,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B327" sqref="B327"/>
+      <selection pane="bottomRight" activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13252,7 +13259,29 @@
         <v>988</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="17" customFormat="1"/>
+    <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A327" s="16">
+        <v>326</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2">
+        <v>1</v>
+      </c>
+      <c r="F327" s="2">
+        <v>1</v>
+      </c>
+      <c r="G327" s="2">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2"/>
+      <c r="I327" s="51" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -2838,10 +2838,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼开炮送红包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>BY3DKPSHBManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3441,10 +3437,6 @@
   </si>
   <si>
     <t>BYTaskManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4242,6 +4234,27 @@
   </si>
   <si>
     <t>Act_048_XNSMTManager</t>
+  </si>
+  <si>
+    <r>
+      <t>1月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9号关闭</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包 2月9号关闭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4894,10 +4907,10 @@
   <dimension ref="A1:I328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B333" sqref="B333"/>
+      <selection pane="bottomRight" activeCell="I236" sqref="I236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5589,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -6297,7 +6310,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6887,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="48" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -7537,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -8640,7 +8653,7 @@
         <v>426</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>427</v>
@@ -8681,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8707,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8837,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -9123,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -10837,7 +10850,7 @@
         <v>664</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>665</v>
@@ -10863,22 +10876,22 @@
         <v>666</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" s="9" t="s">
-        <v>667</v>
+        <v>995</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10886,25 +10899,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C237" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="D237" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
         <v>672</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10912,25 +10925,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D238" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C238" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>675</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -10938,25 +10951,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>681</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10964,25 +10977,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="D240" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" s="9" t="s">
         <v>685</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" s="9" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -10990,25 +11003,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -11016,25 +11029,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>697</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -11042,25 +11055,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -11068,13 +11081,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11086,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -11094,13 +11107,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11112,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11120,13 +11133,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11138,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11146,25 +11159,25 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="C247" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="D247" s="9" t="s">
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="9" t="s">
         <v>717</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="I247" s="9" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11172,25 +11185,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D248" s="9" t="s">
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11198,25 +11211,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="D249" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="D249" s="9" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11224,25 +11237,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="D250" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11250,25 +11263,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C251" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="D251" s="9" t="s">
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>732</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11276,14 +11289,14 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="C252" t="s">
+        <v>738</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="C252" t="s">
-        <v>739</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>737</v>
-      </c>
       <c r="E252">
         <v>0</v>
       </c>
@@ -11294,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11302,13 +11315,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="28" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C253" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E253" s="29">
         <v>0</v>
@@ -11321,7 +11334,7 @@
       </c>
       <c r="H253" s="29"/>
       <c r="I253" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11329,25 +11342,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="D254" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
         <v>743</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11355,25 +11368,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="26" customFormat="1" ht="16.5">
@@ -11381,14 +11394,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>920</v>
+      </c>
+      <c r="D256" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="C256" s="25" t="s">
-        <v>922</v>
-      </c>
-      <c r="D256" s="25" t="s">
-        <v>750</v>
-      </c>
       <c r="E256" s="26">
         <v>1</v>
       </c>
@@ -11399,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="I256" s="22" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11407,14 +11420,14 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C257" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="D257" s="15" t="s">
-        <v>753</v>
-      </c>
       <c r="E257" s="17">
         <v>0</v>
       </c>
@@ -11425,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11433,14 +11446,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C258" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="D258" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>757</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11451,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11459,25 +11472,25 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="D259" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="D259" s="15" t="s">
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>760</v>
-      </c>
-      <c r="E259" s="17">
-        <v>1</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11485,25 +11498,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>0</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>764</v>
-      </c>
-      <c r="E260" s="17">
-        <v>0</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
@@ -11511,25 +11524,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>765</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D261" t="s">
         <v>766</v>
       </c>
-      <c r="C261" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>767</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="12" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11537,13 +11550,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C262" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="C262" s="9" t="s">
+      <c r="D262" s="15" t="s">
         <v>771</v>
-      </c>
-      <c r="D262" s="15" t="s">
-        <v>772</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -11563,25 +11576,25 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C263" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="D263" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="D263" s="15" t="s">
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
         <v>775</v>
-      </c>
-      <c r="E263" s="17">
-        <v>0</v>
-      </c>
-      <c r="F263" s="17">
-        <v>0</v>
-      </c>
-      <c r="G263" s="17">
-        <v>0</v>
-      </c>
-      <c r="I263" s="15" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11589,13 +11602,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>778</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>779</v>
       </c>
       <c r="E264" s="17">
         <v>0</v>
@@ -11615,25 +11628,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="D265" s="15" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>782</v>
-      </c>
-      <c r="E265" s="17">
-        <v>0</v>
-      </c>
-      <c r="F265" s="17">
-        <v>0</v>
-      </c>
-      <c r="G265" s="17">
-        <v>0</v>
-      </c>
-      <c r="I265" s="17" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11641,25 +11654,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>786</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>785</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="19" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11667,14 +11680,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>790</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>789</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11685,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11693,14 +11706,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C268" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="D268" s="18" t="s">
-        <v>793</v>
-      </c>
       <c r="E268" s="17">
         <v>1</v>
       </c>
@@ -11711,7 +11724,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="16.5">
@@ -11719,13 +11732,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="C269" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="C269" s="15" t="s">
-        <v>796</v>
-      </c>
       <c r="D269" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11738,7 +11751,7 @@
       </c>
       <c r="H269" s="17"/>
       <c r="I269" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5">
@@ -11746,13 +11759,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>798</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>799</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11765,7 +11778,7 @@
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5">
@@ -11773,13 +11786,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>801</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>802</v>
       </c>
       <c r="E271" s="17">
         <v>1</v>
@@ -11792,7 +11805,7 @@
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5">
@@ -11800,13 +11813,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="D272" s="18" t="s">
         <v>806</v>
-      </c>
-      <c r="D272" s="18" t="s">
-        <v>807</v>
       </c>
       <c r="E272" s="17">
         <v>1</v>
@@ -11819,7 +11832,7 @@
       </c>
       <c r="H272" s="17"/>
       <c r="I272" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5">
@@ -11827,26 +11840,26 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C273" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>810</v>
-      </c>
       <c r="E273" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F273" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273" s="17"/>
-      <c r="I273" s="19" t="s">
-        <v>814</v>
+      <c r="I273" s="15" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5">
@@ -11854,13 +11867,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C274" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="D274" s="18" t="s">
         <v>812</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>813</v>
       </c>
       <c r="E274" s="17">
         <v>0</v>
@@ -11873,7 +11886,7 @@
       </c>
       <c r="H274" s="17"/>
       <c r="I274" s="19" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="21" customFormat="1" ht="17.25">
@@ -11881,13 +11894,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C275" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>816</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>818</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
@@ -11900,7 +11913,7 @@
       </c>
       <c r="H275" s="17"/>
       <c r="I275" s="27" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="16.5">
@@ -11908,22 +11921,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>819</v>
-      </c>
-      <c r="C276" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
@@ -11931,13 +11944,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E277" s="15">
         <v>0</v>
@@ -11950,7 +11963,7 @@
       </c>
       <c r="H277" s="15"/>
       <c r="I277" s="15" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -11958,13 +11971,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D278" s="18" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -11976,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="I278" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11984,22 +11997,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C279" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>826</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12007,13 +12020,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12025,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12033,13 +12046,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="C281" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="C281" s="15" t="s">
-        <v>835</v>
-      </c>
       <c r="D281" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12051,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12059,13 +12072,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12077,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="34" customFormat="1" ht="17.25" customHeight="1">
@@ -12085,25 +12098,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="33" t="s">
+        <v>837</v>
+      </c>
+      <c r="C283" s="32" t="s">
+        <v>838</v>
+      </c>
+      <c r="D283" s="33" t="s">
         <v>839</v>
       </c>
-      <c r="C283" s="32" t="s">
+      <c r="E283" s="34">
+        <v>1</v>
+      </c>
+      <c r="F283" s="34">
+        <v>1</v>
+      </c>
+      <c r="G283" s="34">
+        <v>1</v>
+      </c>
+      <c r="I283" s="35" t="s">
         <v>840</v>
-      </c>
-      <c r="D283" s="33" t="s">
-        <v>841</v>
-      </c>
-      <c r="E283" s="34">
-        <v>1</v>
-      </c>
-      <c r="F283" s="34">
-        <v>1</v>
-      </c>
-      <c r="G283" s="34">
-        <v>1</v>
-      </c>
-      <c r="I283" s="35" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12111,13 +12124,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="33" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D284" s="33" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E284" s="34">
         <v>1</v>
@@ -12137,25 +12150,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="C285" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="D285" s="18" t="s">
         <v>850</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="19" t="s">
         <v>851</v>
-      </c>
-      <c r="D285" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="I285" s="19" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12163,13 +12176,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="32" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C286" s="32" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D286" s="33" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E286" s="34">
         <v>1</v>
@@ -12189,25 +12202,25 @@
         <v>286</v>
       </c>
       <c r="B287" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C287" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="D287" s="33" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="32" t="s">
+      <c r="E287" s="34">
+        <v>1</v>
+      </c>
+      <c r="F287" s="34">
+        <v>1</v>
+      </c>
+      <c r="G287" s="34">
+        <v>1</v>
+      </c>
+      <c r="I287" s="35" t="s">
         <v>858</v>
-      </c>
-      <c r="D287" s="33" t="s">
-        <v>859</v>
-      </c>
-      <c r="E287" s="34">
-        <v>1</v>
-      </c>
-      <c r="F287" s="34">
-        <v>1</v>
-      </c>
-      <c r="G287" s="34">
-        <v>1</v>
-      </c>
-      <c r="I287" s="35" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12215,13 +12228,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="C288" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="D288" s="28" t="s">
         <v>861</v>
-      </c>
-      <c r="C288" s="28" t="s">
-        <v>862</v>
-      </c>
-      <c r="D288" s="28" t="s">
-        <v>863</v>
       </c>
       <c r="E288" s="29">
         <v>1</v>
@@ -12234,7 +12247,7 @@
       </c>
       <c r="H288" s="29"/>
       <c r="I288" s="28" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12242,25 +12255,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="C289" s="32" t="s">
+        <v>863</v>
+      </c>
+      <c r="D289" s="33" t="s">
         <v>864</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="E289" s="34">
+        <v>1</v>
+      </c>
+      <c r="F289" s="34">
+        <v>1</v>
+      </c>
+      <c r="G289" s="34">
+        <v>1</v>
+      </c>
+      <c r="I289" s="35" t="s">
         <v>865</v>
-      </c>
-      <c r="D289" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="E289" s="34">
-        <v>1</v>
-      </c>
-      <c r="F289" s="34">
-        <v>1</v>
-      </c>
-      <c r="G289" s="34">
-        <v>1</v>
-      </c>
-      <c r="I289" s="35" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12268,25 +12281,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="C290" s="32" t="s">
+        <v>867</v>
+      </c>
+      <c r="D290" s="33" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="32" t="s">
+      <c r="E290" s="34">
+        <v>1</v>
+      </c>
+      <c r="F290" s="34">
+        <v>1</v>
+      </c>
+      <c r="G290" s="34">
+        <v>1</v>
+      </c>
+      <c r="I290" s="35" t="s">
         <v>869</v>
-      </c>
-      <c r="D290" s="33" t="s">
-        <v>870</v>
-      </c>
-      <c r="E290" s="34">
-        <v>1</v>
-      </c>
-      <c r="F290" s="34">
-        <v>1</v>
-      </c>
-      <c r="G290" s="34">
-        <v>1</v>
-      </c>
-      <c r="I290" s="35" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12294,13 +12307,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="33" t="s">
+        <v>870</v>
+      </c>
+      <c r="C291" s="32" t="s">
+        <v>871</v>
+      </c>
+      <c r="D291" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="C291" s="32" t="s">
-        <v>873</v>
-      </c>
-      <c r="D291" s="33" t="s">
-        <v>874</v>
       </c>
       <c r="E291" s="34">
         <v>1</v>
@@ -12320,13 +12333,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="33" t="s">
+        <v>873</v>
+      </c>
+      <c r="C292" s="32" t="s">
+        <v>878</v>
+      </c>
+      <c r="D292" s="33" t="s">
         <v>875</v>
-      </c>
-      <c r="C292" s="32" t="s">
-        <v>880</v>
-      </c>
-      <c r="D292" s="33" t="s">
-        <v>877</v>
       </c>
       <c r="E292" s="34">
         <v>1</v>
@@ -12346,14 +12359,14 @@
         <v>292</v>
       </c>
       <c r="B293" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="C293" s="32" t="s">
+        <v>879</v>
+      </c>
+      <c r="D293" s="33" t="s">
         <v>876</v>
       </c>
-      <c r="C293" s="32" t="s">
-        <v>881</v>
-      </c>
-      <c r="D293" s="33" t="s">
-        <v>878</v>
-      </c>
       <c r="E293" s="34">
         <v>1</v>
       </c>
@@ -12364,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="35" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12372,13 +12385,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="C294" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="D294" s="33" t="s">
         <v>882</v>
-      </c>
-      <c r="C294" s="32" t="s">
-        <v>883</v>
-      </c>
-      <c r="D294" s="33" t="s">
-        <v>884</v>
       </c>
       <c r="E294" s="34">
         <v>1</v>
@@ -12398,13 +12411,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="33" t="s">
+        <v>883</v>
+      </c>
+      <c r="C295" s="32" t="s">
+        <v>884</v>
+      </c>
+      <c r="D295" s="33" t="s">
         <v>885</v>
-      </c>
-      <c r="C295" s="32" t="s">
-        <v>886</v>
-      </c>
-      <c r="D295" s="33" t="s">
-        <v>887</v>
       </c>
       <c r="E295" s="34">
         <v>1</v>
@@ -12424,14 +12437,14 @@
         <v>295</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C296" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="D296" s="20" t="s">
         <v>889</v>
       </c>
-      <c r="D296" s="20" t="s">
-        <v>891</v>
-      </c>
       <c r="E296">
         <v>0</v>
       </c>
@@ -12442,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="16.5">
@@ -12450,14 +12463,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C297" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="D297" s="20" t="s">
         <v>890</v>
       </c>
-      <c r="D297" s="20" t="s">
-        <v>892</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12468,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -12476,14 +12489,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="D298" s="20" t="s">
         <v>894</v>
       </c>
-      <c r="C298" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D298" s="20" t="s">
-        <v>896</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12494,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12502,25 +12515,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="33" t="s">
+        <v>895</v>
+      </c>
+      <c r="C299" s="32" t="s">
+        <v>896</v>
+      </c>
+      <c r="D299" s="33" t="s">
         <v>897</v>
       </c>
-      <c r="C299" s="32" t="s">
+      <c r="E299" s="34">
+        <v>1</v>
+      </c>
+      <c r="F299" s="34">
+        <v>1</v>
+      </c>
+      <c r="G299" s="34">
+        <v>1</v>
+      </c>
+      <c r="I299" s="35" t="s">
         <v>898</v>
-      </c>
-      <c r="D299" s="33" t="s">
-        <v>899</v>
-      </c>
-      <c r="E299" s="34">
-        <v>1</v>
-      </c>
-      <c r="F299" s="34">
-        <v>1</v>
-      </c>
-      <c r="G299" s="34">
-        <v>1</v>
-      </c>
-      <c r="I299" s="35" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12528,13 +12541,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="C300" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="D300" s="18" t="s">
         <v>903</v>
-      </c>
-      <c r="C300" s="15" t="s">
-        <v>904</v>
-      </c>
-      <c r="D300" s="18" t="s">
-        <v>905</v>
       </c>
       <c r="E300" s="17">
         <v>0</v>
@@ -12547,7 +12560,7 @@
       </c>
       <c r="H300" s="17"/>
       <c r="I300" s="19" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12555,13 +12568,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C301" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D301" s="18" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E301" s="17">
         <v>0</v>
@@ -12574,7 +12587,7 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12582,13 +12595,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C302" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="D302" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>912</v>
       </c>
       <c r="E302" s="17">
         <v>0</v>
@@ -12601,7 +12614,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12609,25 +12622,25 @@
         <v>302</v>
       </c>
       <c r="B303" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="C303" s="32" t="s">
+        <v>915</v>
+      </c>
+      <c r="D303" s="33" t="s">
+        <v>912</v>
+      </c>
+      <c r="E303" s="34">
+        <v>1</v>
+      </c>
+      <c r="F303" s="34">
+        <v>1</v>
+      </c>
+      <c r="G303" s="34">
+        <v>1</v>
+      </c>
+      <c r="I303" s="35" t="s">
         <v>913</v>
-      </c>
-      <c r="C303" s="32" t="s">
-        <v>917</v>
-      </c>
-      <c r="D303" s="33" t="s">
-        <v>914</v>
-      </c>
-      <c r="E303" s="34">
-        <v>1</v>
-      </c>
-      <c r="F303" s="34">
-        <v>1</v>
-      </c>
-      <c r="G303" s="34">
-        <v>1</v>
-      </c>
-      <c r="I303" s="35" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12635,13 +12648,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="43" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C304" s="44" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D304" s="43" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E304" s="45">
         <v>1</v>
@@ -12654,7 +12667,7 @@
       </c>
       <c r="H304" s="45"/>
       <c r="I304" s="44" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12662,13 +12675,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="43" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C305" s="44" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D305" s="43" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E305" s="45">
         <v>1</v>
@@ -12681,7 +12694,7 @@
       </c>
       <c r="H305" s="45"/>
       <c r="I305" s="44" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12689,13 +12702,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="43" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D306" s="43" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E306" s="45">
         <v>1</v>
@@ -12716,13 +12729,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12735,7 +12748,7 @@
       </c>
       <c r="H307" s="17"/>
       <c r="I307" s="19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12743,13 +12756,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E308" s="17">
         <v>1</v>
@@ -12762,7 +12775,7 @@
       </c>
       <c r="H308" s="17"/>
       <c r="I308" s="15" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12770,25 +12783,25 @@
         <v>308</v>
       </c>
       <c r="B309" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="C309" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="D309" s="33" t="s">
+        <v>926</v>
+      </c>
+      <c r="E309" s="34">
+        <v>1</v>
+      </c>
+      <c r="F309" s="34">
+        <v>1</v>
+      </c>
+      <c r="G309" s="34">
+        <v>1</v>
+      </c>
+      <c r="I309" s="32" t="s">
         <v>929</v>
-      </c>
-      <c r="C309" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="D309" s="33" t="s">
-        <v>928</v>
-      </c>
-      <c r="E309" s="34">
-        <v>1</v>
-      </c>
-      <c r="F309" s="34">
-        <v>1</v>
-      </c>
-      <c r="G309" s="34">
-        <v>1</v>
-      </c>
-      <c r="I309" s="32" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12796,13 +12809,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="C310" s="15" t="s">
-        <v>934</v>
-      </c>
       <c r="D310" s="18" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E310" s="17">
         <v>1</v>
@@ -12815,7 +12828,7 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -12823,13 +12836,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="49" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C311" s="50" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D311" s="49" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E311" s="2">
         <v>1</v>
@@ -12841,7 +12854,7 @@
         <v>1</v>
       </c>
       <c r="I311" s="50" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12849,13 +12862,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="D312" s="18" t="s">
         <v>941</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>942</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>943</v>
       </c>
       <c r="E312" s="17">
         <v>0</v>
@@ -12872,25 +12885,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="D313" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="E313" s="17">
+        <v>1</v>
+      </c>
+      <c r="F313" s="17">
+        <v>1</v>
+      </c>
+      <c r="G313" s="17">
+        <v>1</v>
+      </c>
+      <c r="I313" s="9" t="s">
         <v>947</v>
-      </c>
-      <c r="D313" s="20" t="s">
-        <v>950</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="9" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="17.25">
@@ -12898,13 +12911,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="30" t="s">
+        <v>944</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="C314" s="15" t="s">
-        <v>948</v>
-      </c>
       <c r="D314" s="30" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E314" s="17">
         <v>1</v>
@@ -12924,13 +12937,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="49" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C315" s="50" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D315" s="49" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E315" s="2">
         <v>1</v>
@@ -12943,7 +12956,7 @@
       </c>
       <c r="H315" s="2"/>
       <c r="I315" s="50" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12951,13 +12964,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C316" s="25" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D316" s="36" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E316" s="26">
         <v>1</v>
@@ -12970,7 +12983,7 @@
       </c>
       <c r="H316" s="26"/>
       <c r="I316" s="25" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
@@ -12978,10 +12991,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C317" s="40" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D317" s="41"/>
       <c r="E317" s="41">
@@ -12995,7 +13008,7 @@
       </c>
       <c r="H317" s="41"/>
       <c r="I317" s="40" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -13003,10 +13016,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C318" s="40" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D318" s="41"/>
       <c r="E318" s="41">
@@ -13020,7 +13033,7 @@
       </c>
       <c r="H318" s="41"/>
       <c r="I318" s="40" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13028,7 +13041,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C319" s="41"/>
       <c r="D319" s="41"/>
@@ -13043,7 +13056,7 @@
       </c>
       <c r="H319" s="41"/>
       <c r="I319" s="40" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13051,7 +13064,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C320" s="41"/>
       <c r="D320" s="41"/>
@@ -13066,7 +13079,7 @@
       </c>
       <c r="H320" s="41"/>
       <c r="I320" s="40" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
@@ -13074,10 +13087,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C321" s="40" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D321" s="41"/>
       <c r="E321" s="41">
@@ -13091,7 +13104,7 @@
       </c>
       <c r="H321" s="41"/>
       <c r="I321" s="40" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -13099,10 +13112,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C322" s="40" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D322" s="41"/>
       <c r="E322" s="41">
@@ -13116,7 +13129,7 @@
       </c>
       <c r="H322" s="41"/>
       <c r="I322" s="40" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
@@ -13124,13 +13137,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
+        <v>978</v>
+      </c>
+      <c r="C323" s="50" t="s">
+        <v>979</v>
+      </c>
+      <c r="D323" s="49" t="s">
         <v>980</v>
-      </c>
-      <c r="C323" s="50" t="s">
-        <v>981</v>
-      </c>
-      <c r="D323" s="49" t="s">
-        <v>982</v>
       </c>
       <c r="E323" s="2">
         <v>1</v>
@@ -13143,7 +13156,7 @@
       </c>
       <c r="H323" s="2"/>
       <c r="I323" s="50" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13151,13 +13164,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="C324" s="50" t="s">
+        <v>983</v>
+      </c>
+      <c r="D324" s="49" t="s">
         <v>984</v>
-      </c>
-      <c r="C324" s="50" t="s">
-        <v>985</v>
-      </c>
-      <c r="D324" s="49" t="s">
-        <v>986</v>
       </c>
       <c r="E324" s="2">
         <v>1</v>
@@ -13170,7 +13183,7 @@
       </c>
       <c r="H324" s="2"/>
       <c r="I324" s="50" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="16.5">
@@ -13178,10 +13191,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="49" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C325" s="50" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2">
@@ -13195,7 +13208,7 @@
       </c>
       <c r="H325" s="2"/>
       <c r="I325" s="50" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13203,7 +13216,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -13226,13 +13239,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="49" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C327" s="49" t="s">
+        <v>991</v>
+      </c>
+      <c r="D327" s="49" t="s">
         <v>993</v>
-      </c>
-      <c r="D327" s="49" t="s">
-        <v>995</v>
       </c>
       <c r="E327" s="2">
         <v>1</v>
@@ -13245,7 +13258,7 @@
       </c>
       <c r="H327" s="2"/>
       <c r="I327" s="50" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="16.5">

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -596,9 +596,6 @@
   </si>
   <si>
     <t>sys_xsfl</t>
-  </si>
-  <si>
-    <t>限时福利</t>
   </si>
   <si>
     <t>SYSXSFLManager</t>
@@ -4045,23 +4042,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1号</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_041_yybjsj</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4254,6 +4234,14 @@
   </si>
   <si>
     <t>3D捕鱼开炮送红包 2月9号关闭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月16-2月23</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4470,7 +4458,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4579,9 +4567,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4625,6 +4610,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4907,10 +4904,10 @@
   <dimension ref="A1:I328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I236" sqref="I236"/>
+      <selection pane="bottomRight" activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4940,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -4952,7 +4949,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -4978,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -5004,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -5030,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -5056,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -5082,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -5108,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -5134,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5160,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5186,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5212,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5238,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5264,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5290,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5316,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5342,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5368,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5394,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5420,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5446,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5472,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5498,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5524,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5550,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5576,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5602,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5613,7 +5610,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5628,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5654,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5680,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5706,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5732,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5758,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5784,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5810,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5836,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5862,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -5888,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -5914,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -5940,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -5966,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -5992,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -6018,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -6044,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -6070,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -6096,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -6122,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -6148,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6174,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6185,7 +6182,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6200,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6226,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6252,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6276,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6302,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6310,7 +6307,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6328,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6336,7 +6333,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6354,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6380,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6406,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6432,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6458,33 +6455,33 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5">
-      <c r="A60" s="16">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="52" t="s">
+        <v>994</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" s="5">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>645</v>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="51" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6492,14 +6489,14 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="E61" s="5">
         <v>1</v>
       </c>
@@ -6510,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6518,14 +6515,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="E62" s="5">
         <v>1</v>
       </c>
@@ -6536,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6544,14 +6541,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="E63" s="5">
         <v>0</v>
       </c>
@@ -6562,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6570,14 +6567,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="E64" s="5">
         <v>1</v>
       </c>
@@ -6588,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6596,14 +6593,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="E65" s="5">
         <v>0</v>
       </c>
@@ -6614,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6622,14 +6619,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="E66" s="5">
         <v>1</v>
       </c>
@@ -6640,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6648,14 +6645,14 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="E67" s="5">
         <v>0</v>
       </c>
@@ -6666,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6674,14 +6671,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="E68" s="5">
         <v>0</v>
       </c>
@@ -6692,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6700,14 +6697,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="E69" s="5">
         <v>1</v>
       </c>
@@ -6718,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6726,14 +6723,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="E70" s="5">
         <v>1</v>
       </c>
@@ -6744,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6752,14 +6749,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="E71" s="5">
         <v>1</v>
       </c>
@@ -6770,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6778,14 +6775,14 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="E72" s="5">
         <v>1</v>
       </c>
@@ -6796,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6804,14 +6801,14 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="E73" s="5">
         <v>1</v>
       </c>
@@ -6822,33 +6819,33 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="38" customFormat="1" ht="16.5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="37" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="37" t="s">
-        <v>656</v>
-      </c>
-      <c r="C74" s="37" t="s">
+      <c r="B74" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E74" s="37">
-        <v>0</v>
-      </c>
-      <c r="F74" s="38">
-        <v>0</v>
-      </c>
-      <c r="G74" s="38">
-        <v>0</v>
-      </c>
-      <c r="I74" s="39" t="s">
-        <v>645</v>
+      <c r="E74" s="36">
+        <v>0</v>
+      </c>
+      <c r="F74" s="37">
+        <v>0</v>
+      </c>
+      <c r="G74" s="37">
+        <v>0</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5">
@@ -6856,14 +6853,14 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
@@ -6874,23 +6871,23 @@
         <v>1</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="29" customFormat="1" ht="16.5">
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="D76" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="E76" s="47">
+      <c r="E76" s="46">
         <v>1</v>
       </c>
       <c r="F76" s="29">
@@ -6899,8 +6896,8 @@
       <c r="G76" s="29">
         <v>1</v>
       </c>
-      <c r="I76" s="48" t="s">
-        <v>977</v>
+      <c r="I76" s="47" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -6908,14 +6905,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
@@ -6926,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -6934,14 +6931,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E78" s="5">
         <v>1</v>
       </c>
@@ -6952,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -6960,14 +6957,14 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="E79" s="5">
         <v>0</v>
       </c>
@@ -6978,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5">
@@ -6986,14 +6983,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="E80" s="5">
         <v>0</v>
       </c>
@@ -7004,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -7012,14 +7009,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="E81" s="5">
         <v>0</v>
       </c>
@@ -7030,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -7038,14 +7035,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="E82" s="5">
         <v>0</v>
       </c>
@@ -7056,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -7064,14 +7061,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="E83" s="5">
         <v>0</v>
       </c>
@@ -7082,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -7090,14 +7087,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
@@ -7108,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -7116,14 +7113,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="E85" s="5">
         <v>1</v>
       </c>
@@ -7134,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7142,14 +7139,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="E86" s="5">
         <v>1</v>
       </c>
@@ -7160,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7168,14 +7165,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
@@ -7186,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7194,14 +7191,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="E88" s="5">
         <v>1</v>
       </c>
@@ -7212,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7220,14 +7217,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="E89" s="5">
         <v>0</v>
       </c>
@@ -7238,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7246,14 +7243,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="E90" s="5">
         <v>1</v>
       </c>
@@ -7264,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7272,14 +7269,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="E91" s="5">
         <v>0</v>
       </c>
@@ -7290,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7298,14 +7295,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="E92" s="5">
         <v>1</v>
       </c>
@@ -7316,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7324,14 +7321,14 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
@@ -7342,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7350,14 +7347,14 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
@@ -7368,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7376,14 +7373,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
@@ -7394,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7402,14 +7399,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="E96" s="5">
         <v>0</v>
       </c>
@@ -7420,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7428,14 +7425,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="E97" s="5">
         <v>0</v>
       </c>
@@ -7446,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7454,14 +7451,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="E98" s="5">
         <v>0</v>
       </c>
@@ -7472,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7480,14 +7477,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="E99" s="5">
         <v>0</v>
       </c>
@@ -7498,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7506,14 +7503,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="E100" s="5">
         <v>1</v>
       </c>
@@ -7524,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7532,14 +7529,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="E101" s="5">
         <v>0</v>
       </c>
@@ -7550,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7558,14 +7555,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="E102" s="5">
         <v>0</v>
       </c>
@@ -7576,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7584,14 +7581,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>306</v>
-      </c>
       <c r="E103" s="5">
         <v>1</v>
       </c>
@@ -7602,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7610,14 +7607,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="D104" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="E104" s="5">
         <v>0</v>
       </c>
@@ -7628,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="16.5">
@@ -7636,14 +7633,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="E105" s="5">
         <v>0</v>
       </c>
@@ -7654,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7662,14 +7659,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="E106" s="5">
         <v>0</v>
       </c>
@@ -7680,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7688,14 +7685,14 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
@@ -7706,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7714,14 +7711,14 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="E108" s="5">
         <v>0</v>
       </c>
@@ -7732,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="16.5">
@@ -7740,14 +7737,14 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
@@ -7758,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7766,14 +7763,14 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
@@ -7784,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7792,14 +7789,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
@@ -7810,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7818,14 +7815,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
@@ -7836,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7844,14 +7841,14 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="E113" s="5">
         <v>0</v>
       </c>
@@ -7862,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7870,14 +7867,14 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="E114" s="5">
         <v>0</v>
       </c>
@@ -7888,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -7896,14 +7893,14 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="E115" s="5">
         <v>0</v>
       </c>
@@ -7914,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -7922,14 +7919,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="E116" s="5">
         <v>0</v>
       </c>
@@ -7940,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="16.5">
@@ -7948,14 +7945,14 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
@@ -7966,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -7974,14 +7971,14 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
@@ -7992,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
@@ -8000,14 +7997,14 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="E119" s="5">
         <v>0</v>
       </c>
@@ -8018,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -8026,14 +8023,14 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="D120" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
@@ -8044,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -8052,14 +8049,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="E121" s="5">
         <v>0</v>
       </c>
@@ -8070,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -8078,14 +8075,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="E122" s="5">
         <v>0</v>
       </c>
@@ -8096,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -8104,14 +8101,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="D123" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="E123" s="5">
         <v>0</v>
       </c>
@@ -8122,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -8130,14 +8127,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
@@ -8148,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8156,14 +8153,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="D125" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
@@ -8174,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8182,14 +8179,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="D126" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="E126" s="5">
         <v>1</v>
       </c>
@@ -8200,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8208,14 +8205,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
@@ -8226,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.5">
@@ -8234,14 +8231,14 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
@@ -8252,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8260,14 +8257,14 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="E129" s="5">
         <v>0</v>
       </c>
@@ -8278,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8286,14 +8283,14 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="E130" s="5">
         <v>0</v>
       </c>
@@ -8304,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8312,14 +8309,14 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="E131" s="5">
         <v>0</v>
       </c>
@@ -8330,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8338,14 +8335,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>393</v>
-      </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
@@ -8356,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8364,14 +8361,14 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
@@ -8382,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="16.5">
@@ -8390,14 +8387,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="D134" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
@@ -8408,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8416,14 +8413,14 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
@@ -8434,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8442,14 +8439,14 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
@@ -8460,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8468,14 +8465,14 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="E137" s="5">
         <v>0</v>
       </c>
@@ -8486,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8494,14 +8491,14 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="E138" s="5">
         <v>0</v>
       </c>
@@ -8512,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8520,14 +8517,14 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="E139" s="5">
         <v>0</v>
       </c>
@@ -8538,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8546,14 +8543,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="D140" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="E140" s="5">
         <v>0</v>
       </c>
@@ -8564,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8572,14 +8569,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="D141" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="E141" s="5">
         <v>0</v>
       </c>
@@ -8590,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8598,14 +8595,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="D142" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="E142" s="5">
         <v>1</v>
       </c>
@@ -8616,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8624,14 +8621,14 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="E143" s="5">
         <v>0</v>
       </c>
@@ -8642,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8650,14 +8647,14 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="E144" s="5">
         <v>1</v>
       </c>
@@ -8668,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8676,14 +8673,14 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C145" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="E145" s="5">
         <v>0</v>
       </c>
@@ -8694,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8702,14 +8699,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="E146" s="5">
         <v>0</v>
       </c>
@@ -8720,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8728,14 +8725,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="E147" s="5">
         <v>0</v>
       </c>
@@ -8746,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8754,14 +8751,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>438</v>
-      </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
@@ -8772,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8780,14 +8777,14 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="E149" s="5">
         <v>0</v>
       </c>
@@ -8798,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8806,14 +8803,14 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="E150" s="5">
         <v>0</v>
       </c>
@@ -8824,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8832,14 +8829,14 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="E151" s="5">
         <v>0</v>
       </c>
@@ -8850,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8858,14 +8855,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>450</v>
-      </c>
       <c r="E152" s="5">
         <v>0</v>
       </c>
@@ -8876,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -8884,14 +8881,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="E153" s="5">
         <v>0</v>
       </c>
@@ -8902,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -8910,14 +8907,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="D154" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>456</v>
-      </c>
       <c r="E154" s="5">
         <v>0</v>
       </c>
@@ -8928,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -8936,14 +8933,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
@@ -8954,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -8962,14 +8959,14 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -8980,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -8988,14 +8985,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -9006,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -9014,14 +9011,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>466</v>
-      </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
@@ -9032,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -9040,14 +9037,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
@@ -9058,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -9066,14 +9063,14 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>472</v>
-      </c>
       <c r="E160" s="5">
         <v>0</v>
       </c>
@@ -9084,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -9092,14 +9089,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="E161" s="5">
         <v>0</v>
       </c>
@@ -9110,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -9118,14 +9115,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="D162" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>478</v>
-      </c>
       <c r="E162" s="5">
         <v>1</v>
       </c>
@@ -9136,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9144,14 +9141,14 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="D163" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="E163" s="5">
         <v>0</v>
       </c>
@@ -9162,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9170,13 +9167,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="D164" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -9188,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9196,14 +9193,14 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>486</v>
-      </c>
       <c r="E165" s="5">
         <v>0</v>
       </c>
@@ -9214,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9222,14 +9219,14 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="E166" s="5">
         <v>1</v>
       </c>
@@ -9240,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9248,14 +9245,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="E167" s="5">
         <v>0</v>
       </c>
@@ -9266,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9274,14 +9271,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="D168" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="E168" s="5">
         <v>0</v>
       </c>
@@ -9292,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9300,10 +9297,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5">
@@ -9316,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9324,10 +9321,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9340,7 +9337,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9348,10 +9345,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9364,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9372,10 +9369,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>657</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>658</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9388,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9396,14 +9393,14 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="D173" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="E173" s="5">
         <v>0</v>
       </c>
@@ -9414,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5">
@@ -9422,10 +9419,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5">
@@ -9438,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9446,10 +9443,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9462,7 +9459,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9470,10 +9467,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9486,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9494,14 +9491,14 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>512</v>
-      </c>
       <c r="E177" s="5">
         <v>1</v>
       </c>
@@ -9512,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9520,14 +9517,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>515</v>
-      </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
@@ -9538,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9546,10 +9543,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -9562,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9570,10 +9567,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7">
@@ -9586,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9594,10 +9591,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9610,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9618,10 +9615,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9634,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="16.5">
@@ -9642,11 +9639,11 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>523</v>
+      </c>
+      <c r="C183" t="s">
         <v>524</v>
       </c>
-      <c r="C183" t="s">
-        <v>525</v>
-      </c>
       <c r="E183">
         <v>0</v>
       </c>
@@ -9657,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9665,11 +9662,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>525</v>
+      </c>
+      <c r="C184" t="s">
         <v>526</v>
       </c>
-      <c r="C184" t="s">
-        <v>527</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9680,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9688,11 +9685,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>527</v>
+      </c>
+      <c r="C185" t="s">
         <v>528</v>
       </c>
-      <c r="C185" t="s">
-        <v>529</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9703,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9711,11 +9708,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>529</v>
+      </c>
+      <c r="C186" t="s">
         <v>530</v>
       </c>
-      <c r="C186" t="s">
-        <v>531</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9726,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9734,11 +9731,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>531</v>
+      </c>
+      <c r="C187" t="s">
         <v>532</v>
       </c>
-      <c r="C187" t="s">
-        <v>533</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9749,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9757,11 +9754,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>533</v>
+      </c>
+      <c r="C188" t="s">
         <v>534</v>
       </c>
-      <c r="C188" t="s">
-        <v>535</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9772,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9780,11 +9777,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>535</v>
+      </c>
+      <c r="C189" t="s">
         <v>536</v>
       </c>
-      <c r="C189" t="s">
-        <v>537</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9795,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9803,11 +9800,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>537</v>
+      </c>
+      <c r="C190" t="s">
         <v>538</v>
       </c>
-      <c r="C190" t="s">
-        <v>539</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9818,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9826,11 +9823,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>539</v>
+      </c>
+      <c r="C191" t="s">
         <v>540</v>
       </c>
-      <c r="C191" t="s">
-        <v>541</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9841,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9849,11 +9846,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>541</v>
+      </c>
+      <c r="C192" t="s">
         <v>542</v>
       </c>
-      <c r="C192" t="s">
-        <v>543</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9864,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9872,11 +9869,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>543</v>
+      </c>
+      <c r="C193" t="s">
         <v>544</v>
       </c>
-      <c r="C193" t="s">
-        <v>545</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -9887,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -9895,11 +9892,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>545</v>
+      </c>
+      <c r="C194" t="s">
         <v>546</v>
       </c>
-      <c r="C194" t="s">
-        <v>547</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -9910,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -9918,11 +9915,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>547</v>
+      </c>
+      <c r="C195" t="s">
         <v>548</v>
       </c>
-      <c r="C195" t="s">
-        <v>549</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -9933,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -9941,11 +9938,11 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>549</v>
+      </c>
+      <c r="C196" t="s">
         <v>550</v>
       </c>
-      <c r="C196" t="s">
-        <v>551</v>
-      </c>
       <c r="E196">
         <v>0</v>
       </c>
@@ -9956,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="16.5">
@@ -9964,11 +9961,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>551</v>
+      </c>
+      <c r="C197" t="s">
         <v>552</v>
       </c>
-      <c r="C197" t="s">
-        <v>553</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -9979,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -9987,11 +9984,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>553</v>
+      </c>
+      <c r="C198" t="s">
         <v>554</v>
       </c>
-      <c r="C198" t="s">
-        <v>555</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -10002,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -10010,11 +10007,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>555</v>
+      </c>
+      <c r="C199" t="s">
         <v>556</v>
       </c>
-      <c r="C199" t="s">
-        <v>557</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -10025,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -10033,11 +10030,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>557</v>
+      </c>
+      <c r="C200" t="s">
         <v>558</v>
       </c>
-      <c r="C200" t="s">
-        <v>559</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -10048,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -10056,11 +10053,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>559</v>
+      </c>
+      <c r="C201" t="s">
         <v>560</v>
       </c>
-      <c r="C201" t="s">
-        <v>561</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -10071,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -10079,11 +10076,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>561</v>
+      </c>
+      <c r="C202" t="s">
         <v>562</v>
       </c>
-      <c r="C202" t="s">
-        <v>563</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -10094,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -10102,11 +10099,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>563</v>
+      </c>
+      <c r="C203" t="s">
         <v>564</v>
       </c>
-      <c r="C203" t="s">
-        <v>565</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -10117,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
@@ -10125,14 +10122,14 @@
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C204" t="s">
+        <v>565</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="C204" t="s">
-        <v>566</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="E204">
         <v>1</v>
       </c>
@@ -10143,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10151,14 +10148,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C205" t="s">
+        <v>566</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="C205" t="s">
-        <v>567</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>611</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -10169,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10177,14 +10174,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C206" t="s">
+        <v>567</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C206" t="s">
-        <v>568</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>613</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10195,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
@@ -10203,11 +10200,11 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
+        <v>568</v>
+      </c>
+      <c r="C207" t="s">
         <v>569</v>
       </c>
-      <c r="C207" t="s">
-        <v>570</v>
-      </c>
       <c r="E207">
         <v>0</v>
       </c>
@@ -10218,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="16.5">
@@ -10226,11 +10223,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>570</v>
+      </c>
+      <c r="C208" t="s">
         <v>571</v>
       </c>
-      <c r="C208" t="s">
-        <v>572</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10241,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10249,11 +10246,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>572</v>
+      </c>
+      <c r="C209" t="s">
         <v>573</v>
       </c>
-      <c r="C209" t="s">
-        <v>574</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10264,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10272,11 +10269,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>574</v>
+      </c>
+      <c r="C210" t="s">
         <v>575</v>
       </c>
-      <c r="C210" t="s">
-        <v>576</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10287,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10295,11 +10292,11 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>576</v>
+      </c>
+      <c r="C211" t="s">
         <v>577</v>
       </c>
-      <c r="C211" t="s">
-        <v>578</v>
-      </c>
       <c r="E211">
         <v>1</v>
       </c>
@@ -10310,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10318,11 +10315,11 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>578</v>
+      </c>
+      <c r="C212" t="s">
         <v>579</v>
       </c>
-      <c r="C212" t="s">
-        <v>580</v>
-      </c>
       <c r="E212">
         <v>0</v>
       </c>
@@ -10333,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10341,11 +10338,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>580</v>
+      </c>
+      <c r="C213" t="s">
         <v>581</v>
       </c>
-      <c r="C213" t="s">
-        <v>582</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10356,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10364,11 +10361,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>582</v>
+      </c>
+      <c r="C214" t="s">
         <v>583</v>
       </c>
-      <c r="C214" t="s">
-        <v>584</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10379,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10387,11 +10384,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>584</v>
+      </c>
+      <c r="C215" t="s">
         <v>585</v>
       </c>
-      <c r="C215" t="s">
-        <v>586</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10402,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10410,11 +10407,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>586</v>
+      </c>
+      <c r="C216" t="s">
         <v>587</v>
       </c>
-      <c r="C216" t="s">
-        <v>588</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10425,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10433,11 +10430,11 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>588</v>
+      </c>
+      <c r="C217" t="s">
         <v>589</v>
       </c>
-      <c r="C217" t="s">
-        <v>590</v>
-      </c>
       <c r="E217">
         <v>0</v>
       </c>
@@ -10448,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="16.5">
@@ -10456,11 +10453,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>590</v>
+      </c>
+      <c r="C218" t="s">
         <v>591</v>
       </c>
-      <c r="C218" t="s">
-        <v>592</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10471,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10479,11 +10476,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>592</v>
+      </c>
+      <c r="C219" t="s">
         <v>593</v>
       </c>
-      <c r="C219" t="s">
-        <v>594</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10494,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10502,11 +10499,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>594</v>
+      </c>
+      <c r="C220" t="s">
         <v>595</v>
       </c>
-      <c r="C220" t="s">
-        <v>596</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10517,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10525,11 +10522,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>596</v>
+      </c>
+      <c r="C221" t="s">
         <v>597</v>
       </c>
-      <c r="C221" t="s">
-        <v>598</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10540,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10548,11 +10545,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>598</v>
+      </c>
+      <c r="C222" t="s">
         <v>599</v>
       </c>
-      <c r="C222" t="s">
-        <v>600</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10563,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10571,11 +10568,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>600</v>
+      </c>
+      <c r="C223" t="s">
         <v>601</v>
       </c>
-      <c r="C223" t="s">
-        <v>602</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10586,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10594,11 +10591,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>602</v>
+      </c>
+      <c r="C224" t="s">
         <v>603</v>
       </c>
-      <c r="C224" t="s">
-        <v>604</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10609,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
@@ -10617,10 +10614,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10632,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="16.5">
@@ -10640,13 +10637,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C226" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="D226" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>616</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10663,13 +10660,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C227" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="D227" t="s">
         <v>619</v>
-      </c>
-      <c r="D227" t="s">
-        <v>620</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10686,13 +10683,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="D228" s="9" t="s">
         <v>622</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10709,13 +10706,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C229" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="D229" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10732,13 +10729,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C230" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="D230" s="9" t="s">
         <v>631</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>632</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10755,13 +10752,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C231" s="9" t="s">
-        <v>629</v>
-      </c>
       <c r="D231" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10778,13 +10775,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>638</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>639</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -10801,13 +10798,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C233" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="D233" s="9" t="s">
         <v>653</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>654</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10824,13 +10821,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>661</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>662</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10847,14 +10844,14 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="D235" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C235" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>665</v>
-      </c>
       <c r="E235">
         <v>1</v>
       </c>
@@ -10865,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10873,14 +10870,14 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>667</v>
-      </c>
       <c r="E236">
         <v>0</v>
       </c>
@@ -10891,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="9" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10899,25 +10896,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C237" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="D237" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
         <v>671</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10925,25 +10922,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D238" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="C238" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>674</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -10951,25 +10948,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>680</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10977,25 +10974,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="D240" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" s="9" t="s">
         <v>684</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" s="9" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -11003,25 +11000,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>688</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -11029,25 +11026,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>696</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -11055,25 +11052,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>700</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -11081,13 +11078,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11099,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -11107,13 +11104,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11125,7 +11122,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11133,13 +11130,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11151,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11159,25 +11156,25 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="C247" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="D247" s="9" t="s">
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="9" t="s">
         <v>716</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="I247" s="9" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11185,25 +11182,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="D248" s="9" t="s">
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11211,25 +11208,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="D249" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="D249" s="9" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>724</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11237,25 +11234,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="D250" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11263,25 +11260,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="C251" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="D251" s="9" t="s">
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11289,14 +11286,14 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C252" t="s">
+        <v>737</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C252" t="s">
-        <v>738</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>736</v>
-      </c>
       <c r="E252">
         <v>0</v>
       </c>
@@ -11307,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11315,13 +11312,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="28" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C253" s="29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E253" s="29">
         <v>0</v>
@@ -11334,7 +11331,7 @@
       </c>
       <c r="H253" s="29"/>
       <c r="I253" s="28" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11342,25 +11339,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="D254" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
         <v>742</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="9" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11368,25 +11365,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>746</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="26" customFormat="1" ht="16.5">
@@ -11394,25 +11391,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="D256" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="C256" s="25" t="s">
+      <c r="E256" s="26">
+        <v>1</v>
+      </c>
+      <c r="F256" s="26">
+        <v>1</v>
+      </c>
+      <c r="G256" s="26">
+        <v>1</v>
+      </c>
+      <c r="I256" s="22" t="s">
         <v>920</v>
-      </c>
-      <c r="D256" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="E256" s="26">
-        <v>1</v>
-      </c>
-      <c r="F256" s="26">
-        <v>1</v>
-      </c>
-      <c r="G256" s="26">
-        <v>1</v>
-      </c>
-      <c r="I256" s="22" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11420,14 +11417,14 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D257" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="D257" s="15" t="s">
-        <v>752</v>
-      </c>
       <c r="E257" s="17">
         <v>0</v>
       </c>
@@ -11438,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11446,14 +11443,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="C258" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="D258" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>756</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11464,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11472,25 +11469,25 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="D259" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="D259" s="15" t="s">
+      <c r="E259" s="17">
+        <v>1</v>
+      </c>
+      <c r="F259" s="17">
+        <v>1</v>
+      </c>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="15" t="s">
         <v>759</v>
-      </c>
-      <c r="E259" s="17">
-        <v>1</v>
-      </c>
-      <c r="F259" s="17">
-        <v>1</v>
-      </c>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="I259" s="15" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11498,25 +11495,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>0</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>763</v>
-      </c>
-      <c r="E260" s="17">
-        <v>0</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5">
@@ -11524,25 +11521,25 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>764</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D261" t="s">
         <v>765</v>
       </c>
-      <c r="C261" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>766</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="12" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11550,14 +11547,14 @@
         <v>261</v>
       </c>
       <c r="B262" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C262" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="C262" s="9" t="s">
+      <c r="D262" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="D262" s="15" t="s">
-        <v>771</v>
-      </c>
       <c r="E262">
         <v>1</v>
       </c>
@@ -11568,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11576,25 +11573,25 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C263" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="D263" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="D263" s="15" t="s">
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
         <v>774</v>
-      </c>
-      <c r="E263" s="17">
-        <v>0</v>
-      </c>
-      <c r="F263" s="17">
-        <v>0</v>
-      </c>
-      <c r="G263" s="17">
-        <v>0</v>
-      </c>
-      <c r="I263" s="15" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11602,14 +11599,14 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="D264" s="15" t="s">
-        <v>778</v>
-      </c>
       <c r="E264" s="17">
         <v>0</v>
       </c>
@@ -11620,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11628,25 +11625,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="D265" s="15" t="s">
+      <c r="E265" s="17">
+        <v>0</v>
+      </c>
+      <c r="F265" s="17">
+        <v>0</v>
+      </c>
+      <c r="G265" s="17">
+        <v>0</v>
+      </c>
+      <c r="I265" s="17" t="s">
         <v>781</v>
-      </c>
-      <c r="E265" s="17">
-        <v>0</v>
-      </c>
-      <c r="F265" s="17">
-        <v>0</v>
-      </c>
-      <c r="G265" s="17">
-        <v>0</v>
-      </c>
-      <c r="I265" s="17" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11654,25 +11651,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="19" t="s">
         <v>785</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>784</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="19" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11680,14 +11677,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>789</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>788</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11698,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11706,14 +11703,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C268" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="D268" s="18" t="s">
-        <v>792</v>
-      </c>
       <c r="E268" s="17">
         <v>1</v>
       </c>
@@ -11724,7 +11721,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="16.5">
@@ -11732,13 +11729,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C269" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="C269" s="15" t="s">
-        <v>795</v>
-      </c>
       <c r="D269" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11751,7 +11748,7 @@
       </c>
       <c r="H269" s="17"/>
       <c r="I269" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5">
@@ -11759,13 +11756,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>797</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>798</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11778,7 +11775,7 @@
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5">
@@ -11786,13 +11783,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>800</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>802</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>801</v>
       </c>
       <c r="E271" s="17">
         <v>1</v>
@@ -11805,7 +11802,7 @@
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5">
@@ -11813,13 +11810,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="D272" s="18" t="s">
         <v>805</v>
-      </c>
-      <c r="D272" s="18" t="s">
-        <v>806</v>
       </c>
       <c r="E272" s="17">
         <v>1</v>
@@ -11832,7 +11829,7 @@
       </c>
       <c r="H272" s="17"/>
       <c r="I272" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5">
@@ -11840,13 +11837,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="C273" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>809</v>
       </c>
       <c r="E273" s="17">
         <v>0</v>
@@ -11859,7 +11856,7 @@
       </c>
       <c r="H273" s="17"/>
       <c r="I273" s="15" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5">
@@ -11867,13 +11864,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C274" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D274" s="18" t="s">
         <v>811</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>812</v>
       </c>
       <c r="E274" s="17">
         <v>0</v>
@@ -11886,7 +11883,7 @@
       </c>
       <c r="H274" s="17"/>
       <c r="I274" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="21" customFormat="1" ht="17.25">
@@ -11894,13 +11891,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>815</v>
-      </c>
-      <c r="C275" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>816</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
@@ -11913,7 +11910,7 @@
       </c>
       <c r="H275" s="17"/>
       <c r="I275" s="27" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="16.5">
@@ -11921,22 +11918,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="C276" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="C276" s="15" t="s">
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>818</v>
-      </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
@@ -11944,13 +11941,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="D277" s="31" t="s">
         <v>820</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="D277" s="31" t="s">
-        <v>821</v>
       </c>
       <c r="E277" s="15">
         <v>0</v>
@@ -11963,7 +11960,7 @@
       </c>
       <c r="H277" s="15"/>
       <c r="I277" s="15" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -11971,25 +11968,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D278" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="I278" s="19" t="s">
         <v>822</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="19" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11997,22 +11994,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="C279" s="15" t="s">
-        <v>824</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12020,13 +12017,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D280" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12038,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12046,13 +12043,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12064,7 +12061,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12072,25 +12069,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="D282" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>835</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="34" customFormat="1" ht="17.25" customHeight="1">
@@ -12098,25 +12095,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="33" t="s">
+        <v>836</v>
+      </c>
+      <c r="C283" s="32" t="s">
         <v>837</v>
       </c>
-      <c r="C283" s="32" t="s">
+      <c r="D283" s="33" t="s">
         <v>838</v>
       </c>
-      <c r="D283" s="33" t="s">
+      <c r="E283" s="34">
+        <v>1</v>
+      </c>
+      <c r="F283" s="34">
+        <v>1</v>
+      </c>
+      <c r="G283" s="34">
+        <v>1</v>
+      </c>
+      <c r="I283" s="35" t="s">
         <v>839</v>
-      </c>
-      <c r="E283" s="34">
-        <v>1</v>
-      </c>
-      <c r="F283" s="34">
-        <v>1</v>
-      </c>
-      <c r="G283" s="34">
-        <v>1</v>
-      </c>
-      <c r="I283" s="35" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12124,13 +12121,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="C284" s="32" t="s">
         <v>845</v>
       </c>
-      <c r="C284" s="32" t="s">
-        <v>846</v>
-      </c>
       <c r="D284" s="33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E284" s="34">
         <v>1</v>
@@ -12142,7 +12139,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="16.5">
@@ -12150,25 +12147,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="C285" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="D285" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="D285" s="18" t="s">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="19" t="s">
         <v>850</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="I285" s="19" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12176,13 +12173,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="C286" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="C286" s="32" t="s">
-        <v>854</v>
-      </c>
       <c r="D286" s="33" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E286" s="34">
         <v>1</v>
@@ -12194,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12202,25 +12199,25 @@
         <v>286</v>
       </c>
       <c r="B287" s="32" t="s">
+        <v>854</v>
+      </c>
+      <c r="C287" s="32" t="s">
         <v>855</v>
       </c>
-      <c r="C287" s="32" t="s">
+      <c r="D287" s="33" t="s">
         <v>856</v>
       </c>
-      <c r="D287" s="33" t="s">
+      <c r="E287" s="34">
+        <v>1</v>
+      </c>
+      <c r="F287" s="34">
+        <v>1</v>
+      </c>
+      <c r="G287" s="34">
+        <v>1</v>
+      </c>
+      <c r="I287" s="35" t="s">
         <v>857</v>
-      </c>
-      <c r="E287" s="34">
-        <v>1</v>
-      </c>
-      <c r="F287" s="34">
-        <v>1</v>
-      </c>
-      <c r="G287" s="34">
-        <v>1</v>
-      </c>
-      <c r="I287" s="35" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12228,13 +12225,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="28" t="s">
+        <v>858</v>
+      </c>
+      <c r="C288" s="28" t="s">
         <v>859</v>
       </c>
-      <c r="C288" s="28" t="s">
+      <c r="D288" s="28" t="s">
         <v>860</v>
-      </c>
-      <c r="D288" s="28" t="s">
-        <v>861</v>
       </c>
       <c r="E288" s="29">
         <v>1</v>
@@ -12247,7 +12244,7 @@
       </c>
       <c r="H288" s="29"/>
       <c r="I288" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12255,25 +12252,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="32" t="s">
+        <v>861</v>
+      </c>
+      <c r="C289" s="32" t="s">
         <v>862</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="D289" s="33" t="s">
         <v>863</v>
       </c>
-      <c r="D289" s="33" t="s">
+      <c r="E289" s="34">
+        <v>1</v>
+      </c>
+      <c r="F289" s="34">
+        <v>1</v>
+      </c>
+      <c r="G289" s="34">
+        <v>1</v>
+      </c>
+      <c r="I289" s="35" t="s">
         <v>864</v>
-      </c>
-      <c r="E289" s="34">
-        <v>1</v>
-      </c>
-      <c r="F289" s="34">
-        <v>1</v>
-      </c>
-      <c r="G289" s="34">
-        <v>1</v>
-      </c>
-      <c r="I289" s="35" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12281,25 +12278,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="C290" s="32" t="s">
         <v>866</v>
       </c>
-      <c r="C290" s="32" t="s">
+      <c r="D290" s="33" t="s">
         <v>867</v>
       </c>
-      <c r="D290" s="33" t="s">
+      <c r="E290" s="34">
+        <v>1</v>
+      </c>
+      <c r="F290" s="34">
+        <v>1</v>
+      </c>
+      <c r="G290" s="34">
+        <v>1</v>
+      </c>
+      <c r="I290" s="35" t="s">
         <v>868</v>
-      </c>
-      <c r="E290" s="34">
-        <v>1</v>
-      </c>
-      <c r="F290" s="34">
-        <v>1</v>
-      </c>
-      <c r="G290" s="34">
-        <v>1</v>
-      </c>
-      <c r="I290" s="35" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12307,14 +12304,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="C291" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="C291" s="32" t="s">
+      <c r="D291" s="33" t="s">
         <v>871</v>
       </c>
-      <c r="D291" s="33" t="s">
-        <v>872</v>
-      </c>
       <c r="E291" s="34">
         <v>1</v>
       </c>
@@ -12325,7 +12322,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="292" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12333,13 +12330,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C292" s="32" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D292" s="33" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E292" s="34">
         <v>1</v>
@@ -12351,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="293" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12359,25 +12356,25 @@
         <v>292</v>
       </c>
       <c r="B293" s="33" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C293" s="32" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D293" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="E293" s="34">
+        <v>1</v>
+      </c>
+      <c r="F293" s="34">
+        <v>1</v>
+      </c>
+      <c r="G293" s="34">
+        <v>1</v>
+      </c>
+      <c r="I293" s="35" t="s">
         <v>876</v>
-      </c>
-      <c r="E293" s="34">
-        <v>1</v>
-      </c>
-      <c r="F293" s="34">
-        <v>1</v>
-      </c>
-      <c r="G293" s="34">
-        <v>1</v>
-      </c>
-      <c r="I293" s="35" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12385,14 +12382,14 @@
         <v>293</v>
       </c>
       <c r="B294" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="C294" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="C294" s="32" t="s">
+      <c r="D294" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="D294" s="33" t="s">
-        <v>882</v>
-      </c>
       <c r="E294" s="34">
         <v>1</v>
       </c>
@@ -12403,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="295" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12411,14 +12408,14 @@
         <v>294</v>
       </c>
       <c r="B295" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="C295" s="32" t="s">
         <v>883</v>
       </c>
-      <c r="C295" s="32" t="s">
+      <c r="D295" s="33" t="s">
         <v>884</v>
       </c>
-      <c r="D295" s="33" t="s">
-        <v>885</v>
-      </c>
       <c r="E295" s="34">
         <v>1</v>
       </c>
@@ -12429,7 +12426,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="16.5">
@@ -12437,13 +12434,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="C296" s="15" t="s">
-        <v>887</v>
-      </c>
       <c r="D296" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -12455,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="16.5">
@@ -12463,13 +12460,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -12481,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -12489,14 +12486,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="C298" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="C298" s="15" t="s">
+      <c r="D298" s="20" t="s">
         <v>893</v>
       </c>
-      <c r="D298" s="20" t="s">
-        <v>894</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12507,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12515,25 +12512,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="33" t="s">
+        <v>894</v>
+      </c>
+      <c r="C299" s="32" t="s">
         <v>895</v>
       </c>
-      <c r="C299" s="32" t="s">
+      <c r="D299" s="33" t="s">
         <v>896</v>
       </c>
-      <c r="D299" s="33" t="s">
+      <c r="E299" s="34">
+        <v>1</v>
+      </c>
+      <c r="F299" s="34">
+        <v>1</v>
+      </c>
+      <c r="G299" s="34">
+        <v>1</v>
+      </c>
+      <c r="I299" s="35" t="s">
         <v>897</v>
-      </c>
-      <c r="E299" s="34">
-        <v>1</v>
-      </c>
-      <c r="F299" s="34">
-        <v>1</v>
-      </c>
-      <c r="G299" s="34">
-        <v>1</v>
-      </c>
-      <c r="I299" s="35" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12541,13 +12538,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="C300" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="C300" s="15" t="s">
+      <c r="D300" s="18" t="s">
         <v>902</v>
-      </c>
-      <c r="D300" s="18" t="s">
-        <v>903</v>
       </c>
       <c r="E300" s="17">
         <v>0</v>
@@ -12560,7 +12557,7 @@
       </c>
       <c r="H300" s="17"/>
       <c r="I300" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12568,13 +12565,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C301" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="D301" s="18" t="s">
         <v>905</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>906</v>
       </c>
       <c r="E301" s="17">
         <v>0</v>
@@ -12587,7 +12584,7 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12595,13 +12592,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="C302" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="D302" s="18" t="s">
         <v>909</v>
-      </c>
-      <c r="C302" s="15" t="s">
-        <v>908</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>910</v>
       </c>
       <c r="E302" s="17">
         <v>0</v>
@@ -12614,7 +12611,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12622,106 +12619,106 @@
         <v>302</v>
       </c>
       <c r="B303" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="C303" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="D303" s="33" t="s">
         <v>911</v>
       </c>
-      <c r="C303" s="32" t="s">
-        <v>915</v>
-      </c>
-      <c r="D303" s="33" t="s">
+      <c r="E303" s="34">
+        <v>1</v>
+      </c>
+      <c r="F303" s="34">
+        <v>1</v>
+      </c>
+      <c r="G303" s="34">
+        <v>1</v>
+      </c>
+      <c r="I303" s="35" t="s">
         <v>912</v>
-      </c>
-      <c r="E303" s="34">
-        <v>1</v>
-      </c>
-      <c r="F303" s="34">
-        <v>1</v>
-      </c>
-      <c r="G303" s="34">
-        <v>1</v>
-      </c>
-      <c r="I303" s="35" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="43" t="s">
-        <v>989</v>
-      </c>
-      <c r="C304" s="44" t="s">
-        <v>935</v>
-      </c>
-      <c r="D304" s="43" t="s">
-        <v>974</v>
-      </c>
-      <c r="E304" s="45">
-        <v>1</v>
-      </c>
-      <c r="F304" s="45">
-        <v>1</v>
-      </c>
-      <c r="G304" s="45">
-        <v>1</v>
-      </c>
-      <c r="H304" s="45"/>
-      <c r="I304" s="44" t="s">
-        <v>937</v>
+      <c r="B304" s="42" t="s">
+        <v>987</v>
+      </c>
+      <c r="C304" s="43" t="s">
+        <v>934</v>
+      </c>
+      <c r="D304" s="42" t="s">
+        <v>972</v>
+      </c>
+      <c r="E304" s="44">
+        <v>1</v>
+      </c>
+      <c r="F304" s="44">
+        <v>1</v>
+      </c>
+      <c r="G304" s="44">
+        <v>1</v>
+      </c>
+      <c r="H304" s="44"/>
+      <c r="I304" s="43" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="43" t="s">
-        <v>970</v>
-      </c>
-      <c r="C305" s="44" t="s">
+      <c r="B305" s="42" t="s">
+        <v>968</v>
+      </c>
+      <c r="C305" s="43" t="s">
+        <v>935</v>
+      </c>
+      <c r="D305" s="42" t="s">
+        <v>973</v>
+      </c>
+      <c r="E305" s="44">
+        <v>1</v>
+      </c>
+      <c r="F305" s="44">
+        <v>1</v>
+      </c>
+      <c r="G305" s="44">
+        <v>1</v>
+      </c>
+      <c r="H305" s="44"/>
+      <c r="I305" s="43" t="s">
         <v>936</v>
-      </c>
-      <c r="D305" s="43" t="s">
-        <v>975</v>
-      </c>
-      <c r="E305" s="45">
-        <v>1</v>
-      </c>
-      <c r="F305" s="45">
-        <v>1</v>
-      </c>
-      <c r="G305" s="45">
-        <v>1</v>
-      </c>
-      <c r="H305" s="45"/>
-      <c r="I305" s="44" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="43" t="s">
-        <v>964</v>
-      </c>
-      <c r="C306" s="43" t="s">
-        <v>942</v>
-      </c>
-      <c r="D306" s="43" t="s">
-        <v>965</v>
-      </c>
-      <c r="E306" s="45">
-        <v>1</v>
-      </c>
-      <c r="F306" s="45">
-        <v>1</v>
-      </c>
-      <c r="G306" s="45">
-        <v>1</v>
-      </c>
-      <c r="H306" s="45"/>
-      <c r="I306" s="46" t="s">
-        <v>642</v>
+      <c r="B306" s="42" t="s">
+        <v>962</v>
+      </c>
+      <c r="C306" s="42" t="s">
+        <v>941</v>
+      </c>
+      <c r="D306" s="42" t="s">
+        <v>963</v>
+      </c>
+      <c r="E306" s="44">
+        <v>1</v>
+      </c>
+      <c r="F306" s="44">
+        <v>1</v>
+      </c>
+      <c r="G306" s="44">
+        <v>1</v>
+      </c>
+      <c r="H306" s="44"/>
+      <c r="I306" s="45" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12729,13 +12726,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E307" s="17">
         <v>1</v>
@@ -12748,7 +12745,7 @@
       </c>
       <c r="H307" s="17"/>
       <c r="I307" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12756,13 +12753,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E308" s="17">
         <v>1</v>
@@ -12775,7 +12772,7 @@
       </c>
       <c r="H308" s="17"/>
       <c r="I308" s="15" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12783,25 +12780,25 @@
         <v>308</v>
       </c>
       <c r="B309" s="33" t="s">
+        <v>926</v>
+      </c>
+      <c r="C309" s="32" t="s">
         <v>927</v>
       </c>
-      <c r="C309" s="32" t="s">
+      <c r="D309" s="33" t="s">
+        <v>925</v>
+      </c>
+      <c r="E309" s="34">
+        <v>1</v>
+      </c>
+      <c r="F309" s="34">
+        <v>1</v>
+      </c>
+      <c r="G309" s="34">
+        <v>1</v>
+      </c>
+      <c r="I309" s="32" t="s">
         <v>928</v>
-      </c>
-      <c r="D309" s="33" t="s">
-        <v>926</v>
-      </c>
-      <c r="E309" s="34">
-        <v>1</v>
-      </c>
-      <c r="F309" s="34">
-        <v>1</v>
-      </c>
-      <c r="G309" s="34">
-        <v>1</v>
-      </c>
-      <c r="I309" s="32" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12809,13 +12806,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="C310" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>930</v>
-      </c>
-      <c r="C310" s="15" t="s">
-        <v>932</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>931</v>
       </c>
       <c r="E310" s="17">
         <v>1</v>
@@ -12828,22 +12825,22 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="49" t="s">
-        <v>987</v>
-      </c>
-      <c r="C311" s="50" t="s">
+      <c r="B311" s="48" t="s">
+        <v>985</v>
+      </c>
+      <c r="C311" s="49" t="s">
+        <v>932</v>
+      </c>
+      <c r="D311" s="48" t="s">
         <v>933</v>
       </c>
-      <c r="D311" s="49" t="s">
-        <v>934</v>
-      </c>
       <c r="E311" s="2">
         <v>1</v>
       </c>
@@ -12853,8 +12850,8 @@
       <c r="G311" s="2">
         <v>1</v>
       </c>
-      <c r="I311" s="50" t="s">
-        <v>938</v>
+      <c r="I311" s="49" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12862,14 +12859,14 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="D312" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="D312" s="18" t="s">
-        <v>941</v>
-      </c>
       <c r="E312" s="17">
         <v>0</v>
       </c>
@@ -12880,30 +12877,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="17.25">
+    <row r="313" spans="1:9" s="2" customFormat="1" ht="17.25">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="30" t="s">
-        <v>943</v>
-      </c>
-      <c r="C313" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="D313" s="20" t="s">
-        <v>948</v>
-      </c>
-      <c r="E313" s="17">
-        <v>1</v>
-      </c>
-      <c r="F313" s="17">
-        <v>1</v>
-      </c>
-      <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="9" t="s">
+      <c r="B313" s="53" t="s">
+        <v>942</v>
+      </c>
+      <c r="C313" s="49" t="s">
+        <v>944</v>
+      </c>
+      <c r="D313" s="48" t="s">
         <v>947</v>
+      </c>
+      <c r="E313" s="2">
+        <v>1</v>
+      </c>
+      <c r="F313" s="2">
+        <v>1</v>
+      </c>
+      <c r="G313" s="2">
+        <v>1</v>
+      </c>
+      <c r="I313" s="49" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="17.25">
@@ -12911,13 +12908,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="30" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D314" s="30" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E314" s="17">
         <v>1</v>
@@ -12929,22 +12926,22 @@
         <v>1</v>
       </c>
       <c r="I314" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="49" t="s">
-        <v>955</v>
-      </c>
-      <c r="C315" s="50" t="s">
-        <v>950</v>
-      </c>
-      <c r="D315" s="49" t="s">
+      <c r="B315" s="48" t="s">
+        <v>953</v>
+      </c>
+      <c r="C315" s="49" t="s">
         <v>949</v>
       </c>
+      <c r="D315" s="48" t="s">
+        <v>948</v>
+      </c>
       <c r="E315" s="2">
         <v>1</v>
       </c>
@@ -12955,223 +12952,222 @@
         <v>1</v>
       </c>
       <c r="H315" s="2"/>
-      <c r="I315" s="50" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="17.25">
+      <c r="I315" s="49" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="17" customFormat="1" ht="17.25">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="36" t="s">
-        <v>956</v>
-      </c>
-      <c r="C316" s="25" t="s">
-        <v>953</v>
-      </c>
-      <c r="D316" s="36" t="s">
+      <c r="B316" s="54" t="s">
+        <v>954</v>
+      </c>
+      <c r="C316" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="E316" s="26">
-        <v>1</v>
-      </c>
-      <c r="F316" s="26">
-        <v>1</v>
-      </c>
-      <c r="G316" s="26">
-        <v>1</v>
-      </c>
-      <c r="H316" s="26"/>
-      <c r="I316" s="25" t="s">
-        <v>954</v>
+      <c r="D316" s="54" t="s">
+        <v>951</v>
+      </c>
+      <c r="E316" s="17">
+        <v>0</v>
+      </c>
+      <c r="F316" s="17">
+        <v>1</v>
+      </c>
+      <c r="G316" s="17">
+        <v>1</v>
+      </c>
+      <c r="I316" s="15" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="42" t="s">
-        <v>990</v>
-      </c>
-      <c r="C317" s="40" t="s">
-        <v>957</v>
-      </c>
-      <c r="D317" s="41"/>
-      <c r="E317" s="41">
-        <v>1</v>
-      </c>
-      <c r="F317" s="41">
-        <v>1</v>
-      </c>
-      <c r="G317" s="41">
-        <v>1</v>
-      </c>
-      <c r="H317" s="41"/>
-      <c r="I317" s="40" t="s">
-        <v>969</v>
+      <c r="B317" s="41" t="s">
+        <v>988</v>
+      </c>
+      <c r="C317" s="39" t="s">
+        <v>955</v>
+      </c>
+      <c r="D317" s="40"/>
+      <c r="E317" s="40">
+        <v>1</v>
+      </c>
+      <c r="F317" s="40">
+        <v>1</v>
+      </c>
+      <c r="G317" s="40">
+        <v>1</v>
+      </c>
+      <c r="H317" s="40"/>
+      <c r="I317" s="39" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="42" t="s">
-        <v>971</v>
-      </c>
-      <c r="C318" s="40" t="s">
-        <v>958</v>
-      </c>
-      <c r="D318" s="41"/>
-      <c r="E318" s="41">
-        <v>1</v>
-      </c>
-      <c r="F318" s="41">
-        <v>1</v>
-      </c>
-      <c r="G318" s="41">
-        <v>1</v>
-      </c>
-      <c r="H318" s="41"/>
-      <c r="I318" s="40" t="s">
-        <v>968</v>
+      <c r="B318" s="41" t="s">
+        <v>969</v>
+      </c>
+      <c r="C318" s="39" t="s">
+        <v>956</v>
+      </c>
+      <c r="D318" s="40"/>
+      <c r="E318" s="40">
+        <v>1</v>
+      </c>
+      <c r="F318" s="40">
+        <v>1</v>
+      </c>
+      <c r="G318" s="40">
+        <v>1</v>
+      </c>
+      <c r="H318" s="40"/>
+      <c r="I318" s="39" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="42" t="s">
+      <c r="B319" s="41" t="s">
+        <v>965</v>
+      </c>
+      <c r="C319" s="40"/>
+      <c r="D319" s="40"/>
+      <c r="E319" s="40">
+        <v>1</v>
+      </c>
+      <c r="F319" s="40">
+        <v>1</v>
+      </c>
+      <c r="G319" s="40">
+        <v>1</v>
+      </c>
+      <c r="H319" s="40"/>
+      <c r="I319" s="39" t="s">
         <v>967</v>
-      </c>
-      <c r="C319" s="41"/>
-      <c r="D319" s="41"/>
-      <c r="E319" s="41">
-        <v>1</v>
-      </c>
-      <c r="F319" s="41">
-        <v>1</v>
-      </c>
-      <c r="G319" s="41">
-        <v>1</v>
-      </c>
-      <c r="H319" s="41"/>
-      <c r="I319" s="40" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="42" t="s">
-        <v>966</v>
-      </c>
-      <c r="C320" s="41"/>
-      <c r="D320" s="41"/>
-      <c r="E320" s="41">
-        <v>1</v>
-      </c>
-      <c r="F320" s="41">
-        <v>1</v>
-      </c>
-      <c r="G320" s="41">
-        <v>1</v>
-      </c>
-      <c r="H320" s="41"/>
-      <c r="I320" s="40" t="s">
-        <v>959</v>
+      <c r="B320" s="41" t="s">
+        <v>964</v>
+      </c>
+      <c r="C320" s="40"/>
+      <c r="D320" s="40"/>
+      <c r="E320" s="40">
+        <v>1</v>
+      </c>
+      <c r="F320" s="40">
+        <v>1</v>
+      </c>
+      <c r="G320" s="40">
+        <v>1</v>
+      </c>
+      <c r="H320" s="40"/>
+      <c r="I320" s="39" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="42" t="s">
-        <v>972</v>
-      </c>
-      <c r="C321" s="40" t="s">
-        <v>960</v>
-      </c>
-      <c r="D321" s="41"/>
-      <c r="E321" s="41">
-        <v>1</v>
-      </c>
-      <c r="F321" s="41">
-        <v>1</v>
-      </c>
-      <c r="G321" s="41">
-        <v>1</v>
-      </c>
-      <c r="H321" s="41"/>
-      <c r="I321" s="40" t="s">
-        <v>959</v>
+      <c r="B321" s="41" t="s">
+        <v>970</v>
+      </c>
+      <c r="C321" s="39" t="s">
+        <v>958</v>
+      </c>
+      <c r="D321" s="40"/>
+      <c r="E321" s="40">
+        <v>1</v>
+      </c>
+      <c r="F321" s="40">
+        <v>1</v>
+      </c>
+      <c r="G321" s="40">
+        <v>1</v>
+      </c>
+      <c r="H321" s="40"/>
+      <c r="I321" s="39" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="42" t="s">
-        <v>973</v>
-      </c>
-      <c r="C322" s="40" t="s">
-        <v>961</v>
-      </c>
-      <c r="D322" s="41"/>
-      <c r="E322" s="41">
-        <v>1</v>
-      </c>
-      <c r="F322" s="41">
-        <v>1</v>
-      </c>
-      <c r="G322" s="41">
-        <v>1</v>
-      </c>
-      <c r="H322" s="41"/>
-      <c r="I322" s="40" t="s">
+      <c r="B322" s="41" t="s">
+        <v>971</v>
+      </c>
+      <c r="C322" s="39" t="s">
         <v>959</v>
+      </c>
+      <c r="D322" s="40"/>
+      <c r="E322" s="40">
+        <v>1</v>
+      </c>
+      <c r="F322" s="40">
+        <v>1</v>
+      </c>
+      <c r="G322" s="40">
+        <v>1</v>
+      </c>
+      <c r="H322" s="40"/>
+      <c r="I322" s="39" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="49" t="s">
+      <c r="B323" s="48" t="s">
+        <v>976</v>
+      </c>
+      <c r="C323" s="49" t="s">
+        <v>977</v>
+      </c>
+      <c r="D323" s="48" t="s">
         <v>978</v>
       </c>
-      <c r="C323" s="50" t="s">
+      <c r="E323" s="2">
+        <v>1</v>
+      </c>
+      <c r="F323" s="2">
+        <v>1</v>
+      </c>
+      <c r="G323" s="2">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2"/>
+      <c r="I323" s="49" t="s">
         <v>979</v>
-      </c>
-      <c r="D323" s="49" t="s">
-        <v>980</v>
-      </c>
-      <c r="E323" s="2">
-        <v>1</v>
-      </c>
-      <c r="F323" s="2">
-        <v>1</v>
-      </c>
-      <c r="G323" s="2">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2"/>
-      <c r="I323" s="50" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="16">
         <v>323</v>
       </c>
-      <c r="B324" s="49" t="s">
+      <c r="B324" s="48" t="s">
+        <v>980</v>
+      </c>
+      <c r="C324" s="49" t="s">
+        <v>981</v>
+      </c>
+      <c r="D324" s="48" t="s">
         <v>982</v>
       </c>
-      <c r="C324" s="50" t="s">
-        <v>983</v>
-      </c>
-      <c r="D324" s="49" t="s">
-        <v>984</v>
-      </c>
       <c r="E324" s="2">
         <v>1</v>
       </c>
@@ -13182,19 +13178,19 @@
         <v>1</v>
       </c>
       <c r="H324" s="2"/>
-      <c r="I324" s="50" t="s">
-        <v>981</v>
+      <c r="I324" s="49" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="16">
         <v>324</v>
       </c>
-      <c r="B325" s="49" t="s">
-        <v>985</v>
-      </c>
-      <c r="C325" s="50" t="s">
-        <v>986</v>
+      <c r="B325" s="48" t="s">
+        <v>983</v>
+      </c>
+      <c r="C325" s="49" t="s">
+        <v>984</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2">
@@ -13207,8 +13203,8 @@
         <v>1</v>
       </c>
       <c r="H325" s="2"/>
-      <c r="I325" s="50" t="s">
-        <v>981</v>
+      <c r="I325" s="49" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13216,7 +13212,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -13230,23 +13226,23 @@
         <v>1</v>
       </c>
       <c r="H326" s="2"/>
-      <c r="I326" s="51" t="s">
-        <v>642</v>
+      <c r="I326" s="50" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="16.5">
       <c r="A327" s="16">
         <v>326</v>
       </c>
-      <c r="B327" s="49" t="s">
-        <v>992</v>
-      </c>
-      <c r="C327" s="49" t="s">
+      <c r="B327" s="48" t="s">
+        <v>990</v>
+      </c>
+      <c r="C327" s="48" t="s">
+        <v>989</v>
+      </c>
+      <c r="D327" s="48" t="s">
         <v>991</v>
       </c>
-      <c r="D327" s="49" t="s">
-        <v>993</v>
-      </c>
       <c r="E327" s="2">
         <v>1</v>
       </c>
@@ -13257,8 +13253,8 @@
         <v>1</v>
       </c>
       <c r="H327" s="2"/>
-      <c r="I327" s="50" t="s">
-        <v>981</v>
+      <c r="I327" s="49" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="16.5">
@@ -13288,7 +13284,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="996">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4233,6 +4233,15 @@
   <si>
     <t>act_ty_sjb_style/act_001_ygbd</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+  </si>
+  <si>
+    <t>act_048_xnsmt</t>
+  </si>
+  <si>
+    <t>Act_048_XNSMTManager</t>
   </si>
 </sst>
 </file>
@@ -4885,10 +4894,10 @@
   <dimension ref="A1:I328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C327" sqref="C327"/>
+      <selection pane="bottomRight" activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13210,6 +13219,33 @@
       <c r="H326" s="2"/>
       <c r="I326" s="51" t="s">
         <v>642</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="16.5">
+      <c r="A327" s="16">
+        <v>326</v>
+      </c>
+      <c r="B327" s="49" t="s">
+        <v>994</v>
+      </c>
+      <c r="C327" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="D327" s="49" t="s">
+        <v>995</v>
+      </c>
+      <c r="E327" s="2">
+        <v>1</v>
+      </c>
+      <c r="F327" s="2">
+        <v>1</v>
+      </c>
+      <c r="G327" s="2">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2"/>
+      <c r="I327" s="50" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="16.5">

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2754,10 +2754,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>永久关闭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>红包分享</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4267,6 +4263,10 @@
   </si>
   <si>
     <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4483,7 +4483,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4636,6 +4636,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4917,10 +4923,10 @@
   <dimension ref="A1:I324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C310" sqref="C310"/>
+      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5612,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -6320,7 +6326,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6346,7 +6352,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6442,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6866,7 +6872,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C75" s="41" t="s">
         <v>221</v>
@@ -6913,30 +6919,30 @@
         <v>646</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5">
-      <c r="A77" s="16">
+    <row r="77" spans="1:9" s="31" customFormat="1" ht="16.5">
+      <c r="A77" s="51">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="E77" s="5">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>652</v>
+      <c r="E77" s="51">
+        <v>1</v>
+      </c>
+      <c r="F77" s="31">
+        <v>1</v>
+      </c>
+      <c r="G77" s="31">
+        <v>1</v>
+      </c>
+      <c r="I77" s="52" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -7586,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -8689,7 +8695,7 @@
         <v>429</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>430</v>
@@ -8715,7 +8721,7 @@
         <v>431</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>432</v>
@@ -8730,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8756,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8886,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -9027,7 +9033,7 @@
         <v>465</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>466</v>
@@ -9172,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9408,10 +9414,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>661</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>662</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5">
@@ -10653,7 +10659,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C226" t="s">
         <v>608</v>
@@ -10837,13 +10843,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C234" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="D234" s="9" t="s">
         <v>657</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>658</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -10860,13 +10866,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C235" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="D235" s="9" t="s">
         <v>665</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>666</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -10883,14 +10889,14 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>669</v>
-      </c>
       <c r="E236">
         <v>1</v>
       </c>
@@ -10901,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10909,25 +10915,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" s="9" t="s">
         <v>670</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10935,25 +10941,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="D238" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>676</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5">
@@ -10961,25 +10967,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D239" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="D239" s="9" t="s">
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>679</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10987,25 +10993,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" t="s">
         <v>685</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -11013,25 +11019,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -11039,25 +11045,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>693</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -11065,25 +11071,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -11091,25 +11097,25 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="D244" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="I244" s="9" t="s">
         <v>705</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>1</v>
-      </c>
-      <c r="I244" s="9" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -11117,13 +11123,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11135,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11143,13 +11149,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11161,7 +11167,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11169,13 +11175,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11187,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11195,25 +11201,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D248" s="9" t="s">
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="9" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11221,25 +11227,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="D249" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="C249" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="D249" s="9" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="9" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11247,25 +11253,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C250" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="D250" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="D250" s="9" t="s">
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="9" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11273,25 +11279,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="C251" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="D251" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="9" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5">
@@ -11299,25 +11305,25 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C252" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="D252" s="9" t="s">
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>736</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
@@ -11325,14 +11331,14 @@
         <v>252</v>
       </c>
       <c r="B253" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C253" t="s">
+        <v>742</v>
+      </c>
+      <c r="D253" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="C253" t="s">
-        <v>743</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="E253">
         <v>0</v>
       </c>
@@ -11343,7 +11349,7 @@
         <v>1</v>
       </c>
       <c r="I253" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
@@ -11351,13 +11357,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="C254" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="D254" s="30" t="s">
         <v>973</v>
-      </c>
-      <c r="C254" s="31" t="s">
-        <v>742</v>
-      </c>
-      <c r="D254" s="30" t="s">
-        <v>974</v>
       </c>
       <c r="E254" s="31">
         <v>0</v>
@@ -11370,7 +11376,7 @@
       </c>
       <c r="H254" s="31"/>
       <c r="I254" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11378,25 +11384,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5">
@@ -11404,25 +11410,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C256" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="D256" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256" s="9" t="s">
         <v>751</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="27" customFormat="1" ht="16.5">
@@ -11430,25 +11436,25 @@
         <v>256</v>
       </c>
       <c r="B257" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="C257" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="D257" s="26" t="s">
         <v>753</v>
       </c>
-      <c r="C257" s="26" t="s">
+      <c r="E257" s="27">
+        <v>1</v>
+      </c>
+      <c r="F257" s="27">
+        <v>1</v>
+      </c>
+      <c r="G257" s="27">
+        <v>1</v>
+      </c>
+      <c r="I257" s="22" t="s">
         <v>926</v>
-      </c>
-      <c r="D257" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="E257" s="27">
-        <v>1</v>
-      </c>
-      <c r="F257" s="27">
-        <v>1</v>
-      </c>
-      <c r="G257" s="27">
-        <v>1</v>
-      </c>
-      <c r="I257" s="22" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11456,14 +11462,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C258" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>757</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11474,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11482,14 +11488,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="D259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="D259" s="15" t="s">
-        <v>761</v>
-      </c>
       <c r="E259" s="17">
         <v>0</v>
       </c>
@@ -11500,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11508,25 +11514,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="D260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>764</v>
-      </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11534,25 +11540,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="C261" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="D261" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>768</v>
-      </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11560,25 +11566,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>769</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D262" t="s">
         <v>770</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>771</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5">
@@ -11586,13 +11592,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C263" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="D263" s="15" t="s">
         <v>775</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>776</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11612,25 +11618,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="D264" s="15" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>779</v>
-      </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11638,13 +11644,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="15" t="s">
         <v>782</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>783</v>
       </c>
       <c r="E265" s="17">
         <v>0</v>
@@ -11664,25 +11670,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C266" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="D266" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="D266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
         <v>786</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11690,25 +11696,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C267" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>789</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11716,14 +11722,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="C268" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="D268" s="18" t="s">
-        <v>793</v>
-      </c>
       <c r="E268" s="17">
         <v>0</v>
       </c>
@@ -11734,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="I268" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11742,14 +11748,14 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C269" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="D269" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="D269" s="18" t="s">
-        <v>797</v>
-      </c>
       <c r="E269" s="17">
         <v>1</v>
       </c>
@@ -11760,7 +11766,7 @@
         <v>1</v>
       </c>
       <c r="I269" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5">
@@ -11768,13 +11774,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="C270" s="15" t="s">
-        <v>800</v>
-      </c>
       <c r="D270" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11787,7 +11793,7 @@
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5">
@@ -11795,13 +11801,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C271" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="D271" s="18" t="s">
         <v>802</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>803</v>
       </c>
       <c r="E271" s="17">
         <v>0</v>
@@ -11814,7 +11820,7 @@
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5">
@@ -11822,13 +11828,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="D272" s="18" t="s">
         <v>805</v>
-      </c>
-      <c r="C272" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="D272" s="18" t="s">
-        <v>806</v>
       </c>
       <c r="E272" s="17">
         <v>1</v>
@@ -11841,7 +11847,7 @@
       </c>
       <c r="H272" s="17"/>
       <c r="I272" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5">
@@ -11849,13 +11855,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C273" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="D273" s="18" t="s">
         <v>810</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>811</v>
       </c>
       <c r="E273" s="17">
         <v>1</v>
@@ -11868,7 +11874,7 @@
       </c>
       <c r="H273" s="17"/>
       <c r="I273" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5">
@@ -11876,13 +11882,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="C274" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="D274" s="18" t="s">
         <v>813</v>
-      </c>
-      <c r="C274" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>814</v>
       </c>
       <c r="E274" s="17">
         <v>1</v>
@@ -11895,7 +11901,7 @@
       </c>
       <c r="H274" s="17"/>
       <c r="I274" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="16.5">
@@ -11903,13 +11909,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C275" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="D275" s="18" t="s">
         <v>816</v>
-      </c>
-      <c r="D275" s="18" t="s">
-        <v>817</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
@@ -11922,7 +11928,7 @@
       </c>
       <c r="H275" s="17"/>
       <c r="I275" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25">
@@ -11930,13 +11936,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="D276" s="18" t="s">
         <v>821</v>
-      </c>
-      <c r="C276" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="D276" s="18" t="s">
-        <v>822</v>
       </c>
       <c r="E276" s="17">
         <v>0</v>
@@ -11949,7 +11955,7 @@
       </c>
       <c r="H276" s="17"/>
       <c r="I276" s="29" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="16.5">
@@ -11957,22 +11963,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="C277" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="C277" s="15" t="s">
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>824</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
@@ -11980,13 +11986,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="D278" s="33" t="s">
         <v>826</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>933</v>
-      </c>
-      <c r="D278" s="33" t="s">
-        <v>827</v>
       </c>
       <c r="E278" s="15">
         <v>0</v>
@@ -11999,7 +12005,7 @@
       </c>
       <c r="H278" s="15"/>
       <c r="I278" s="15" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12007,25 +12013,25 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D279" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="I279" s="19" t="s">
         <v>828</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-      <c r="I279" s="19" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -12033,22 +12039,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
         <v>831</v>
-      </c>
-      <c r="C280" s="15" t="s">
-        <v>830</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12056,13 +12062,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12074,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12082,13 +12088,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12100,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -12108,25 +12114,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="D283" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="I283" s="19" t="s">
         <v>841</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="37" customFormat="1" ht="17.25" customHeight="1">
@@ -12134,25 +12140,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="36" t="s">
+        <v>842</v>
+      </c>
+      <c r="C284" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="C284" s="35" t="s">
+      <c r="D284" s="36" t="s">
         <v>844</v>
       </c>
-      <c r="D284" s="36" t="s">
+      <c r="E284" s="37">
+        <v>1</v>
+      </c>
+      <c r="F284" s="37">
+        <v>1</v>
+      </c>
+      <c r="G284" s="37">
+        <v>1</v>
+      </c>
+      <c r="I284" s="38" t="s">
         <v>845</v>
-      </c>
-      <c r="E284" s="37">
-        <v>1</v>
-      </c>
-      <c r="F284" s="37">
-        <v>1</v>
-      </c>
-      <c r="G284" s="37">
-        <v>1</v>
-      </c>
-      <c r="I284" s="38" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12160,13 +12166,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="C285" s="35" t="s">
         <v>851</v>
       </c>
-      <c r="C285" s="35" t="s">
-        <v>852</v>
-      </c>
       <c r="D285" s="36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E285" s="37">
         <v>1</v>
@@ -12186,25 +12192,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="C286" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="D286" s="18" t="s">
         <v>855</v>
       </c>
-      <c r="D286" s="18" t="s">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="I286" s="19" t="s">
         <v>856</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="19" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12212,13 +12218,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="C287" s="35" t="s">
         <v>859</v>
       </c>
-      <c r="C287" s="35" t="s">
-        <v>860</v>
-      </c>
       <c r="D287" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E287" s="37">
         <v>1</v>
@@ -12238,25 +12244,25 @@
         <v>287</v>
       </c>
       <c r="B288" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="C288" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="C288" s="35" t="s">
+      <c r="D288" s="36" t="s">
         <v>862</v>
       </c>
-      <c r="D288" s="36" t="s">
+      <c r="E288" s="37">
+        <v>1</v>
+      </c>
+      <c r="F288" s="37">
+        <v>1</v>
+      </c>
+      <c r="G288" s="37">
+        <v>1</v>
+      </c>
+      <c r="I288" s="38" t="s">
         <v>863</v>
-      </c>
-      <c r="E288" s="37">
-        <v>1</v>
-      </c>
-      <c r="F288" s="37">
-        <v>1</v>
-      </c>
-      <c r="G288" s="37">
-        <v>1</v>
-      </c>
-      <c r="I288" s="38" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12264,13 +12270,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="C289" s="30" t="s">
         <v>865</v>
       </c>
-      <c r="C289" s="30" t="s">
+      <c r="D289" s="30" t="s">
         <v>866</v>
-      </c>
-      <c r="D289" s="30" t="s">
-        <v>867</v>
       </c>
       <c r="E289" s="31">
         <v>1</v>
@@ -12283,7 +12289,7 @@
       </c>
       <c r="H289" s="31"/>
       <c r="I289" s="30" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12291,25 +12297,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="C290" s="35" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="35" t="s">
+      <c r="D290" s="36" t="s">
         <v>869</v>
       </c>
-      <c r="D290" s="36" t="s">
+      <c r="E290" s="37">
+        <v>1</v>
+      </c>
+      <c r="F290" s="37">
+        <v>1</v>
+      </c>
+      <c r="G290" s="37">
+        <v>1</v>
+      </c>
+      <c r="I290" s="38" t="s">
         <v>870</v>
-      </c>
-      <c r="E290" s="37">
-        <v>1</v>
-      </c>
-      <c r="F290" s="37">
-        <v>1</v>
-      </c>
-      <c r="G290" s="37">
-        <v>1</v>
-      </c>
-      <c r="I290" s="38" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12317,25 +12323,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="36" t="s">
+        <v>871</v>
+      </c>
+      <c r="C291" s="35" t="s">
         <v>872</v>
       </c>
-      <c r="C291" s="35" t="s">
+      <c r="D291" s="36" t="s">
         <v>873</v>
       </c>
-      <c r="D291" s="36" t="s">
+      <c r="E291" s="37">
+        <v>1</v>
+      </c>
+      <c r="F291" s="37">
+        <v>1</v>
+      </c>
+      <c r="G291" s="37">
+        <v>1</v>
+      </c>
+      <c r="I291" s="38" t="s">
         <v>874</v>
-      </c>
-      <c r="E291" s="37">
-        <v>1</v>
-      </c>
-      <c r="F291" s="37">
-        <v>1</v>
-      </c>
-      <c r="G291" s="37">
-        <v>1</v>
-      </c>
-      <c r="I291" s="38" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="292" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12343,13 +12349,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="36" t="s">
+        <v>875</v>
+      </c>
+      <c r="C292" s="35" t="s">
         <v>876</v>
       </c>
-      <c r="C292" s="35" t="s">
+      <c r="D292" s="36" t="s">
         <v>877</v>
-      </c>
-      <c r="D292" s="36" t="s">
-        <v>878</v>
       </c>
       <c r="E292" s="37">
         <v>1</v>
@@ -12369,13 +12375,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C293" s="35" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D293" s="36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E293" s="37">
         <v>1</v>
@@ -12395,25 +12401,25 @@
         <v>293</v>
       </c>
       <c r="B294" s="36" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C294" s="35" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D294" s="36" t="s">
+        <v>881</v>
+      </c>
+      <c r="E294" s="37">
+        <v>1</v>
+      </c>
+      <c r="F294" s="37">
+        <v>1</v>
+      </c>
+      <c r="G294" s="37">
+        <v>1</v>
+      </c>
+      <c r="I294" s="38" t="s">
         <v>882</v>
-      </c>
-      <c r="E294" s="37">
-        <v>1</v>
-      </c>
-      <c r="F294" s="37">
-        <v>1</v>
-      </c>
-      <c r="G294" s="37">
-        <v>1</v>
-      </c>
-      <c r="I294" s="38" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="295" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12421,13 +12427,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="36" t="s">
+        <v>885</v>
+      </c>
+      <c r="C295" s="35" t="s">
         <v>886</v>
       </c>
-      <c r="C295" s="35" t="s">
+      <c r="D295" s="36" t="s">
         <v>887</v>
-      </c>
-      <c r="D295" s="36" t="s">
-        <v>888</v>
       </c>
       <c r="E295" s="37">
         <v>1</v>
@@ -12447,13 +12453,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="36" t="s">
+        <v>888</v>
+      </c>
+      <c r="C296" s="35" t="s">
         <v>889</v>
       </c>
-      <c r="C296" s="35" t="s">
+      <c r="D296" s="36" t="s">
         <v>890</v>
-      </c>
-      <c r="D296" s="36" t="s">
-        <v>891</v>
       </c>
       <c r="E296" s="37">
         <v>1</v>
@@ -12473,13 +12479,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="C297" s="15" t="s">
-        <v>893</v>
-      </c>
       <c r="D297" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -12491,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -12499,13 +12505,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -12517,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5">
@@ -12525,14 +12531,14 @@
         <v>298</v>
       </c>
       <c r="B299" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="C299" s="15" t="s">
         <v>898</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="D299" s="20" t="s">
         <v>899</v>
       </c>
-      <c r="D299" s="20" t="s">
-        <v>900</v>
-      </c>
       <c r="E299">
         <v>0</v>
       </c>
@@ -12543,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="I299" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12551,25 +12557,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="36" t="s">
+        <v>900</v>
+      </c>
+      <c r="C300" s="35" t="s">
         <v>901</v>
       </c>
-      <c r="C300" s="35" t="s">
+      <c r="D300" s="36" t="s">
         <v>902</v>
       </c>
-      <c r="D300" s="36" t="s">
+      <c r="E300" s="37">
+        <v>1</v>
+      </c>
+      <c r="F300" s="37">
+        <v>1</v>
+      </c>
+      <c r="G300" s="37">
+        <v>1</v>
+      </c>
+      <c r="I300" s="38" t="s">
         <v>903</v>
-      </c>
-      <c r="E300" s="37">
-        <v>1</v>
-      </c>
-      <c r="F300" s="37">
-        <v>1</v>
-      </c>
-      <c r="G300" s="37">
-        <v>1</v>
-      </c>
-      <c r="I300" s="38" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12577,13 +12583,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="C301" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="C301" s="15" t="s">
+      <c r="D301" s="18" t="s">
         <v>908</v>
-      </c>
-      <c r="D301" s="18" t="s">
-        <v>909</v>
       </c>
       <c r="E301" s="17">
         <v>0</v>
@@ -12596,7 +12602,7 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12604,13 +12610,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C302" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="D302" s="18" t="s">
         <v>911</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>912</v>
       </c>
       <c r="E302" s="17">
         <v>0</v>
@@ -12623,7 +12629,7 @@
       </c>
       <c r="H302" s="17"/>
       <c r="I302" s="19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12631,10 +12637,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E303" s="17">
         <v>1</v>
@@ -12646,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="I303" s="15" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12654,13 +12660,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="C304" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="D304" s="18" t="s">
         <v>915</v>
-      </c>
-      <c r="C304" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="D304" s="18" t="s">
-        <v>916</v>
       </c>
       <c r="E304" s="17">
         <v>0</v>
@@ -12673,7 +12679,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12681,25 +12687,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="C305" s="35" t="s">
+        <v>920</v>
+      </c>
+      <c r="D305" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="C305" s="35" t="s">
-        <v>921</v>
-      </c>
-      <c r="D305" s="36" t="s">
+      <c r="E305" s="37">
+        <v>1</v>
+      </c>
+      <c r="F305" s="37">
+        <v>1</v>
+      </c>
+      <c r="G305" s="37">
+        <v>1</v>
+      </c>
+      <c r="I305" s="38" t="s">
         <v>918</v>
-      </c>
-      <c r="E305" s="37">
-        <v>1</v>
-      </c>
-      <c r="F305" s="37">
-        <v>1</v>
-      </c>
-      <c r="G305" s="37">
-        <v>1</v>
-      </c>
-      <c r="I305" s="38" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
@@ -12707,13 +12713,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="47" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C306" s="48" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D306" s="47" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E306" s="49">
         <v>1</v>
@@ -12726,7 +12732,7 @@
       </c>
       <c r="H306" s="49"/>
       <c r="I306" s="48" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12734,13 +12740,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="47" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C307" s="48" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D307" s="47" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E307" s="49">
         <v>1</v>
@@ -12753,7 +12759,7 @@
       </c>
       <c r="H307" s="49"/>
       <c r="I307" s="48" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12761,13 +12767,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="47" t="s">
+        <v>974</v>
+      </c>
+      <c r="C308" s="47" t="s">
+        <v>951</v>
+      </c>
+      <c r="D308" s="47" t="s">
         <v>975</v>
-      </c>
-      <c r="C308" s="47" t="s">
-        <v>952</v>
-      </c>
-      <c r="D308" s="47" t="s">
-        <v>976</v>
       </c>
       <c r="E308" s="49">
         <v>1</v>
@@ -12788,13 +12794,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12807,7 +12813,7 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5">
@@ -12815,13 +12821,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D310" s="18" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E310" s="17">
         <v>1</v>
@@ -12834,7 +12840,7 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="37" customFormat="1" ht="16.5">
@@ -12842,25 +12848,25 @@
         <v>310</v>
       </c>
       <c r="B311" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="C311" s="35" t="s">
         <v>936</v>
       </c>
-      <c r="C311" s="35" t="s">
+      <c r="D311" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="E311" s="37">
+        <v>1</v>
+      </c>
+      <c r="F311" s="37">
+        <v>1</v>
+      </c>
+      <c r="G311" s="37">
+        <v>1</v>
+      </c>
+      <c r="I311" s="35" t="s">
         <v>937</v>
-      </c>
-      <c r="D311" s="36" t="s">
-        <v>935</v>
-      </c>
-      <c r="E311" s="37">
-        <v>1</v>
-      </c>
-      <c r="F311" s="37">
-        <v>1</v>
-      </c>
-      <c r="G311" s="37">
-        <v>1</v>
-      </c>
-      <c r="I311" s="35" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5">
@@ -12868,13 +12874,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C312" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="D312" s="18" t="s">
         <v>939</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>941</v>
-      </c>
-      <c r="D312" s="18" t="s">
-        <v>940</v>
       </c>
       <c r="E312" s="17">
         <v>1</v>
@@ -12887,7 +12893,7 @@
       </c>
       <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12895,14 +12901,14 @@
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C313" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="D313" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="C313" s="15" t="s">
-        <v>942</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>944</v>
-      </c>
       <c r="E313" s="17">
         <v>1</v>
       </c>
@@ -12913,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="I313" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12921,13 +12927,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="D314" s="18" t="s">
         <v>950</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>951</v>
       </c>
       <c r="E314" s="17">
         <v>0</v>
@@ -12944,13 +12950,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12962,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12970,13 +12976,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="32" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D316" s="32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E316" s="17">
         <v>1</v>
@@ -12996,13 +13002,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D317" s="28" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E317" s="27">
         <v>1</v>
@@ -13015,7 +13021,7 @@
       </c>
       <c r="H317" s="27"/>
       <c r="I317" s="39" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="17.25">
@@ -13023,13 +13029,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="40" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D318" s="40" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E318" s="27">
         <v>1</v>
@@ -13042,7 +13048,7 @@
       </c>
       <c r="H318" s="27"/>
       <c r="I318" s="26" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
@@ -13050,10 +13056,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="46" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C319" s="44" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D319" s="45"/>
       <c r="E319" s="45">
@@ -13067,7 +13073,7 @@
       </c>
       <c r="H319" s="45"/>
       <c r="I319" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="16.5">
@@ -13075,10 +13081,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C320" s="44" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D320" s="45"/>
       <c r="E320" s="45">
@@ -13092,7 +13098,7 @@
       </c>
       <c r="H320" s="45"/>
       <c r="I320" s="44" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13100,7 +13106,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="46" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C321" s="45"/>
       <c r="D321" s="45"/>
@@ -13115,7 +13121,7 @@
       </c>
       <c r="H321" s="45"/>
       <c r="I321" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13123,7 +13129,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C322" s="45"/>
       <c r="D322" s="45"/>
@@ -13138,7 +13144,7 @@
       </c>
       <c r="H322" s="45"/>
       <c r="I322" s="44" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
@@ -13146,10 +13152,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="46" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C323" s="44" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D323" s="45"/>
       <c r="E323" s="45">
@@ -13163,7 +13169,7 @@
       </c>
       <c r="H323" s="45"/>
       <c r="I323" s="44" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13171,10 +13177,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="46" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C324" s="44" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D324" s="45"/>
       <c r="E324" s="45">
@@ -13188,7 +13194,7 @@
       </c>
       <c r="H324" s="45"/>
       <c r="I324" s="44" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -16,14 +16,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$233</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="987">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -647,15 +647,6 @@
   </si>
   <si>
     <t>SYSXYManager</t>
-  </si>
-  <si>
-    <t>hall_activity</t>
-  </si>
-  <si>
-    <t>系统：大厅活动</t>
-  </si>
-  <si>
-    <t>GameActivityManager</t>
   </si>
   <si>
     <t>sys_act_base</t>
@@ -4483,7 +4474,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4559,9 +4550,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4584,9 +4572,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4920,13 +4905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I324"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4956,7 +4941,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -4968,7 +4953,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -4994,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
@@ -5020,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
@@ -5046,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
@@ -5072,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
@@ -5098,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
@@ -5124,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
@@ -5150,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -5176,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
@@ -5202,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
@@ -5228,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -5254,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -5280,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -5306,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -5332,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -5358,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -5384,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5">
@@ -5410,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5">
@@ -5436,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5">
@@ -5462,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5">
@@ -5488,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5">
@@ -5514,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5">
@@ -5540,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5">
@@ -5566,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5">
@@ -5592,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5">
@@ -5618,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -5629,7 +5614,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>83</v>
@@ -5644,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5">
@@ -5670,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5">
@@ -5696,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5">
@@ -5722,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5">
@@ -5748,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5">
@@ -5774,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5">
@@ -5800,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5">
@@ -5826,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5">
@@ -5852,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5">
@@ -5878,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5">
@@ -5904,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5">
@@ -5930,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5">
@@ -5956,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5">
@@ -5982,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5">
@@ -6008,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5">
@@ -6034,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5">
@@ -6060,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5">
@@ -6086,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5">
@@ -6112,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5">
@@ -6138,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5">
@@ -6164,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5">
@@ -6190,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5">
@@ -6201,7 +6186,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>148</v>
@@ -6216,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5">
@@ -6242,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
@@ -6268,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5">
@@ -6292,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6318,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5">
@@ -6326,7 +6311,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6344,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5">
@@ -6352,7 +6337,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>162</v>
@@ -6370,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5">
@@ -6396,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5">
@@ -6422,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5">
@@ -6448,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5">
@@ -6474,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5">
@@ -6500,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
@@ -6526,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5">
@@ -6552,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -6578,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -6604,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5">
@@ -6630,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5">
@@ -6656,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5">
@@ -6673,16 +6658,16 @@
         <v>199</v>
       </c>
       <c r="E67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5">
@@ -6708,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5">
@@ -6725,16 +6710,16 @@
         <v>205</v>
       </c>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5">
@@ -6760,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5">
@@ -6786,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5">
@@ -6812,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5">
@@ -6838,111 +6823,111 @@
         <v>1</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="40" customFormat="1" ht="16.5">
       <c r="A74" s="16">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="39" t="s">
+        <v>656</v>
+      </c>
+      <c r="C74" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="39">
+        <v>0</v>
+      </c>
+      <c r="F74" s="40">
+        <v>0</v>
+      </c>
+      <c r="G74" s="40">
+        <v>0</v>
+      </c>
+      <c r="I74" s="41" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5">
+      <c r="A75" s="16">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="42" customFormat="1" ht="16.5">
-      <c r="A75" s="41">
-        <v>74</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="41">
-        <v>0</v>
-      </c>
-      <c r="F75" s="42">
-        <v>0</v>
-      </c>
-      <c r="G75" s="42">
-        <v>0</v>
-      </c>
-      <c r="I75" s="43" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="16.5">
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="30" customFormat="1" ht="16.5">
       <c r="A76" s="16">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="5">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="31" customFormat="1" ht="16.5">
-      <c r="A77" s="51">
+      <c r="E76" s="49">
+        <v>1</v>
+      </c>
+      <c r="F76" s="30">
+        <v>1</v>
+      </c>
+      <c r="G76" s="30">
+        <v>1</v>
+      </c>
+      <c r="I76" s="50" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5">
+      <c r="A77" s="16">
         <v>76</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C77" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E77" s="51">
-        <v>1</v>
-      </c>
-      <c r="F77" s="31">
-        <v>1</v>
-      </c>
-      <c r="G77" s="31">
-        <v>1</v>
-      </c>
-      <c r="I77" s="52" t="s">
-        <v>989</v>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5">
@@ -6959,16 +6944,16 @@
         <v>231</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5">
@@ -6985,15 +6970,15 @@
         <v>234</v>
       </c>
       <c r="E79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="I79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -7020,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5">
@@ -7046,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5">
@@ -7072,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5">
@@ -7098,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5">
@@ -7124,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5">
@@ -7141,16 +7126,16 @@
         <v>252</v>
       </c>
       <c r="E85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5">
@@ -7176,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5">
@@ -7202,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5">
@@ -7228,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5">
@@ -7245,16 +7230,16 @@
         <v>264</v>
       </c>
       <c r="E89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5">
@@ -7271,16 +7256,16 @@
         <v>267</v>
       </c>
       <c r="E90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5">
@@ -7297,16 +7282,16 @@
         <v>270</v>
       </c>
       <c r="E91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5">
@@ -7323,16 +7308,16 @@
         <v>273</v>
       </c>
       <c r="E92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5">
@@ -7349,16 +7334,16 @@
         <v>276</v>
       </c>
       <c r="E93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5">
@@ -7383,8 +7368,8 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>646</v>
+      <c r="I94" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5">
@@ -7410,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5">
@@ -7436,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5">
@@ -7462,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5">
@@ -7488,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5">
@@ -7514,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5">
@@ -7531,16 +7516,16 @@
         <v>297</v>
       </c>
       <c r="E100" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>651</v>
+        <v>1</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5">
@@ -7557,16 +7542,16 @@
         <v>300</v>
       </c>
       <c r="E101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5">
@@ -7591,8 +7576,8 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="12" t="s">
-        <v>681</v>
+      <c r="I102" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5">
@@ -7609,16 +7594,16 @@
         <v>306</v>
       </c>
       <c r="E103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5">
@@ -7635,15 +7620,15 @@
         <v>309</v>
       </c>
       <c r="E104" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="I104" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -7669,8 +7654,8 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="11" t="s">
-        <v>649</v>
+      <c r="I105" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5">
@@ -7695,8 +7680,8 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="12" t="s">
-        <v>646</v>
+      <c r="I106" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="16.5">
@@ -7722,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="16.5">
@@ -7774,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="16.5">
@@ -7800,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="16.5">
@@ -7826,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="16.5">
@@ -7852,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="16.5">
@@ -7878,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="16.5">
@@ -7904,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="16.5">
@@ -7930,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="16.5">
@@ -7982,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5">
@@ -8008,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5">
@@ -8034,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5">
@@ -8060,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5">
@@ -8086,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5">
@@ -8112,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5">
@@ -8138,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="16.5">
@@ -8164,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5">
@@ -8190,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5">
@@ -8207,16 +8192,16 @@
         <v>375</v>
       </c>
       <c r="E126" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="16.5">
@@ -8233,15 +8218,15 @@
         <v>378</v>
       </c>
       <c r="E127" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="I127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -8268,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5">
@@ -8294,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="16.5">
@@ -8320,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="16.5">
@@ -8346,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="16.5">
@@ -8372,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="16.5">
@@ -8424,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="16.5">
@@ -8450,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="16.5">
@@ -8476,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="16.5">
@@ -8502,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="16.5">
@@ -8528,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="16.5">
@@ -8554,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="16.5">
@@ -8580,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="16.5">
@@ -8606,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="16.5">
@@ -8623,16 +8608,16 @@
         <v>423</v>
       </c>
       <c r="E142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="16.5">
@@ -8643,22 +8628,22 @@
         <v>424</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="E143" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="16.5">
@@ -8666,25 +8651,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="E144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="16.5">
@@ -8692,25 +8677,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="E145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>646</v>
+        <v>692</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="16.5">
@@ -8718,10 +8703,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>652</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>432</v>
@@ -8736,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5">
@@ -8761,8 +8746,8 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="12" t="s">
-        <v>695</v>
+      <c r="I147" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5">
@@ -8788,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="16.5">
@@ -8814,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="16.5">
@@ -8840,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="16.5">
@@ -8865,8 +8850,8 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="I151" s="11" t="s">
-        <v>648</v>
+      <c r="I151" s="12" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="16.5">
@@ -8891,8 +8876,8 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="I152" s="12" t="s">
-        <v>852</v>
+      <c r="I152" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="16.5">
@@ -8918,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="16.5">
@@ -8944,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="16.5">
@@ -8970,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="16.5">
@@ -8980,12 +8965,12 @@
       <c r="B156" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E156" s="5">
         <v>0</v>
       </c>
@@ -8996,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5">
@@ -9004,14 +8989,14 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E157" s="5">
         <v>0</v>
       </c>
@@ -9021,8 +9006,8 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="11" t="s">
-        <v>649</v>
+      <c r="I157" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5">
@@ -9030,10 +9015,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>653</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>466</v>
@@ -9047,8 +9032,8 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="12" t="s">
-        <v>646</v>
+      <c r="I158" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5">
@@ -9074,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5">
@@ -9100,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="16.5">
@@ -9126,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="16.5">
@@ -9143,16 +9128,16 @@
         <v>478</v>
       </c>
       <c r="E162" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="16.5">
@@ -9169,16 +9154,16 @@
         <v>481</v>
       </c>
       <c r="E163" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="I163" s="12" t="s">
-        <v>696</v>
+        <v>0</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5">
@@ -9192,19 +9177,19 @@
         <v>483</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>484</v>
+        <v>614</v>
       </c>
       <c r="E164" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5">
@@ -9212,25 +9197,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>617</v>
-      </c>
       <c r="E165" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>646</v>
+        <v>0</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5">
@@ -9240,23 +9225,23 @@
       <c r="B166" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="E166" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5">
@@ -9264,25 +9249,25 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>640</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>491</v>
       </c>
       <c r="E167" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>647</v>
+        <v>0</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5">
@@ -9308,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5">
@@ -9321,9 +9306,7 @@
       <c r="C169" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>497</v>
-      </c>
+      <c r="D169" s="5"/>
       <c r="E169" s="5">
         <v>0</v>
       </c>
@@ -9333,8 +9316,8 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="11" t="s">
-        <v>648</v>
+      <c r="I169" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5">
@@ -9342,23 +9325,23 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5">
@@ -9366,10 +9349,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9382,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5">
@@ -9390,10 +9373,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>503</v>
+        <v>657</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>658</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9406,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5">
@@ -9414,22 +9397,24 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="D173" s="5"/>
+        <v>501</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="E173" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="I173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I173" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -9443,9 +9428,7 @@
       <c r="C174" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>506</v>
-      </c>
+      <c r="D174" s="5"/>
       <c r="E174" s="5">
         <v>0</v>
       </c>
@@ -9456,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5">
@@ -9464,23 +9447,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5">
@@ -9488,23 +9471,23 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>645</v>
+        <v>0</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="16.5">
@@ -9512,23 +9495,25 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D177" s="5"/>
       <c r="E177" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="16.5">
@@ -9554,7 +9539,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="16.5">
@@ -9567,44 +9552,42 @@
       <c r="C179" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="D179" s="5"/>
       <c r="E179" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="I179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" s="11" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5">
+    <row r="180" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A180" s="16">
         <v>179</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
+      <c r="D180" s="7"/>
+      <c r="E180" s="7">
+        <v>0</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0</v>
+      </c>
+      <c r="G180" s="2">
         <v>0</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9612,10 +9595,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7">
@@ -9628,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1" ht="16.5">
@@ -9636,10 +9619,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7">
@@ -9652,31 +9635,30 @@
         <v>0</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="2" customFormat="1" ht="16.5">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="16">
         <v>182</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" t="s">
         <v>525</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7">
-        <v>0</v>
-      </c>
-      <c r="F183" s="2">
-        <v>0</v>
-      </c>
-      <c r="G183" s="2">
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
         <v>0</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="16.5">
@@ -9684,11 +9666,11 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>526</v>
+      </c>
+      <c r="C184" t="s">
         <v>527</v>
       </c>
-      <c r="C184" t="s">
-        <v>528</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
@@ -9699,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="16.5">
@@ -9707,11 +9689,11 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>528</v>
+      </c>
+      <c r="C185" t="s">
         <v>529</v>
       </c>
-      <c r="C185" t="s">
-        <v>530</v>
-      </c>
       <c r="E185">
         <v>0</v>
       </c>
@@ -9722,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="16.5">
@@ -9730,11 +9712,11 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>530</v>
+      </c>
+      <c r="C186" t="s">
         <v>531</v>
       </c>
-      <c r="C186" t="s">
-        <v>532</v>
-      </c>
       <c r="E186">
         <v>0</v>
       </c>
@@ -9745,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="16.5">
@@ -9753,11 +9735,11 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" t="s">
         <v>533</v>
       </c>
-      <c r="C187" t="s">
-        <v>534</v>
-      </c>
       <c r="E187">
         <v>0</v>
       </c>
@@ -9768,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="16.5">
@@ -9776,11 +9758,11 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>534</v>
+      </c>
+      <c r="C188" t="s">
         <v>535</v>
       </c>
-      <c r="C188" t="s">
-        <v>536</v>
-      </c>
       <c r="E188">
         <v>0</v>
       </c>
@@ -9791,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="16.5">
@@ -9799,11 +9781,11 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" t="s">
         <v>537</v>
       </c>
-      <c r="C189" t="s">
-        <v>538</v>
-      </c>
       <c r="E189">
         <v>0</v>
       </c>
@@ -9814,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="16.5">
@@ -9822,11 +9804,11 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>538</v>
+      </c>
+      <c r="C190" t="s">
         <v>539</v>
       </c>
-      <c r="C190" t="s">
-        <v>540</v>
-      </c>
       <c r="E190">
         <v>0</v>
       </c>
@@ -9837,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="16.5">
@@ -9845,11 +9827,11 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>540</v>
+      </c>
+      <c r="C191" t="s">
         <v>541</v>
       </c>
-      <c r="C191" t="s">
-        <v>542</v>
-      </c>
       <c r="E191">
         <v>0</v>
       </c>
@@ -9860,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="16.5">
@@ -9868,11 +9850,11 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>542</v>
+      </c>
+      <c r="C192" t="s">
         <v>543</v>
       </c>
-      <c r="C192" t="s">
-        <v>544</v>
-      </c>
       <c r="E192">
         <v>0</v>
       </c>
@@ -9883,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="16.5">
@@ -9891,11 +9873,11 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>544</v>
+      </c>
+      <c r="C193" t="s">
         <v>545</v>
       </c>
-      <c r="C193" t="s">
-        <v>546</v>
-      </c>
       <c r="E193">
         <v>0</v>
       </c>
@@ -9906,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="16.5">
@@ -9914,11 +9896,11 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>546</v>
+      </c>
+      <c r="C194" t="s">
         <v>547</v>
       </c>
-      <c r="C194" t="s">
-        <v>548</v>
-      </c>
       <c r="E194">
         <v>0</v>
       </c>
@@ -9929,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="16.5">
@@ -9937,11 +9919,11 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>548</v>
+      </c>
+      <c r="C195" t="s">
         <v>549</v>
       </c>
-      <c r="C195" t="s">
-        <v>550</v>
-      </c>
       <c r="E195">
         <v>0</v>
       </c>
@@ -9952,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="16.5">
@@ -9960,10 +9942,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>550</v>
+      </c>
+      <c r="C196" t="s">
         <v>551</v>
-      </c>
-      <c r="C196" t="s">
-        <v>552</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -9983,11 +9965,11 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>552</v>
+      </c>
+      <c r="C197" t="s">
         <v>553</v>
       </c>
-      <c r="C197" t="s">
-        <v>554</v>
-      </c>
       <c r="E197">
         <v>0</v>
       </c>
@@ -9998,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="16.5">
@@ -10006,11 +9988,11 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>554</v>
+      </c>
+      <c r="C198" t="s">
         <v>555</v>
       </c>
-      <c r="C198" t="s">
-        <v>556</v>
-      </c>
       <c r="E198">
         <v>0</v>
       </c>
@@ -10021,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="16.5">
@@ -10029,11 +10011,11 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>556</v>
+      </c>
+      <c r="C199" t="s">
         <v>557</v>
       </c>
-      <c r="C199" t="s">
-        <v>558</v>
-      </c>
       <c r="E199">
         <v>0</v>
       </c>
@@ -10044,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="16.5">
@@ -10052,11 +10034,11 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" t="s">
         <v>559</v>
       </c>
-      <c r="C200" t="s">
-        <v>560</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
@@ -10067,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="16.5">
@@ -10075,11 +10057,11 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>560</v>
+      </c>
+      <c r="C201" t="s">
         <v>561</v>
       </c>
-      <c r="C201" t="s">
-        <v>562</v>
-      </c>
       <c r="E201">
         <v>0</v>
       </c>
@@ -10090,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="16.5">
@@ -10098,11 +10080,11 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202" t="s">
         <v>563</v>
       </c>
-      <c r="C202" t="s">
-        <v>564</v>
-      </c>
       <c r="E202">
         <v>0</v>
       </c>
@@ -10113,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="16.5">
@@ -10121,11 +10103,11 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203" t="s">
         <v>565</v>
       </c>
-      <c r="C203" t="s">
-        <v>566</v>
-      </c>
       <c r="E203">
         <v>0</v>
       </c>
@@ -10136,30 +10118,33 @@
         <v>0</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="16">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>567</v>
+      <c r="B204" s="9" t="s">
+        <v>608</v>
       </c>
       <c r="C204" t="s">
-        <v>568</v>
+        <v>566</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>609</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="I204" s="11" t="s">
-        <v>648</v>
+        <v>1</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="16.5">
@@ -10167,14 +10152,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C205" t="s">
+        <v>567</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C205" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E205">
         <v>1</v>
       </c>
@@ -10185,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="16.5">
@@ -10193,14 +10178,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
+        <v>568</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C206" t="s">
-        <v>570</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E206">
         <v>1</v>
       </c>
@@ -10211,32 +10196,29 @@
         <v>1</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="16">
         <v>206</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>615</v>
+      <c r="B207" t="s">
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>571</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="I207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" s="11" t="s">
         <v>646</v>
       </c>
     </row>
@@ -10245,11 +10227,11 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>571</v>
+      </c>
+      <c r="C208" t="s">
         <v>572</v>
       </c>
-      <c r="C208" t="s">
-        <v>573</v>
-      </c>
       <c r="E208">
         <v>0</v>
       </c>
@@ -10260,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="16.5">
@@ -10268,11 +10250,11 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>573</v>
+      </c>
+      <c r="C209" t="s">
         <v>574</v>
       </c>
-      <c r="C209" t="s">
-        <v>575</v>
-      </c>
       <c r="E209">
         <v>0</v>
       </c>
@@ -10283,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="16.5">
@@ -10291,11 +10273,11 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>575</v>
+      </c>
+      <c r="C210" t="s">
         <v>576</v>
       </c>
-      <c r="C210" t="s">
-        <v>577</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
@@ -10306,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="16.5">
@@ -10314,22 +10296,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>577</v>
+      </c>
+      <c r="C211" t="s">
         <v>578</v>
       </c>
-      <c r="C211" t="s">
-        <v>579</v>
-      </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="I211" s="11" t="s">
-        <v>649</v>
+        <v>1</v>
+      </c>
+      <c r="I211" s="12" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="16.5">
@@ -10337,22 +10319,22 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>579</v>
+      </c>
+      <c r="C212" t="s">
         <v>580</v>
       </c>
-      <c r="C212" t="s">
-        <v>581</v>
-      </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="I212" s="12" t="s">
-        <v>646</v>
+        <v>0</v>
+      </c>
+      <c r="I212" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="16.5">
@@ -10360,11 +10342,11 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" t="s">
         <v>582</v>
       </c>
-      <c r="C213" t="s">
-        <v>583</v>
-      </c>
       <c r="E213">
         <v>0</v>
       </c>
@@ -10375,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="16.5">
@@ -10383,11 +10365,11 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>583</v>
+      </c>
+      <c r="C214" t="s">
         <v>584</v>
       </c>
-      <c r="C214" t="s">
-        <v>585</v>
-      </c>
       <c r="E214">
         <v>0</v>
       </c>
@@ -10398,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="16.5">
@@ -10406,11 +10388,11 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>585</v>
+      </c>
+      <c r="C215" t="s">
         <v>586</v>
       </c>
-      <c r="C215" t="s">
-        <v>587</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
@@ -10421,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="16.5">
@@ -10429,11 +10411,11 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>587</v>
+      </c>
+      <c r="C216" t="s">
         <v>588</v>
       </c>
-      <c r="C216" t="s">
-        <v>589</v>
-      </c>
       <c r="E216">
         <v>0</v>
       </c>
@@ -10444,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="16.5">
@@ -10452,10 +10434,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>589</v>
+      </c>
+      <c r="C217" t="s">
         <v>590</v>
-      </c>
-      <c r="C217" t="s">
-        <v>591</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10475,11 +10457,11 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>591</v>
+      </c>
+      <c r="C218" t="s">
         <v>592</v>
       </c>
-      <c r="C218" t="s">
-        <v>593</v>
-      </c>
       <c r="E218">
         <v>0</v>
       </c>
@@ -10490,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="16.5">
@@ -10498,11 +10480,11 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>593</v>
+      </c>
+      <c r="C219" t="s">
         <v>594</v>
       </c>
-      <c r="C219" t="s">
-        <v>595</v>
-      </c>
       <c r="E219">
         <v>0</v>
       </c>
@@ -10513,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="16.5">
@@ -10521,11 +10503,11 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>595</v>
+      </c>
+      <c r="C220" t="s">
         <v>596</v>
       </c>
-      <c r="C220" t="s">
-        <v>597</v>
-      </c>
       <c r="E220">
         <v>0</v>
       </c>
@@ -10536,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="16.5">
@@ -10544,11 +10526,11 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>597</v>
+      </c>
+      <c r="C221" t="s">
         <v>598</v>
       </c>
-      <c r="C221" t="s">
-        <v>599</v>
-      </c>
       <c r="E221">
         <v>0</v>
       </c>
@@ -10559,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="16.5">
@@ -10567,11 +10549,11 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>599</v>
+      </c>
+      <c r="C222" t="s">
         <v>600</v>
       </c>
-      <c r="C222" t="s">
-        <v>601</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
@@ -10582,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="16.5">
@@ -10590,11 +10572,11 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>601</v>
+      </c>
+      <c r="C223" t="s">
         <v>602</v>
       </c>
-      <c r="C223" t="s">
-        <v>603</v>
-      </c>
       <c r="E223">
         <v>0</v>
       </c>
@@ -10605,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="16.5">
@@ -10613,11 +10595,11 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>603</v>
+      </c>
+      <c r="C224" t="s">
         <v>604</v>
       </c>
-      <c r="C224" t="s">
-        <v>605</v>
-      </c>
       <c r="E224">
         <v>0</v>
       </c>
@@ -10628,18 +10610,18 @@
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="16">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>606</v>
+      <c r="B225" s="9" t="s">
+        <v>651</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10659,22 +10641,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="C226" t="s">
-        <v>608</v>
+        <v>617</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="I226" s="11" t="s">
-        <v>651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="16.5">
@@ -10682,13 +10664,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D227" t="s">
         <v>620</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>619</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10710,7 +10692,7 @@
       <c r="C228" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="9" t="s">
         <v>623</v>
       </c>
       <c r="E228">
@@ -10751,13 +10733,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10774,13 +10756,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10797,22 +10779,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="16.5">
@@ -10820,22 +10802,22 @@
         <v>232</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="16.5">
@@ -10843,22 +10825,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="16.5">
@@ -10866,22 +10848,25 @@
         <v>234</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>664</v>
+        <v>808</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>665</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="16.5">
@@ -10889,10 +10874,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>811</v>
+        <v>669</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -10906,8 +10891,8 @@
       <c r="G236">
         <v>1</v>
       </c>
-      <c r="I236" t="s">
-        <v>666</v>
+      <c r="I236" s="9" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="16.5">
@@ -10915,14 +10900,14 @@
         <v>236</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C237" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="D237" s="9" t="s">
-        <v>671</v>
-      </c>
       <c r="E237">
         <v>1</v>
       </c>
@@ -10932,8 +10917,8 @@
       <c r="G237">
         <v>1</v>
       </c>
-      <c r="I237" s="9" t="s">
-        <v>670</v>
+      <c r="I237" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5">
@@ -10941,10 +10926,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>675</v>
@@ -10967,13 +10952,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>680</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -10985,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5">
@@ -10993,13 +10978,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>683</v>
-      </c>
       <c r="D240" s="9" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -11010,8 +10995,8 @@
       <c r="G240">
         <v>1</v>
       </c>
-      <c r="I240" t="s">
-        <v>685</v>
+      <c r="I240" s="9" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5">
@@ -11019,13 +11004,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -11037,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5">
@@ -11045,13 +11030,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -11063,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5">
@@ -11071,13 +11056,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -11089,7 +11074,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5">
@@ -11097,13 +11082,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11115,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="16.5">
@@ -11123,13 +11108,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11141,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="16.5">
@@ -11149,13 +11134,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11167,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="16.5">
@@ -11175,13 +11160,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11193,7 +11178,7 @@
         <v>1</v>
       </c>
       <c r="I247" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="16.5">
@@ -11201,13 +11186,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>718</v>
-      </c>
       <c r="D248" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -11219,7 +11204,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="16.5">
@@ -11230,10 +11215,10 @@
         <v>723</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -11245,7 +11230,7 @@
         <v>1</v>
       </c>
       <c r="I249" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5">
@@ -11253,14 +11238,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C250" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="D250" s="9" t="s">
-        <v>728</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -11271,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5">
@@ -11282,10 +11267,10 @@
         <v>731</v>
       </c>
       <c r="C251" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>732</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11305,78 +11290,78 @@
         <v>251</v>
       </c>
       <c r="B252" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C252" t="s">
+        <v>739</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="9" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="16">
         <v>252</v>
       </c>
-      <c r="B253" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="C253" t="s">
-        <v>742</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-      <c r="I253" s="9" t="s">
-        <v>737</v>
+      <c r="B253" s="29" t="s">
+        <v>969</v>
+      </c>
+      <c r="C253" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="E253" s="30">
+        <v>0</v>
+      </c>
+      <c r="F253" s="30">
+        <v>0</v>
+      </c>
+      <c r="G253" s="30">
+        <v>0</v>
+      </c>
+      <c r="H253" s="30"/>
+      <c r="I253" s="29" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="16">
         <v>253</v>
       </c>
-      <c r="B254" s="30" t="s">
-        <v>972</v>
-      </c>
-      <c r="C254" s="31" t="s">
+      <c r="B254" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="D254" s="30" t="s">
-        <v>973</v>
-      </c>
-      <c r="E254" s="31">
-        <v>0</v>
-      </c>
-      <c r="F254" s="31">
-        <v>0</v>
-      </c>
-      <c r="G254" s="31">
-        <v>0</v>
-      </c>
-      <c r="H254" s="31"/>
-      <c r="I254" s="30" t="s">
-        <v>738</v>
+      <c r="C254" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="9" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5">
@@ -11384,13 +11369,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -11402,59 +11387,59 @@
         <v>1</v>
       </c>
       <c r="I255" s="9" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="16.5">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A256" s="16">
         <v>255</v>
       </c>
-      <c r="B256" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="C256" s="9" t="s">
+      <c r="B256" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="C256" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="D256" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
+      <c r="E256" s="26">
+        <v>1</v>
+      </c>
+      <c r="F256" s="26">
+        <v>1</v>
+      </c>
+      <c r="G256" s="26">
+        <v>1</v>
+      </c>
+      <c r="I256" s="22" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A257" s="16">
+        <v>256</v>
+      </c>
+      <c r="B257" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="D257" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="E257" s="17">
+        <v>0</v>
+      </c>
+      <c r="F257" s="17">
+        <v>1</v>
+      </c>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="I257" s="15" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" s="27" customFormat="1" ht="16.5">
-      <c r="A257" s="25">
-        <v>256</v>
-      </c>
-      <c r="B257" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="C257" s="26" t="s">
-        <v>925</v>
-      </c>
-      <c r="D257" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="E257" s="27">
-        <v>1</v>
-      </c>
-      <c r="F257" s="27">
-        <v>1</v>
-      </c>
-      <c r="G257" s="27">
-        <v>1</v>
-      </c>
-      <c r="I257" s="22" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11462,14 +11447,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="C258" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="D258" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="C258" s="15" t="s">
-        <v>755</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>756</v>
-      </c>
       <c r="E258" s="17">
         <v>0</v>
       </c>
@@ -11480,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11497,7 +11482,7 @@
         <v>760</v>
       </c>
       <c r="E259" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" s="17">
         <v>1</v>
@@ -11506,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11514,16 +11499,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E260" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260" s="17">
         <v>1</v>
@@ -11532,32 +11517,32 @@
         <v>1</v>
       </c>
       <c r="I260" s="15" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="16">
         <v>260</v>
       </c>
-      <c r="B261" s="15" t="s">
-        <v>765</v>
-      </c>
-      <c r="C261" s="15" t="s">
+      <c r="B261" t="s">
         <v>766</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="C261" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D261" t="s">
         <v>767</v>
       </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="12" t="s">
         <v>768</v>
       </c>
     </row>
@@ -11565,16 +11550,16 @@
       <c r="A262" s="16">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>769</v>
+      <c r="B262" s="15" t="s">
+        <v>770</v>
       </c>
       <c r="C262" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="D262" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="D262" t="s">
-        <v>770</v>
-      </c>
-      <c r="E262" s="5">
+      <c r="E262">
         <v>1</v>
       </c>
       <c r="F262">
@@ -11584,33 +11569,33 @@
         <v>1</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="16.5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A263" s="16">
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C263" s="15" t="s">
         <v>774</v>
       </c>
       <c r="D263" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-      <c r="I263" s="12" t="s">
-        <v>645</v>
+      <c r="E263" s="17">
+        <v>0</v>
+      </c>
+      <c r="F263" s="17">
+        <v>0</v>
+      </c>
+      <c r="G263" s="17">
+        <v>0</v>
+      </c>
+      <c r="I263" s="15" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11618,13 +11603,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E264" s="17">
         <v>0</v>
@@ -11636,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="I264" s="15" t="s">
-        <v>779</v>
+        <v>642</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11661,8 +11646,8 @@
       <c r="G265" s="17">
         <v>0</v>
       </c>
-      <c r="I265" s="15" t="s">
-        <v>645</v>
+      <c r="I265" s="17" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11670,12 +11655,12 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="D266" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="D266" s="18" t="s">
         <v>785</v>
       </c>
       <c r="E266" s="17">
@@ -11687,8 +11672,8 @@
       <c r="G266" s="17">
         <v>0</v>
       </c>
-      <c r="I266" s="17" t="s">
-        <v>786</v>
+      <c r="I266" s="19" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11696,14 +11681,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C267" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="D267" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="D267" s="18" t="s">
-        <v>788</v>
-      </c>
       <c r="E267" s="17">
         <v>0</v>
       </c>
@@ -11714,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="19" t="s">
-        <v>790</v>
+        <v>733</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11722,51 +11707,52 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C268" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="D268" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="D268" s="18" t="s">
-        <v>792</v>
-      </c>
       <c r="E268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="16.5">
       <c r="A269" s="16">
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="E269" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269" s="17">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" s="17"/>
       <c r="I269" s="19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5">
@@ -11774,13 +11760,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="D270" s="18" t="s">
         <v>799</v>
-      </c>
-      <c r="D270" s="18" t="s">
-        <v>803</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11793,7 +11779,7 @@
       </c>
       <c r="H270" s="17"/>
       <c r="I270" s="19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5">
@@ -11801,26 +11787,26 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D271" s="18" t="s">
         <v>802</v>
       </c>
       <c r="E271" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="19" t="s">
-        <v>736</v>
+        <v>804</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5">
@@ -11828,13 +11814,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>806</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E272" s="17">
         <v>1</v>
@@ -11847,7 +11833,7 @@
       </c>
       <c r="H272" s="17"/>
       <c r="I272" s="19" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5">
@@ -11855,10 +11841,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>810</v>
@@ -11874,7 +11860,7 @@
       </c>
       <c r="H273" s="17"/>
       <c r="I273" s="19" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5">
@@ -11882,83 +11868,79 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>812</v>
-      </c>
-      <c r="C274" s="15" t="s">
-        <v>814</v>
       </c>
       <c r="D274" s="18" t="s">
         <v>813</v>
       </c>
       <c r="E274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G274" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274" s="17"/>
       <c r="I274" s="19" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="16.5">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="21" customFormat="1" ht="17.25">
       <c r="A275" s="16">
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>848</v>
+        <v>817</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D275" s="18" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E275" s="17">
         <v>0</v>
       </c>
       <c r="F275" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" s="17"/>
-      <c r="I275" s="19" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="21" customFormat="1" ht="17.25">
+      <c r="I275" s="28" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="16.5">
       <c r="A276" s="16">
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="C276" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="C276" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="D276" s="18" t="s">
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>821</v>
       </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="H276" s="17"/>
-      <c r="I276" s="29" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="16.5">
+    </row>
+    <row r="277" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="16">
         <v>276</v>
       </c>
@@ -11966,46 +11948,49 @@
         <v>822</v>
       </c>
       <c r="C277" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="D277" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E277" s="15">
+        <v>0</v>
+      </c>
+      <c r="F277" s="15">
+        <v>0</v>
+      </c>
+      <c r="G277" s="15">
+        <v>0</v>
+      </c>
+      <c r="H277" s="15"/>
+      <c r="I277" s="15" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="16">
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="I278" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>932</v>
-      </c>
-      <c r="D278" s="33" t="s">
-        <v>826</v>
-      </c>
-      <c r="E278" s="15">
-        <v>0</v>
-      </c>
-      <c r="F278" s="15">
-        <v>0</v>
-      </c>
-      <c r="G278" s="15">
-        <v>0</v>
-      </c>
-      <c r="H278" s="15"/>
-      <c r="I278" s="15" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -12013,22 +11998,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="D279" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E279">
         <v>0</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" s="19" t="s">
         <v>828</v>
@@ -12039,9 +12021,12 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C280" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="D280" s="18" t="s">
         <v>829</v>
       </c>
       <c r="E280">
@@ -12054,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -12062,25 +12047,25 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E281">
         <v>0</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -12088,390 +12073,390 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="C282" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="19" t="s">
         <v>838</v>
       </c>
-      <c r="D282" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-      <c r="I282" s="19" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="16.5">
+    </row>
+    <row r="283" spans="1:9" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="16">
         <v>282</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="B283" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="C283" s="33" t="s">
+        <v>840</v>
+      </c>
+      <c r="D283" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="E283" s="35">
+        <v>1</v>
+      </c>
+      <c r="F283" s="35">
+        <v>1</v>
+      </c>
+      <c r="G283" s="35">
+        <v>1</v>
+      </c>
+      <c r="I283" s="36" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A284" s="16">
+        <v>283</v>
+      </c>
+      <c r="B284" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="C284" s="33" t="s">
+        <v>848</v>
+      </c>
+      <c r="D284" s="34" t="s">
         <v>846</v>
       </c>
-      <c r="C283" s="15" t="s">
-        <v>840</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="I283" s="19" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" s="37" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A284" s="34">
-        <v>283</v>
-      </c>
-      <c r="B284" s="36" t="s">
-        <v>842</v>
-      </c>
-      <c r="C284" s="35" t="s">
-        <v>843</v>
-      </c>
-      <c r="D284" s="36" t="s">
-        <v>844</v>
-      </c>
-      <c r="E284" s="37">
-        <v>1</v>
-      </c>
-      <c r="F284" s="37">
-        <v>1</v>
-      </c>
-      <c r="G284" s="37">
-        <v>1</v>
-      </c>
-      <c r="I284" s="38" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A285" s="34">
+      <c r="E284" s="35">
+        <v>1</v>
+      </c>
+      <c r="F284" s="35">
+        <v>1</v>
+      </c>
+      <c r="G284" s="35">
+        <v>1</v>
+      </c>
+      <c r="I284" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="16.5">
+      <c r="A285" s="16">
         <v>284</v>
       </c>
-      <c r="B285" s="36" t="s">
+      <c r="B285" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="C285" s="35" t="s">
+      <c r="C285" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="D285" s="36" t="s">
-        <v>849</v>
-      </c>
-      <c r="E285" s="37">
-        <v>1</v>
-      </c>
-      <c r="F285" s="37">
-        <v>1</v>
-      </c>
-      <c r="G285" s="37">
-        <v>1</v>
-      </c>
-      <c r="I285" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" ht="16.5">
+      <c r="D285" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="19" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A286" s="16">
         <v>285</v>
       </c>
-      <c r="B286" s="15" t="s">
-        <v>853</v>
-      </c>
-      <c r="C286" s="15" t="s">
+      <c r="B286" s="33" t="s">
+        <v>855</v>
+      </c>
+      <c r="C286" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="D286" s="34" t="s">
         <v>854</v>
       </c>
-      <c r="D286" s="18" t="s">
-        <v>855</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="I286" s="19" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A287" s="34">
+      <c r="E286" s="35">
+        <v>1</v>
+      </c>
+      <c r="F286" s="35">
+        <v>1</v>
+      </c>
+      <c r="G286" s="35">
+        <v>1</v>
+      </c>
+      <c r="I286" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A287" s="16">
         <v>286</v>
       </c>
-      <c r="B287" s="35" t="s">
+      <c r="B287" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="C287" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="C287" s="35" t="s">
+      <c r="D287" s="34" t="s">
         <v>859</v>
       </c>
-      <c r="D287" s="36" t="s">
-        <v>857</v>
-      </c>
-      <c r="E287" s="37">
-        <v>1</v>
-      </c>
-      <c r="F287" s="37">
-        <v>1</v>
-      </c>
-      <c r="G287" s="37">
-        <v>1</v>
-      </c>
-      <c r="I287" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A288" s="34">
+      <c r="E287" s="35">
+        <v>1</v>
+      </c>
+      <c r="F287" s="35">
+        <v>1</v>
+      </c>
+      <c r="G287" s="35">
+        <v>1</v>
+      </c>
+      <c r="I287" s="36" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="A288" s="16">
         <v>287</v>
       </c>
-      <c r="B288" s="35" t="s">
-        <v>860</v>
-      </c>
-      <c r="C288" s="35" t="s">
+      <c r="B288" s="29" t="s">
         <v>861</v>
       </c>
-      <c r="D288" s="36" t="s">
+      <c r="C288" s="29" t="s">
         <v>862</v>
       </c>
-      <c r="E288" s="37">
-        <v>1</v>
-      </c>
-      <c r="F288" s="37">
-        <v>1</v>
-      </c>
-      <c r="G288" s="37">
-        <v>1</v>
-      </c>
-      <c r="I288" s="38" t="s">
+      <c r="D288" s="29" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="E288" s="30">
+        <v>1</v>
+      </c>
+      <c r="F288" s="30">
+        <v>1</v>
+      </c>
+      <c r="G288" s="30">
+        <v>1</v>
+      </c>
+      <c r="H288" s="30"/>
+      <c r="I288" s="29" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A289" s="16">
         <v>288</v>
       </c>
-      <c r="B289" s="30" t="s">
+      <c r="B289" s="33" t="s">
         <v>864</v>
       </c>
-      <c r="C289" s="30" t="s">
+      <c r="C289" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="D289" s="30" t="s">
+      <c r="D289" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="E289" s="31">
-        <v>1</v>
-      </c>
-      <c r="F289" s="31">
-        <v>1</v>
-      </c>
-      <c r="G289" s="31">
-        <v>1</v>
-      </c>
-      <c r="H289" s="31"/>
-      <c r="I289" s="30" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A290" s="34">
+      <c r="E289" s="35">
+        <v>1</v>
+      </c>
+      <c r="F289" s="35">
+        <v>1</v>
+      </c>
+      <c r="G289" s="35">
+        <v>1</v>
+      </c>
+      <c r="I289" s="36" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A290" s="16">
         <v>289</v>
       </c>
-      <c r="B290" s="35" t="s">
-        <v>867</v>
-      </c>
-      <c r="C290" s="35" t="s">
+      <c r="B290" s="34" t="s">
         <v>868</v>
       </c>
-      <c r="D290" s="36" t="s">
+      <c r="C290" s="33" t="s">
         <v>869</v>
       </c>
-      <c r="E290" s="37">
-        <v>1</v>
-      </c>
-      <c r="F290" s="37">
-        <v>1</v>
-      </c>
-      <c r="G290" s="37">
-        <v>1</v>
-      </c>
-      <c r="I290" s="38" t="s">
+      <c r="D290" s="34" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A291" s="34">
+      <c r="E290" s="35">
+        <v>1</v>
+      </c>
+      <c r="F290" s="35">
+        <v>1</v>
+      </c>
+      <c r="G290" s="35">
+        <v>1</v>
+      </c>
+      <c r="I290" s="36" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A291" s="16">
         <v>290</v>
       </c>
-      <c r="B291" s="36" t="s">
-        <v>871</v>
-      </c>
-      <c r="C291" s="35" t="s">
+      <c r="B291" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="D291" s="36" t="s">
+      <c r="C291" s="33" t="s">
         <v>873</v>
       </c>
-      <c r="E291" s="37">
-        <v>1</v>
-      </c>
-      <c r="F291" s="37">
-        <v>1</v>
-      </c>
-      <c r="G291" s="37">
-        <v>1</v>
-      </c>
-      <c r="I291" s="38" t="s">
+      <c r="D291" s="34" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A292" s="34">
+      <c r="E291" s="35">
+        <v>1</v>
+      </c>
+      <c r="F291" s="35">
+        <v>1</v>
+      </c>
+      <c r="G291" s="35">
+        <v>1</v>
+      </c>
+      <c r="I291" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A292" s="16">
         <v>291</v>
       </c>
-      <c r="B292" s="36" t="s">
+      <c r="B292" s="34" t="s">
         <v>875</v>
       </c>
-      <c r="C292" s="35" t="s">
+      <c r="C292" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="D292" s="34" t="s">
+        <v>877</v>
+      </c>
+      <c r="E292" s="35">
+        <v>1</v>
+      </c>
+      <c r="F292" s="35">
+        <v>1</v>
+      </c>
+      <c r="G292" s="35">
+        <v>1</v>
+      </c>
+      <c r="I292" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A293" s="16">
+        <v>292</v>
+      </c>
+      <c r="B293" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="D292" s="36" t="s">
-        <v>877</v>
-      </c>
-      <c r="E292" s="37">
-        <v>1</v>
-      </c>
-      <c r="F292" s="37">
-        <v>1</v>
-      </c>
-      <c r="G292" s="37">
-        <v>1</v>
-      </c>
-      <c r="I292" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A293" s="34">
-        <v>292</v>
-      </c>
-      <c r="B293" s="36" t="s">
+      <c r="C293" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="D293" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="C293" s="35" t="s">
+      <c r="E293" s="35">
+        <v>1</v>
+      </c>
+      <c r="F293" s="35">
+        <v>1</v>
+      </c>
+      <c r="G293" s="35">
+        <v>1</v>
+      </c>
+      <c r="I293" s="36" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A294" s="16">
+        <v>293</v>
+      </c>
+      <c r="B294" s="34" t="s">
+        <v>882</v>
+      </c>
+      <c r="C294" s="33" t="s">
         <v>883</v>
       </c>
-      <c r="D293" s="36" t="s">
-        <v>880</v>
-      </c>
-      <c r="E293" s="37">
-        <v>1</v>
-      </c>
-      <c r="F293" s="37">
-        <v>1</v>
-      </c>
-      <c r="G293" s="37">
-        <v>1</v>
-      </c>
-      <c r="I293" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A294" s="34">
-        <v>293</v>
-      </c>
-      <c r="B294" s="36" t="s">
-        <v>879</v>
-      </c>
-      <c r="C294" s="35" t="s">
+      <c r="D294" s="34" t="s">
         <v>884</v>
       </c>
-      <c r="D294" s="36" t="s">
-        <v>881</v>
-      </c>
-      <c r="E294" s="37">
-        <v>1</v>
-      </c>
-      <c r="F294" s="37">
-        <v>1</v>
-      </c>
-      <c r="G294" s="37">
-        <v>1</v>
-      </c>
-      <c r="I294" s="38" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A295" s="34">
+      <c r="E294" s="35">
+        <v>1</v>
+      </c>
+      <c r="F294" s="35">
+        <v>1</v>
+      </c>
+      <c r="G294" s="35">
+        <v>1</v>
+      </c>
+      <c r="I294" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" s="35" customFormat="1" ht="16.5">
+      <c r="A295" s="16">
         <v>294</v>
       </c>
-      <c r="B295" s="36" t="s">
+      <c r="B295" s="34" t="s">
         <v>885</v>
       </c>
-      <c r="C295" s="35" t="s">
+      <c r="C295" s="33" t="s">
         <v>886</v>
       </c>
-      <c r="D295" s="36" t="s">
+      <c r="D295" s="34" t="s">
         <v>887</v>
       </c>
-      <c r="E295" s="37">
-        <v>1</v>
-      </c>
-      <c r="F295" s="37">
-        <v>1</v>
-      </c>
-      <c r="G295" s="37">
-        <v>1</v>
-      </c>
-      <c r="I295" s="38" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" s="37" customFormat="1" ht="16.5">
-      <c r="A296" s="34">
+      <c r="E295" s="35">
+        <v>1</v>
+      </c>
+      <c r="F295" s="35">
+        <v>1</v>
+      </c>
+      <c r="G295" s="35">
+        <v>1</v>
+      </c>
+      <c r="I295" s="36" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="16.5">
+      <c r="A296" s="16">
         <v>295</v>
       </c>
-      <c r="B296" s="36" t="s">
+      <c r="B296" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="C296" s="35" t="s">
+      <c r="C296" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="D296" s="36" t="s">
-        <v>890</v>
-      </c>
-      <c r="E296" s="37">
-        <v>1</v>
-      </c>
-      <c r="F296" s="37">
-        <v>1</v>
-      </c>
-      <c r="G296" s="37">
-        <v>1</v>
-      </c>
-      <c r="I296" s="38" t="s">
-        <v>645</v>
+      <c r="D296" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="15" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="16.5">
@@ -12479,14 +12464,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C297" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="D297" s="20" t="s">
         <v>892</v>
       </c>
-      <c r="D297" s="20" t="s">
-        <v>894</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12497,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="15" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5">
@@ -12505,14 +12490,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D298" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="C298" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="D298" s="20" t="s">
-        <v>895</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12523,59 +12508,60 @@
         <v>0</v>
       </c>
       <c r="I298" s="15" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="16.5">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A299" s="16">
         <v>298</v>
       </c>
-      <c r="B299" s="20" t="s">
+      <c r="B299" s="34" t="s">
         <v>897</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="C299" s="33" t="s">
         <v>898</v>
       </c>
-      <c r="D299" s="20" t="s">
+      <c r="D299" s="34" t="s">
         <v>899</v>
       </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-      <c r="I299" s="15" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="E299" s="35">
+        <v>1</v>
+      </c>
+      <c r="F299" s="35">
+        <v>1</v>
+      </c>
+      <c r="G299" s="35">
+        <v>1</v>
+      </c>
+      <c r="I299" s="36" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A300" s="16">
         <v>299</v>
       </c>
-      <c r="B300" s="36" t="s">
-        <v>900</v>
-      </c>
-      <c r="C300" s="35" t="s">
-        <v>901</v>
-      </c>
-      <c r="D300" s="36" t="s">
-        <v>902</v>
-      </c>
-      <c r="E300" s="37">
-        <v>1</v>
-      </c>
-      <c r="F300" s="37">
-        <v>1</v>
-      </c>
-      <c r="G300" s="37">
-        <v>1</v>
-      </c>
-      <c r="I300" s="38" t="s">
+      <c r="B300" s="18" t="s">
         <v>903</v>
+      </c>
+      <c r="C300" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="E300" s="17">
+        <v>0</v>
+      </c>
+      <c r="F300" s="17">
+        <v>0</v>
+      </c>
+      <c r="G300" s="17">
+        <v>0</v>
+      </c>
+      <c r="H300" s="17"/>
+      <c r="I300" s="19" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -12583,7 +12569,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C301" s="15" t="s">
         <v>907</v>
@@ -12602,286 +12588,286 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="19" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>910</v>
-      </c>
-      <c r="D302" s="18" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="E302" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F302" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G302" s="17">
-        <v>0</v>
-      </c>
-      <c r="H302" s="17"/>
-      <c r="I302" s="19" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>1</v>
+      </c>
+      <c r="I302" s="15" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>931</v>
+        <v>910</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>912</v>
       </c>
       <c r="E303" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F303" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G303" s="17">
-        <v>1</v>
-      </c>
-      <c r="I303" s="15" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="23" customFormat="1" ht="16.5">
+        <v>0</v>
+      </c>
+      <c r="H303" s="17"/>
+      <c r="I303" s="19" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="18" t="s">
+      <c r="B304" s="34" t="s">
+        <v>913</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>917</v>
+      </c>
+      <c r="D304" s="34" t="s">
         <v>914</v>
       </c>
-      <c r="C304" s="15" t="s">
-        <v>913</v>
-      </c>
-      <c r="D304" s="18" t="s">
+      <c r="E304" s="35">
+        <v>1</v>
+      </c>
+      <c r="F304" s="35">
+        <v>1</v>
+      </c>
+      <c r="G304" s="35">
+        <v>1</v>
+      </c>
+      <c r="I304" s="36" t="s">
         <v>915</v>
       </c>
-      <c r="E304" s="17">
-        <v>0</v>
-      </c>
-      <c r="F304" s="17">
-        <v>0</v>
-      </c>
-      <c r="G304" s="17">
-        <v>0</v>
-      </c>
-      <c r="H304" s="17"/>
-      <c r="I304" s="19" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" s="37" customFormat="1" ht="16.5">
+    </row>
+    <row r="305" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
-      <c r="B305" s="36" t="s">
-        <v>916</v>
-      </c>
-      <c r="C305" s="35" t="s">
-        <v>920</v>
-      </c>
-      <c r="D305" s="36" t="s">
-        <v>917</v>
-      </c>
-      <c r="E305" s="37">
-        <v>1</v>
-      </c>
-      <c r="F305" s="37">
-        <v>1</v>
-      </c>
-      <c r="G305" s="37">
-        <v>1</v>
-      </c>
-      <c r="I305" s="38" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="B305" s="45" t="s">
+        <v>977</v>
+      </c>
+      <c r="C305" s="46" t="s">
+        <v>941</v>
+      </c>
+      <c r="D305" s="45" t="s">
+        <v>983</v>
+      </c>
+      <c r="E305" s="47">
+        <v>1</v>
+      </c>
+      <c r="F305" s="47">
+        <v>1</v>
+      </c>
+      <c r="G305" s="47">
+        <v>1</v>
+      </c>
+      <c r="H305" s="47"/>
+      <c r="I305" s="46" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16.5">
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="47" t="s">
-        <v>980</v>
-      </c>
-      <c r="C306" s="48" t="s">
-        <v>944</v>
-      </c>
-      <c r="D306" s="47" t="s">
-        <v>986</v>
-      </c>
-      <c r="E306" s="49">
-        <v>1</v>
-      </c>
-      <c r="F306" s="49">
-        <v>1</v>
-      </c>
-      <c r="G306" s="49">
-        <v>1</v>
-      </c>
-      <c r="H306" s="49"/>
-      <c r="I306" s="48" t="s">
-        <v>946</v>
+      <c r="B306" s="45" t="s">
+        <v>978</v>
+      </c>
+      <c r="C306" s="46" t="s">
+        <v>942</v>
+      </c>
+      <c r="D306" s="45" t="s">
+        <v>984</v>
+      </c>
+      <c r="E306" s="47">
+        <v>1</v>
+      </c>
+      <c r="F306" s="47">
+        <v>1</v>
+      </c>
+      <c r="G306" s="47">
+        <v>1</v>
+      </c>
+      <c r="H306" s="47"/>
+      <c r="I306" s="46" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="47" t="s">
-        <v>981</v>
-      </c>
-      <c r="C307" s="48" t="s">
-        <v>945</v>
-      </c>
-      <c r="D307" s="47" t="s">
-        <v>987</v>
-      </c>
-      <c r="E307" s="49">
-        <v>1</v>
-      </c>
-      <c r="F307" s="49">
-        <v>1</v>
-      </c>
-      <c r="G307" s="49">
-        <v>1</v>
-      </c>
-      <c r="H307" s="49"/>
+      <c r="B307" s="45" t="s">
+        <v>971</v>
+      </c>
+      <c r="C307" s="45" t="s">
+        <v>948</v>
+      </c>
+      <c r="D307" s="45" t="s">
+        <v>972</v>
+      </c>
+      <c r="E307" s="47">
+        <v>1</v>
+      </c>
+      <c r="F307" s="47">
+        <v>1</v>
+      </c>
+      <c r="G307" s="47">
+        <v>1</v>
+      </c>
+      <c r="H307" s="47"/>
       <c r="I307" s="48" t="s">
-        <v>946</v>
+        <v>642</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="47" t="s">
-        <v>974</v>
-      </c>
-      <c r="C308" s="47" t="s">
-        <v>951</v>
-      </c>
-      <c r="D308" s="47" t="s">
-        <v>975</v>
-      </c>
-      <c r="E308" s="49">
-        <v>1</v>
-      </c>
-      <c r="F308" s="49">
-        <v>1</v>
-      </c>
-      <c r="G308" s="49">
-        <v>1</v>
-      </c>
-      <c r="H308" s="49"/>
-      <c r="I308" s="50" t="s">
-        <v>645</v>
+      <c r="B308" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="C308" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="D308" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="E308" s="17">
+        <v>1</v>
+      </c>
+      <c r="F308" s="17">
+        <v>1</v>
+      </c>
+      <c r="G308" s="17">
+        <v>1</v>
+      </c>
+      <c r="H308" s="17"/>
+      <c r="I308" s="19" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="17" t="s">
+      <c r="B309" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="D309" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="E309" s="17">
+        <v>1</v>
+      </c>
+      <c r="F309" s="17">
+        <v>1</v>
+      </c>
+      <c r="G309" s="17">
+        <v>1</v>
+      </c>
+      <c r="H309" s="17"/>
+      <c r="I309" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="C309" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="E309" s="17">
-        <v>1</v>
-      </c>
-      <c r="F309" s="17">
-        <v>1</v>
-      </c>
-      <c r="G309" s="17">
-        <v>1</v>
-      </c>
-      <c r="H309" s="17"/>
-      <c r="I309" s="19" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" ht="16.5">
+    </row>
+    <row r="310" spans="1:9" s="35" customFormat="1" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="18" t="s">
-        <v>928</v>
-      </c>
-      <c r="C310" s="15" t="s">
-        <v>988</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>927</v>
-      </c>
-      <c r="E310" s="17">
-        <v>1</v>
-      </c>
-      <c r="F310" s="17">
-        <v>1</v>
-      </c>
-      <c r="G310" s="17">
-        <v>1</v>
-      </c>
-      <c r="H310" s="17"/>
-      <c r="I310" s="15" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="B310" s="34" t="s">
+        <v>932</v>
+      </c>
+      <c r="C310" s="33" t="s">
+        <v>933</v>
+      </c>
+      <c r="D310" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="E310" s="35">
+        <v>1</v>
+      </c>
+      <c r="F310" s="35">
+        <v>1</v>
+      </c>
+      <c r="G310" s="35">
+        <v>1</v>
+      </c>
+      <c r="I310" s="33" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="16.5">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="36" t="s">
+      <c r="B311" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="C311" s="35" t="s">
+      <c r="C311" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="D311" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="D311" s="36" t="s">
-        <v>934</v>
-      </c>
-      <c r="E311" s="37">
-        <v>1</v>
-      </c>
-      <c r="F311" s="37">
-        <v>1</v>
-      </c>
-      <c r="G311" s="37">
-        <v>1</v>
-      </c>
-      <c r="I311" s="35" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" ht="16.5">
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="H311" s="17"/>
+      <c r="I311" s="15" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A312" s="16">
         <v>311</v>
       </c>
       <c r="B312" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="D312" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="D312" s="18" t="s">
-        <v>939</v>
-      </c>
       <c r="E312" s="17">
         <v>1</v>
       </c>
@@ -12891,72 +12877,71 @@
       <c r="G312" s="17">
         <v>1</v>
       </c>
-      <c r="H312" s="17"/>
       <c r="I312" s="15" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="16.5">
       <c r="A313" s="16">
         <v>312</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="D313" s="18" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="E313" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F313" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G313" s="17">
-        <v>1</v>
-      </c>
-      <c r="I313" s="15" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" ht="16.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="17.25">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="18" t="s">
-        <v>948</v>
+      <c r="B314" s="31" t="s">
+        <v>949</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>949</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>950</v>
+        <v>951</v>
+      </c>
+      <c r="D314" s="20" t="s">
+        <v>954</v>
       </c>
       <c r="E314" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314" s="17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I314" s="9" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="17.25">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="32" t="s">
+      <c r="B315" s="31" t="s">
+        <v>950</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="C315" s="15" t="s">
-        <v>954</v>
-      </c>
-      <c r="D315" s="20" t="s">
-        <v>957</v>
+      <c r="D315" s="31" t="s">
+        <v>958</v>
       </c>
       <c r="E315" s="17">
         <v>1</v>
@@ -12964,241 +12949,215 @@
       <c r="F315" s="17">
         <v>1</v>
       </c>
-      <c r="G315" s="17">
-        <v>1</v>
-      </c>
-      <c r="I315" s="9" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="17.25">
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="I315" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="16.5">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="32" t="s">
-        <v>953</v>
-      </c>
-      <c r="C316" s="15" t="s">
+      <c r="B316" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="C316" s="25" t="s">
+        <v>956</v>
+      </c>
+      <c r="D316" s="27" t="s">
         <v>955</v>
       </c>
-      <c r="D316" s="32" t="s">
-        <v>961</v>
-      </c>
-      <c r="E316" s="17">
-        <v>1</v>
-      </c>
-      <c r="F316" s="17">
-        <v>1</v>
-      </c>
-      <c r="G316">
-        <v>1</v>
-      </c>
-      <c r="I316" s="19" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" ht="16.5">
+      <c r="E316" s="26">
+        <v>1</v>
+      </c>
+      <c r="F316" s="26">
+        <v>1</v>
+      </c>
+      <c r="G316" s="26">
+        <v>1</v>
+      </c>
+      <c r="H316" s="26"/>
+      <c r="I316" s="37" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="17.25">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="28" t="s">
-        <v>965</v>
-      </c>
-      <c r="C317" s="26" t="s">
+      <c r="B317" s="38" t="s">
+        <v>963</v>
+      </c>
+      <c r="C317" s="25" t="s">
+        <v>960</v>
+      </c>
+      <c r="D317" s="38" t="s">
         <v>959</v>
       </c>
-      <c r="D317" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="E317" s="27">
-        <v>1</v>
-      </c>
-      <c r="F317" s="27">
-        <v>1</v>
-      </c>
-      <c r="G317" s="27">
-        <v>1</v>
-      </c>
-      <c r="H317" s="27"/>
-      <c r="I317" s="39" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" ht="17.25">
+      <c r="E317" s="26">
+        <v>1</v>
+      </c>
+      <c r="F317" s="26">
+        <v>1</v>
+      </c>
+      <c r="G317" s="26">
+        <v>1</v>
+      </c>
+      <c r="H317" s="26"/>
+      <c r="I317" s="25" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="16.5">
       <c r="A318" s="16">
         <v>317</v>
       </c>
-      <c r="B318" s="40" t="s">
-        <v>966</v>
-      </c>
-      <c r="C318" s="26" t="s">
-        <v>963</v>
-      </c>
-      <c r="D318" s="40" t="s">
-        <v>962</v>
-      </c>
-      <c r="E318" s="27">
-        <v>1</v>
-      </c>
-      <c r="F318" s="27">
-        <v>1</v>
-      </c>
-      <c r="G318" s="27">
-        <v>1</v>
-      </c>
-      <c r="H318" s="27"/>
-      <c r="I318" s="26" t="s">
+      <c r="B318" s="44" t="s">
+        <v>979</v>
+      </c>
+      <c r="C318" s="42" t="s">
         <v>964</v>
+      </c>
+      <c r="D318" s="43"/>
+      <c r="E318" s="43">
+        <v>1</v>
+      </c>
+      <c r="F318" s="43">
+        <v>1</v>
+      </c>
+      <c r="G318" s="43">
+        <v>1</v>
+      </c>
+      <c r="H318" s="43"/>
+      <c r="I318" s="42" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="46" t="s">
-        <v>982</v>
-      </c>
-      <c r="C319" s="44" t="s">
-        <v>967</v>
-      </c>
-      <c r="D319" s="45"/>
-      <c r="E319" s="45">
-        <v>1</v>
-      </c>
-      <c r="F319" s="45">
-        <v>1</v>
-      </c>
-      <c r="G319" s="45">
-        <v>1</v>
-      </c>
-      <c r="H319" s="45"/>
-      <c r="I319" s="44" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" ht="16.5">
+      <c r="B319" s="44" t="s">
+        <v>980</v>
+      </c>
+      <c r="C319" s="42" t="s">
+        <v>965</v>
+      </c>
+      <c r="D319" s="43"/>
+      <c r="E319" s="43">
+        <v>1</v>
+      </c>
+      <c r="F319" s="43">
+        <v>1</v>
+      </c>
+      <c r="G319" s="43">
+        <v>1</v>
+      </c>
+      <c r="H319" s="43"/>
+      <c r="I319" s="42" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A320" s="16">
         <v>319</v>
       </c>
-      <c r="B320" s="46" t="s">
-        <v>983</v>
-      </c>
-      <c r="C320" s="44" t="s">
-        <v>968</v>
-      </c>
-      <c r="D320" s="45"/>
-      <c r="E320" s="45">
-        <v>1</v>
-      </c>
-      <c r="F320" s="45">
-        <v>1</v>
-      </c>
-      <c r="G320" s="45">
-        <v>1</v>
-      </c>
-      <c r="H320" s="45"/>
-      <c r="I320" s="44" t="s">
-        <v>978</v>
+      <c r="B320" s="44" t="s">
+        <v>974</v>
+      </c>
+      <c r="C320" s="43"/>
+      <c r="D320" s="43"/>
+      <c r="E320" s="43">
+        <v>1</v>
+      </c>
+      <c r="F320" s="43">
+        <v>1</v>
+      </c>
+      <c r="G320" s="43">
+        <v>1</v>
+      </c>
+      <c r="H320" s="43"/>
+      <c r="I320" s="42" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
-      <c r="B321" s="46" t="s">
-        <v>977</v>
-      </c>
-      <c r="C321" s="45"/>
-      <c r="D321" s="45"/>
-      <c r="E321" s="45">
-        <v>1</v>
-      </c>
-      <c r="F321" s="45">
-        <v>1</v>
-      </c>
-      <c r="G321" s="45">
-        <v>1</v>
-      </c>
-      <c r="H321" s="45"/>
-      <c r="I321" s="44" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="B321" s="44" t="s">
+        <v>973</v>
+      </c>
+      <c r="C321" s="43"/>
+      <c r="D321" s="43"/>
+      <c r="E321" s="43">
+        <v>1</v>
+      </c>
+      <c r="F321" s="43">
+        <v>1</v>
+      </c>
+      <c r="G321" s="43">
+        <v>1</v>
+      </c>
+      <c r="H321" s="43"/>
+      <c r="I321" s="42" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="16.5">
       <c r="A322" s="16">
         <v>321</v>
       </c>
-      <c r="B322" s="46" t="s">
-        <v>976</v>
-      </c>
-      <c r="C322" s="45"/>
-      <c r="D322" s="45"/>
-      <c r="E322" s="45">
-        <v>1</v>
-      </c>
-      <c r="F322" s="45">
-        <v>1</v>
-      </c>
-      <c r="G322" s="45">
-        <v>1</v>
-      </c>
-      <c r="H322" s="45"/>
-      <c r="I322" s="44" t="s">
-        <v>969</v>
+      <c r="B322" s="44" t="s">
+        <v>981</v>
+      </c>
+      <c r="C322" s="42" t="s">
+        <v>967</v>
+      </c>
+      <c r="D322" s="43"/>
+      <c r="E322" s="43">
+        <v>1</v>
+      </c>
+      <c r="F322" s="43">
+        <v>1</v>
+      </c>
+      <c r="G322" s="43">
+        <v>1</v>
+      </c>
+      <c r="H322" s="43"/>
+      <c r="I322" s="42" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="46" t="s">
-        <v>984</v>
-      </c>
-      <c r="C323" s="44" t="s">
-        <v>970</v>
-      </c>
-      <c r="D323" s="45"/>
-      <c r="E323" s="45">
-        <v>1</v>
-      </c>
-      <c r="F323" s="45">
-        <v>1</v>
-      </c>
-      <c r="G323" s="45">
-        <v>1</v>
-      </c>
-      <c r="H323" s="45"/>
-      <c r="I323" s="44" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" ht="16.5">
-      <c r="A324" s="16">
-        <v>323</v>
-      </c>
-      <c r="B324" s="46" t="s">
-        <v>985</v>
-      </c>
-      <c r="C324" s="44" t="s">
-        <v>971</v>
-      </c>
-      <c r="D324" s="45"/>
-      <c r="E324" s="45">
-        <v>1</v>
-      </c>
-      <c r="F324" s="45">
-        <v>1</v>
-      </c>
-      <c r="G324" s="45">
-        <v>1</v>
-      </c>
-      <c r="H324" s="45"/>
-      <c r="I324" s="44" t="s">
-        <v>969</v>
+      <c r="B323" s="44" t="s">
+        <v>982</v>
+      </c>
+      <c r="C323" s="42" t="s">
+        <v>968</v>
+      </c>
+      <c r="D323" s="43"/>
+      <c r="E323" s="43">
+        <v>1</v>
+      </c>
+      <c r="F323" s="43">
+        <v>1</v>
+      </c>
+      <c r="G323" s="43">
+        <v>1</v>
+      </c>
+      <c r="H323" s="43"/>
+      <c r="I323" s="42" t="s">
+        <v>966</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H234"/>
+  <autoFilter ref="A1:H233"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13221,7 +13180,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1025">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4315,6 +4315,22 @@
   </si>
   <si>
     <t>元宵换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼提示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYHBYTSManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_hbyts</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5034,13 +5050,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C322" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G253" sqref="G253"/>
+      <selection pane="bottomRight" activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13621,6 +13637,32 @@
       <c r="H336" s="2"/>
       <c r="I336" s="48" t="s">
         <v>990</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="15">
+        <v>336</v>
+      </c>
+      <c r="B337" s="56" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C337" s="48" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E337" s="2">
+        <v>1</v>
+      </c>
+      <c r="F337" s="2">
+        <v>1</v>
+      </c>
+      <c r="G337" s="2">
+        <v>1</v>
+      </c>
+      <c r="I337" s="48" t="s">
+        <v>1023</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="993">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3897,58 +3897,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_038_s12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1月11日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>双十二页签→元旦活动→欢乐庆典</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>双十二→庆典礼包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日23:59:59</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4929,13 +4882,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I327"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C338" sqref="C338"/>
+      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6925,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="48" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -11340,13 +11293,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="28" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C253" s="29" t="s">
         <v>738</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E253" s="29">
         <v>0</v>
@@ -11972,7 +11925,7 @@
         <v>822</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D277" s="31" t="s">
         <v>823</v>
@@ -11988,7 +11941,7 @@
       </c>
       <c r="H277" s="15"/>
       <c r="I277" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5">
@@ -12272,7 +12225,7 @@
       </c>
       <c r="H288" s="29"/>
       <c r="I288" s="28" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="34" customFormat="1" ht="16.5">
@@ -12615,94 +12568,98 @@
         <v>906</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="17" customFormat="1" ht="16.5">
+    <row r="302" spans="1:9" s="23" customFormat="1" ht="16.5">
       <c r="A302" s="16">
         <v>301</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>928</v>
+        <v>910</v>
+      </c>
+      <c r="D302" s="18" t="s">
+        <v>912</v>
       </c>
       <c r="E302" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F302" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G302" s="17">
-        <v>1</v>
-      </c>
-      <c r="I302" s="15" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="23" customFormat="1" ht="16.5">
+        <v>0</v>
+      </c>
+      <c r="H302" s="17"/>
+      <c r="I302" s="19" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="18" t="s">
-        <v>911</v>
-      </c>
-      <c r="C303" s="15" t="s">
-        <v>910</v>
-      </c>
-      <c r="D303" s="18" t="s">
-        <v>912</v>
-      </c>
-      <c r="E303" s="17">
-        <v>0</v>
-      </c>
-      <c r="F303" s="17">
-        <v>0</v>
-      </c>
-      <c r="G303" s="17">
-        <v>0</v>
-      </c>
-      <c r="H303" s="17"/>
-      <c r="I303" s="19" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="34" customFormat="1" ht="16.5">
+      <c r="B303" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="C303" s="32" t="s">
+        <v>917</v>
+      </c>
+      <c r="D303" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="E303" s="34">
+        <v>1</v>
+      </c>
+      <c r="F303" s="34">
+        <v>1</v>
+      </c>
+      <c r="G303" s="34">
+        <v>1</v>
+      </c>
+      <c r="I303" s="35" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="21" customFormat="1" ht="16.5">
       <c r="A304" s="16">
         <v>303</v>
       </c>
-      <c r="B304" s="33" t="s">
-        <v>913</v>
-      </c>
-      <c r="C304" s="32" t="s">
-        <v>917</v>
-      </c>
-      <c r="D304" s="33" t="s">
-        <v>914</v>
-      </c>
-      <c r="E304" s="34">
-        <v>1</v>
-      </c>
-      <c r="F304" s="34">
-        <v>1</v>
-      </c>
-      <c r="G304" s="34">
-        <v>1</v>
-      </c>
-      <c r="I304" s="35" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" s="21" customFormat="1" ht="16.5">
+      <c r="B304" s="43" t="s">
+        <v>972</v>
+      </c>
+      <c r="C304" s="44" t="s">
+        <v>937</v>
+      </c>
+      <c r="D304" s="43" t="s">
+        <v>978</v>
+      </c>
+      <c r="E304" s="45">
+        <v>1</v>
+      </c>
+      <c r="F304" s="45">
+        <v>1</v>
+      </c>
+      <c r="G304" s="45">
+        <v>1</v>
+      </c>
+      <c r="H304" s="45"/>
+      <c r="I304" s="44" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5">
       <c r="A305" s="16">
         <v>304</v>
       </c>
       <c r="B305" s="43" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C305" s="44" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D305" s="43" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E305" s="45">
         <v>1</v>
@@ -12715,7 +12672,7 @@
       </c>
       <c r="H305" s="45"/>
       <c r="I305" s="44" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12723,13 +12680,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="43" t="s">
-        <v>976</v>
-      </c>
-      <c r="C306" s="44" t="s">
-        <v>941</v>
+        <v>966</v>
+      </c>
+      <c r="C306" s="43" t="s">
+        <v>944</v>
       </c>
       <c r="D306" s="43" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="E306" s="45">
         <v>1</v>
@@ -12741,49 +12698,49 @@
         <v>1</v>
       </c>
       <c r="H306" s="45"/>
-      <c r="I306" s="44" t="s">
-        <v>942</v>
+      <c r="I306" s="46" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="43" t="s">
-        <v>969</v>
-      </c>
-      <c r="C307" s="43" t="s">
-        <v>947</v>
-      </c>
-      <c r="D307" s="43" t="s">
-        <v>970</v>
-      </c>
-      <c r="E307" s="45">
-        <v>1</v>
-      </c>
-      <c r="F307" s="45">
-        <v>1</v>
-      </c>
-      <c r="G307" s="45">
-        <v>1</v>
-      </c>
-      <c r="H307" s="45"/>
-      <c r="I307" s="46" t="s">
-        <v>642</v>
+      <c r="B307" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="C307" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="D307" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="E307" s="17">
+        <v>1</v>
+      </c>
+      <c r="F307" s="17">
+        <v>1</v>
+      </c>
+      <c r="G307" s="17">
+        <v>1</v>
+      </c>
+      <c r="H307" s="17"/>
+      <c r="I307" s="19" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="C308" s="17" t="s">
-        <v>919</v>
-      </c>
-      <c r="D308" s="17" t="s">
-        <v>918</v>
+      <c r="B308" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="C308" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>924</v>
       </c>
       <c r="E308" s="17">
         <v>1</v>
@@ -12795,137 +12752,136 @@
         <v>1</v>
       </c>
       <c r="H308" s="17"/>
-      <c r="I308" s="19" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" ht="16.5">
+      <c r="I308" s="15" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" s="34" customFormat="1" ht="16.5">
       <c r="A309" s="16">
         <v>308</v>
       </c>
-      <c r="B309" s="18" t="s">
-        <v>925</v>
-      </c>
-      <c r="C309" s="15" t="s">
-        <v>983</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>924</v>
-      </c>
-      <c r="E309" s="17">
-        <v>1</v>
-      </c>
-      <c r="F309" s="17">
-        <v>1</v>
-      </c>
-      <c r="G309" s="17">
-        <v>1</v>
-      </c>
-      <c r="H309" s="17"/>
-      <c r="I309" s="15" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" s="34" customFormat="1" ht="16.5">
+      <c r="B309" s="33" t="s">
+        <v>929</v>
+      </c>
+      <c r="C309" s="32" t="s">
+        <v>930</v>
+      </c>
+      <c r="D309" s="33" t="s">
+        <v>928</v>
+      </c>
+      <c r="E309" s="34">
+        <v>1</v>
+      </c>
+      <c r="F309" s="34">
+        <v>1</v>
+      </c>
+      <c r="G309" s="34">
+        <v>1</v>
+      </c>
+      <c r="I309" s="32" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5">
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="33" t="s">
+      <c r="B310" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="C310" s="32" t="s">
+      <c r="C310" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>933</v>
       </c>
-      <c r="D310" s="33" t="s">
-        <v>931</v>
-      </c>
-      <c r="E310" s="34">
-        <v>1</v>
-      </c>
-      <c r="F310" s="34">
-        <v>1</v>
-      </c>
-      <c r="G310" s="34">
-        <v>1</v>
-      </c>
-      <c r="I310" s="32" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" ht="16.5">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="H310" s="17"/>
+      <c r="I310" s="15" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="18" t="s">
+      <c r="B311" s="49" t="s">
+        <v>991</v>
+      </c>
+      <c r="C311" s="50" t="s">
         <v>935</v>
       </c>
-      <c r="C311" s="15" t="s">
-        <v>937</v>
-      </c>
-      <c r="D311" s="18" t="s">
+      <c r="D311" s="49" t="s">
         <v>936</v>
       </c>
-      <c r="E311" s="17">
-        <v>1</v>
-      </c>
-      <c r="F311" s="17">
-        <v>1</v>
-      </c>
-      <c r="G311" s="17">
-        <v>1</v>
-      </c>
-      <c r="H311" s="17"/>
-      <c r="I311" s="15" t="s">
+      <c r="E311" s="2">
+        <v>1</v>
+      </c>
+      <c r="F311" s="2">
+        <v>1</v>
+      </c>
+      <c r="G311" s="2">
+        <v>1</v>
+      </c>
+      <c r="I311" s="50" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5">
+      <c r="A312" s="16">
+        <v>311</v>
+      </c>
+      <c r="B312" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" s="2" customFormat="1" ht="16.5">
-      <c r="A312" s="7">
-        <v>311</v>
-      </c>
-      <c r="B312" s="49" t="s">
-        <v>994</v>
-      </c>
-      <c r="C312" s="50" t="s">
-        <v>938</v>
-      </c>
-      <c r="D312" s="49" t="s">
-        <v>939</v>
-      </c>
-      <c r="E312" s="2">
-        <v>1</v>
-      </c>
-      <c r="F312" s="2">
-        <v>1</v>
-      </c>
-      <c r="G312" s="2">
-        <v>1</v>
-      </c>
-      <c r="I312" s="50" t="s">
+      <c r="D312" s="18" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" ht="16.5">
+      <c r="E312" s="17">
+        <v>0</v>
+      </c>
+      <c r="F312" s="17">
+        <v>0</v>
+      </c>
+      <c r="G312" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="17.25">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="18" t="s">
-        <v>944</v>
+      <c r="B313" s="30" t="s">
+        <v>945</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="D313" s="18" t="s">
-        <v>946</v>
+        <v>947</v>
+      </c>
+      <c r="D313" s="20" t="s">
+        <v>950</v>
       </c>
       <c r="E313" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313" s="17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I313" s="9" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="17.25">
@@ -12933,12 +12889,12 @@
         <v>313</v>
       </c>
       <c r="B314" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="C314" s="15" t="s">
-        <v>950</v>
-      </c>
-      <c r="D314" s="20" t="s">
+      <c r="D314" s="30" t="s">
         <v>953</v>
       </c>
       <c r="E314" s="17">
@@ -12947,91 +12903,90 @@
       <c r="F314" s="17">
         <v>1</v>
       </c>
-      <c r="G314" s="17">
-        <v>1</v>
-      </c>
-      <c r="I314" s="9" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="17.25">
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="I314" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="30" t="s">
-        <v>949</v>
-      </c>
-      <c r="C315" s="15" t="s">
+      <c r="B315" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="C315" s="50" t="s">
+        <v>952</v>
+      </c>
+      <c r="D315" s="49" t="s">
         <v>951</v>
       </c>
-      <c r="D315" s="30" t="s">
-        <v>956</v>
-      </c>
-      <c r="E315" s="17">
-        <v>1</v>
-      </c>
-      <c r="F315" s="17">
-        <v>1</v>
-      </c>
-      <c r="G315">
-        <v>1</v>
-      </c>
-      <c r="I315" s="19" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="16.5">
+      <c r="E315" s="2">
+        <v>1</v>
+      </c>
+      <c r="F315" s="2">
+        <v>1</v>
+      </c>
+      <c r="G315" s="2">
+        <v>1</v>
+      </c>
+      <c r="H315" s="2"/>
+      <c r="I315" s="50" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="17.25">
       <c r="A316" s="16">
         <v>315</v>
       </c>
-      <c r="B316" s="49" t="s">
-        <v>960</v>
-      </c>
-      <c r="C316" s="50" t="s">
+      <c r="B316" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="C316" s="25" t="s">
         <v>955</v>
       </c>
-      <c r="D316" s="49" t="s">
+      <c r="D316" s="36" t="s">
         <v>954</v>
       </c>
-      <c r="E316" s="2">
-        <v>1</v>
-      </c>
-      <c r="F316" s="2">
-        <v>1</v>
-      </c>
-      <c r="G316" s="2">
-        <v>1</v>
-      </c>
-      <c r="H316" s="2"/>
-      <c r="I316" s="50" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" ht="17.25">
+      <c r="E316" s="26">
+        <v>1</v>
+      </c>
+      <c r="F316" s="26">
+        <v>1</v>
+      </c>
+      <c r="G316" s="26">
+        <v>1</v>
+      </c>
+      <c r="H316" s="26"/>
+      <c r="I316" s="25" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5">
       <c r="A317" s="16">
         <v>316</v>
       </c>
-      <c r="B317" s="36" t="s">
-        <v>961</v>
-      </c>
-      <c r="C317" s="25" t="s">
-        <v>958</v>
-      </c>
-      <c r="D317" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="E317" s="26">
-        <v>1</v>
-      </c>
-      <c r="F317" s="26">
-        <v>1</v>
-      </c>
-      <c r="G317" s="26">
-        <v>1</v>
-      </c>
-      <c r="H317" s="26"/>
-      <c r="I317" s="25" t="s">
+      <c r="B317" s="42" t="s">
+        <v>974</v>
+      </c>
+      <c r="C317" s="40" t="s">
         <v>959</v>
+      </c>
+      <c r="D317" s="41"/>
+      <c r="E317" s="41">
+        <v>1</v>
+      </c>
+      <c r="F317" s="41">
+        <v>1</v>
+      </c>
+      <c r="G317" s="41">
+        <v>1</v>
+      </c>
+      <c r="H317" s="41"/>
+      <c r="I317" s="40" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="16.5">
@@ -13039,10 +12994,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C318" s="40" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D318" s="41"/>
       <c r="E318" s="41">
@@ -13056,19 +13011,17 @@
       </c>
       <c r="H318" s="41"/>
       <c r="I318" s="40" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" ht="16.5">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A319" s="16">
         <v>318</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>978</v>
-      </c>
-      <c r="C319" s="40" t="s">
-        <v>963</v>
-      </c>
+        <v>969</v>
+      </c>
+      <c r="C319" s="41"/>
       <c r="D319" s="41"/>
       <c r="E319" s="41">
         <v>1</v>
@@ -13081,7 +13034,7 @@
       </c>
       <c r="H319" s="41"/>
       <c r="I319" s="40" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13089,7 +13042,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C320" s="41"/>
       <c r="D320" s="41"/>
@@ -13104,17 +13057,19 @@
       </c>
       <c r="H320" s="41"/>
       <c r="I320" s="40" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="17" customFormat="1" ht="16.5">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="16.5">
       <c r="A321" s="16">
         <v>320</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>971</v>
-      </c>
-      <c r="C321" s="41"/>
+        <v>976</v>
+      </c>
+      <c r="C321" s="40" t="s">
+        <v>962</v>
+      </c>
       <c r="D321" s="41"/>
       <c r="E321" s="41">
         <v>1</v>
@@ -13127,7 +13082,7 @@
       </c>
       <c r="H321" s="41"/>
       <c r="I321" s="40" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="16.5">
@@ -13135,10 +13090,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C322" s="40" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D322" s="41"/>
       <c r="E322" s="41">
@@ -13152,32 +13107,34 @@
       </c>
       <c r="H322" s="41"/>
       <c r="I322" s="40" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="16.5">
       <c r="A323" s="16">
         <v>322</v>
       </c>
-      <c r="B323" s="42" t="s">
-        <v>980</v>
-      </c>
-      <c r="C323" s="40" t="s">
-        <v>966</v>
-      </c>
-      <c r="D323" s="41"/>
-      <c r="E323" s="41">
-        <v>1</v>
-      </c>
-      <c r="F323" s="41">
-        <v>1</v>
-      </c>
-      <c r="G323" s="41">
-        <v>1</v>
-      </c>
-      <c r="H323" s="41"/>
-      <c r="I323" s="40" t="s">
-        <v>964</v>
+      <c r="B323" s="49" t="s">
+        <v>982</v>
+      </c>
+      <c r="C323" s="50" t="s">
+        <v>983</v>
+      </c>
+      <c r="D323" s="49" t="s">
+        <v>984</v>
+      </c>
+      <c r="E323" s="2">
+        <v>1</v>
+      </c>
+      <c r="F323" s="2">
+        <v>1</v>
+      </c>
+      <c r="G323" s="2">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2"/>
+      <c r="I323" s="50" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13185,13 +13142,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="49" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C324" s="50" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D324" s="49" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E324" s="2">
         <v>1</v>
@@ -13204,7 +13161,7 @@
       </c>
       <c r="H324" s="2"/>
       <c r="I324" s="50" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="16.5">
@@ -13217,9 +13174,7 @@
       <c r="C325" s="50" t="s">
         <v>990</v>
       </c>
-      <c r="D325" s="49" t="s">
-        <v>991</v>
-      </c>
+      <c r="D325" s="2"/>
       <c r="E325" s="2">
         <v>1</v>
       </c>
@@ -13231,19 +13186,17 @@
       </c>
       <c r="H325" s="2"/>
       <c r="I325" s="50" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" ht="16.5">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="A326" s="16">
         <v>325</v>
       </c>
-      <c r="B326" s="49" t="s">
+      <c r="B326" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="C326" s="50" t="s">
-        <v>993</v>
-      </c>
+      <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2">
         <v>1</v>
@@ -13255,30 +13208,7 @@
         <v>1</v>
       </c>
       <c r="H326" s="2"/>
-      <c r="I326" s="50" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" s="17" customFormat="1" ht="16.5">
-      <c r="A327" s="16">
-        <v>326</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2">
-        <v>1</v>
-      </c>
-      <c r="F327" s="2">
-        <v>1</v>
-      </c>
-      <c r="G327" s="2">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2"/>
-      <c r="I327" s="51" t="s">
+      <c r="I326" s="51" t="s">
         <v>642</v>
       </c>
     </row>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -4154,84 +4154,84 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_001_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_002_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_xxlbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_universal_dh</t>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_UNIVERSAL_DHManager</t>
+  </si>
+  <si>
+    <t>act_ty_universal_dh_style/act_001_universal</t>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_by_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_sjb_style/act_001_ygbd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_001_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_002_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_045_xxlbd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>过大年--消消乐争霸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_045_XXLBDManger</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_universal_dh</t>
-  </si>
-  <si>
-    <t>万能字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_Ty_UNIVERSAL_DHManager</t>
-  </si>
-  <si>
-    <t>act_ty_universal_dh_style/act_001_universal</t>
-  </si>
-  <si>
-    <t>万能字资源皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_lb1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4882,13 +4882,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
+      <selection pane="bottomRight" activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6878,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="48" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5">
@@ -12626,13 +12626,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="43" t="s">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="C304" s="44" t="s">
         <v>937</v>
       </c>
       <c r="D304" s="43" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E304" s="45">
         <v>1</v>
@@ -12653,13 +12653,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="43" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C305" s="44" t="s">
         <v>938</v>
       </c>
       <c r="D305" s="43" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E305" s="45">
         <v>1</v>
@@ -12737,7 +12737,7 @@
         <v>925</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D308" s="18" t="s">
         <v>924</v>
@@ -12814,7 +12814,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="49" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C311" s="50" t="s">
         <v>935</v>
@@ -12934,7 +12934,7 @@
       </c>
       <c r="H315" s="2"/>
       <c r="I315" s="50" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="17.25">
@@ -12969,7 +12969,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>974</v>
+        <v>992</v>
       </c>
       <c r="C317" s="40" t="s">
         <v>959</v>
@@ -12994,7 +12994,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C318" s="40" t="s">
         <v>960</v>
@@ -13065,7 +13065,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C321" s="40" t="s">
         <v>962</v>
@@ -13090,7 +13090,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C322" s="40" t="s">
         <v>963</v>
@@ -13115,13 +13115,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
+        <v>980</v>
+      </c>
+      <c r="C323" s="50" t="s">
+        <v>981</v>
+      </c>
+      <c r="D323" s="49" t="s">
         <v>982</v>
-      </c>
-      <c r="C323" s="50" t="s">
-        <v>983</v>
-      </c>
-      <c r="D323" s="49" t="s">
-        <v>984</v>
       </c>
       <c r="E323" s="2">
         <v>1</v>
@@ -13134,7 +13134,7 @@
       </c>
       <c r="H323" s="2"/>
       <c r="I323" s="50" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="16.5">
@@ -13142,13 +13142,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="49" t="s">
+        <v>984</v>
+      </c>
+      <c r="C324" s="50" t="s">
+        <v>985</v>
+      </c>
+      <c r="D324" s="49" t="s">
         <v>986</v>
-      </c>
-      <c r="C324" s="50" t="s">
-        <v>987</v>
-      </c>
-      <c r="D324" s="49" t="s">
-        <v>988</v>
       </c>
       <c r="E324" s="2">
         <v>1</v>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="H324" s="2"/>
       <c r="I324" s="50" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="16.5">
@@ -13169,10 +13169,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="49" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C325" s="50" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="H325" s="2"/>
       <c r="I325" s="50" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -13194,7 +13194,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -13211,6 +13211,9 @@
       <c r="I326" s="51" t="s">
         <v>642</v>
       </c>
+    </row>
+    <row r="328" spans="1:9" ht="16.5">
+      <c r="B328" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H233"/>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1008">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3974,51 +3974,216 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利（半年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_045_xxlbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--消消乐争霸</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_045_XXLBDManger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_universal_dh</t>
+  </si>
+  <si>
+    <t>万能字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_UNIVERSAL_DHManager</t>
+  </si>
+  <si>
+    <t>act_ty_universal_dh_style/act_001_universal</t>
+  </si>
+  <si>
+    <t>万能字资源皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年送茅台</t>
+  </si>
+  <si>
+    <t>act_048_xnsmt</t>
+  </si>
+  <si>
+    <t>Act_048_XNSMTManager</t>
+  </si>
+  <si>
+    <r>
+      <t>1月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9号关闭</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包 2月9号关闭</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神商铺</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月16-2月23</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>key|key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值和活动是对应的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>vip</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>jyfl</t>
+    </r>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_005_fudai</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福袋boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆boss皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>阳光榜单</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆竹换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_task</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivityTaskManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TYBYDROPManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_004_baozhu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_003_taiyang</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4050,11 +4215,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_002_bzphb</t>
+    <t>act_ty_sjb_style/act_002_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月8日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳掉落皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹掉落皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4062,192 +4247,26 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>太阳换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>act_ty_by_hhl_style/act_002_hhl</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_TY_BY_HHLManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TY_JZSJBManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元旦福利（半年）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_045_xxlbd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>过大年--消消乐争霸</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_045_XXLBDManger</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_universal_dh</t>
-  </si>
-  <si>
-    <t>万能字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_Ty_UNIVERSAL_DHManager</t>
-  </si>
-  <si>
-    <t>act_ty_universal_dh_style/act_001_universal</t>
-  </si>
-  <si>
-    <t>万能字资源皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_lb1</t>
+    <t>爆竹换好礼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>sys_act_base_style</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_001_ygbd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年送茅台</t>
-  </si>
-  <si>
-    <t>act_048_xnsmt</t>
-  </si>
-  <si>
-    <t>Act_048_XNSMTManager</t>
-  </si>
-  <si>
-    <r>
-      <t>1月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9号关闭</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼开炮送红包 2月9号关闭</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神商铺</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月16-2月23</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xycj</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>key|key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0B0B"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值和活动是对应的</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>vip</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>jyfl</t>
-    </r>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_005_fudai</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_006_jinyuanbao</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_007_xiaotangyuan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福袋boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小汤圆boss皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
+  </si>
+  <si>
+    <t>活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4476,7 +4495,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4661,6 +4680,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4940,13 +4965,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I330"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C307" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D330" sqref="D330"/>
+      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4967,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -6218,7 +6243,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6372,7 +6397,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="56" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6476,7 +6501,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6505,7 +6530,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6520,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="50" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -6936,7 +6961,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="46" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -10927,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11351,13 +11376,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="57" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C253" s="28" t="s">
         <v>732</v>
       </c>
       <c r="D253" s="27" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E253" s="28">
         <v>0</v>
@@ -11895,7 +11920,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -12283,7 +12308,7 @@
       </c>
       <c r="H288" s="28"/>
       <c r="I288" s="27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="33" customFormat="1">
@@ -12684,13 +12709,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="41" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="C304" s="42" t="s">
         <v>930</v>
       </c>
       <c r="D304" s="41" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="E304" s="43">
         <v>1</v>
@@ -12711,13 +12736,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="41" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="C305" s="42" t="s">
         <v>931</v>
       </c>
       <c r="D305" s="41" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="E305" s="43">
         <v>1</v>
@@ -12738,13 +12763,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="41" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C306" s="41" t="s">
         <v>937</v>
       </c>
       <c r="D306" s="41" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E306" s="43">
         <v>1</v>
@@ -12795,7 +12820,7 @@
         <v>918</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="D308" s="17" t="s">
         <v>917</v>
@@ -12872,7 +12897,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="47" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="C311" s="48" t="s">
         <v>928</v>
@@ -12992,7 +13017,7 @@
       </c>
       <c r="H315" s="2"/>
       <c r="I315" s="48" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13026,10 +13051,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="40" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="C317" s="38" t="s">
-        <v>951</v>
+        <v>992</v>
       </c>
       <c r="D317" s="39"/>
       <c r="E317" s="39">
@@ -13043,7 +13068,7 @@
       </c>
       <c r="H317" s="39"/>
       <c r="I317" s="38" t="s">
-        <v>963</v>
+        <v>993</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -13051,10 +13076,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="40" t="s">
-        <v>965</v>
+        <v>994</v>
       </c>
       <c r="C318" s="38" t="s">
-        <v>952</v>
+        <v>995</v>
       </c>
       <c r="D318" s="39"/>
       <c r="E318" s="39">
@@ -13068,7 +13093,7 @@
       </c>
       <c r="H318" s="39"/>
       <c r="I318" s="38" t="s">
-        <v>962</v>
+        <v>996</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="16" customFormat="1">
@@ -13076,9 +13101,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="40" t="s">
-        <v>961</v>
-      </c>
-      <c r="C319" s="39"/>
+        <v>997</v>
+      </c>
+      <c r="C319" s="39" t="s">
+        <v>998</v>
+      </c>
       <c r="D319" s="39"/>
       <c r="E319" s="39">
         <v>1</v>
@@ -13091,7 +13118,7 @@
       </c>
       <c r="H319" s="39"/>
       <c r="I319" s="38" t="s">
-        <v>963</v>
+        <v>993</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="16" customFormat="1">
@@ -13099,9 +13126,11 @@
         <v>319</v>
       </c>
       <c r="B320" s="40" t="s">
-        <v>960</v>
-      </c>
-      <c r="C320" s="39"/>
+        <v>999</v>
+      </c>
+      <c r="C320" s="38" t="s">
+        <v>1000</v>
+      </c>
       <c r="D320" s="39"/>
       <c r="E320" s="39">
         <v>1</v>
@@ -13114,7 +13143,7 @@
       </c>
       <c r="H320" s="39"/>
       <c r="I320" s="38" t="s">
-        <v>953</v>
+        <v>996</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -13122,10 +13151,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="40" t="s">
-        <v>966</v>
+        <v>1001</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>954</v>
+        <v>1002</v>
       </c>
       <c r="D321" s="39"/>
       <c r="E321" s="39">
@@ -13139,7 +13168,7 @@
       </c>
       <c r="H321" s="39"/>
       <c r="I321" s="38" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -13147,10 +13176,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="40" t="s">
-        <v>967</v>
+        <v>1003</v>
       </c>
       <c r="C322" s="38" t="s">
-        <v>955</v>
+        <v>1004</v>
       </c>
       <c r="D322" s="39"/>
       <c r="E322" s="39">
@@ -13164,34 +13193,32 @@
       </c>
       <c r="H322" s="39"/>
       <c r="I322" s="38" t="s">
-        <v>953</v>
+        <v>996</v>
       </c>
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="C323" s="48" t="s">
-        <v>973</v>
-      </c>
-      <c r="D323" s="47" t="s">
-        <v>974</v>
-      </c>
-      <c r="E323" s="2">
-        <v>1</v>
-      </c>
-      <c r="F323" s="2">
-        <v>1</v>
-      </c>
-      <c r="G323" s="2">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2"/>
-      <c r="I323" s="48" t="s">
-        <v>975</v>
+      <c r="B323" s="62" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C323" s="38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D323" s="39"/>
+      <c r="E323" s="39">
+        <v>1</v>
+      </c>
+      <c r="F323" s="39">
+        <v>1</v>
+      </c>
+      <c r="G323" s="39">
+        <v>1</v>
+      </c>
+      <c r="H323" s="39"/>
+      <c r="I323" s="63" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -13199,13 +13226,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="47" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="C324" s="48" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="D324" s="47" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="E324" s="2">
         <v>1</v>
@@ -13218,7 +13245,7 @@
       </c>
       <c r="H324" s="2"/>
       <c r="I324" s="48" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -13226,12 +13253,14 @@
         <v>324</v>
       </c>
       <c r="B325" s="47" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="C325" s="48" t="s">
-        <v>980</v>
-      </c>
-      <c r="D325" s="2"/>
+        <v>966</v>
+      </c>
+      <c r="D325" s="47" t="s">
+        <v>967</v>
+      </c>
       <c r="E325" s="2">
         <v>1</v>
       </c>
@@ -13243,17 +13272,19 @@
       </c>
       <c r="H325" s="2"/>
       <c r="I325" s="48" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" s="16" customFormat="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="A326" s="15">
         <v>325</v>
       </c>
-      <c r="B326" s="61" t="s">
-        <v>982</v>
-      </c>
-      <c r="C326" s="2"/>
+      <c r="B326" s="47" t="s">
+        <v>968</v>
+      </c>
+      <c r="C326" s="48" t="s">
+        <v>969</v>
+      </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2">
         <v>1</v>
@@ -13265,23 +13296,19 @@
         <v>1</v>
       </c>
       <c r="H326" s="2"/>
-      <c r="I326" s="49" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9">
+      <c r="I326" s="48" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" s="16" customFormat="1">
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="47" t="s">
-        <v>986</v>
-      </c>
-      <c r="C327" s="47" t="s">
-        <v>985</v>
-      </c>
-      <c r="D327" s="47" t="s">
-        <v>987</v>
-      </c>
+      <c r="B327" s="61" t="s">
+        <v>971</v>
+      </c>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
       <c r="E327" s="2">
         <v>1</v>
       </c>
@@ -13292,8 +13319,8 @@
         <v>1</v>
       </c>
       <c r="H327" s="2"/>
-      <c r="I327" s="48" t="s">
-        <v>975</v>
+      <c r="I327" s="49" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -13301,12 +13328,14 @@
         <v>327</v>
       </c>
       <c r="B328" s="47" t="s">
-        <v>996</v>
-      </c>
-      <c r="C328" s="49" t="s">
-        <v>999</v>
-      </c>
-      <c r="D328" s="2"/>
+        <v>974</v>
+      </c>
+      <c r="C328" s="47" t="s">
+        <v>973</v>
+      </c>
+      <c r="D328" s="47" t="s">
+        <v>975</v>
+      </c>
       <c r="E328" s="2">
         <v>1</v>
       </c>
@@ -13318,7 +13347,7 @@
       </c>
       <c r="H328" s="2"/>
       <c r="I328" s="48" t="s">
-        <v>1002</v>
+        <v>964</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -13326,10 +13355,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="47" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="C329" s="49" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2">
@@ -13343,7 +13372,7 @@
       </c>
       <c r="H329" s="2"/>
       <c r="I329" s="48" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -13351,10 +13380,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="47" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="C330" s="49" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2">
@@ -13368,7 +13397,32 @@
       </c>
       <c r="H330" s="2"/>
       <c r="I330" s="48" t="s">
-        <v>1002</v>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" s="15">
+        <v>330</v>
+      </c>
+      <c r="B331" s="47" t="s">
+        <v>986</v>
+      </c>
+      <c r="C331" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="D331" s="2"/>
+      <c r="E331" s="2">
+        <v>1</v>
+      </c>
+      <c r="F331" s="2">
+        <v>1</v>
+      </c>
+      <c r="G331" s="2">
+        <v>1</v>
+      </c>
+      <c r="H331" s="2"/>
+      <c r="I331" s="48" t="s">
+        <v>990</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -4495,7 +4495,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4687,6 +4687,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4968,10 +4971,10 @@
   <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C310" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C336" sqref="C336"/>
+      <selection pane="bottomRight" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8056,29 +8059,29 @@
         <v>641</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="15">
+    <row r="119" spans="1:9" s="2" customFormat="1">
+      <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E119" s="5">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="I119" s="10" t="s">
+      <c r="E119" s="6">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <v>1</v>
+      </c>
+      <c r="I119" s="64" t="s">
         <v>641</v>
       </c>
     </row>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1012">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4267,6 +4267,20 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>有奖问答</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_prize_quiz</t>
+  </si>
+  <si>
+    <t>Act_Ty_PrizeQuizManager</t>
+  </si>
+  <si>
+    <t>2月30日</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4390,7 +4404,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4463,6 +4477,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4495,7 +4515,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4690,6 +4710,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4968,13 +5000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C317" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H119" sqref="H119"/>
+      <selection pane="bottomRight" activeCell="A319" sqref="A319:A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13426,6 +13458,33 @@
       <c r="H331" s="2"/>
       <c r="I331" s="48" t="s">
         <v>990</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" s="15">
+        <v>331</v>
+      </c>
+      <c r="B332" s="65" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C332" s="66" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D332" s="65" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E332" s="67">
+        <v>1</v>
+      </c>
+      <c r="F332" s="67">
+        <v>1</v>
+      </c>
+      <c r="G332" s="67">
+        <v>1</v>
+      </c>
+      <c r="H332" s="67"/>
+      <c r="I332" s="68" t="s">
+        <v>1011</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="1027">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4302,7 +4302,35 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>金元宝榜单</t>
+    <t>act_ty_by_hhl_style/act_003_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵换好礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼提示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYHBYTSManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_hbyts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>集字榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝排行榜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4310,27 +4338,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_003_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宵换好礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼提示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYHBYTSManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_hbyts</t>
+    <t>act_ty_sjb_style/act_005_dlphb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5050,13 +5058,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C322" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B337" sqref="B337"/>
+      <selection pane="bottomRight" activeCell="C330" sqref="C330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5069,7 +5077,7 @@
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
     <col min="8" max="8" width="25.375" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="9" max="9" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="78" customHeight="1">
@@ -13572,7 +13580,7 @@
         <v>1015</v>
       </c>
       <c r="C334" s="48" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2">
@@ -13597,7 +13605,7 @@
         <v>1016</v>
       </c>
       <c r="C335" s="48" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2">
@@ -13619,10 +13627,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="47" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="C336" s="48" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2">
@@ -13643,26 +13651,52 @@
       <c r="A337" s="15">
         <v>336</v>
       </c>
-      <c r="B337" s="56" t="s">
-        <v>1024</v>
+      <c r="B337" s="47" t="s">
+        <v>1017</v>
       </c>
       <c r="C337" s="48" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2">
+        <v>1</v>
+      </c>
+      <c r="F337" s="2">
+        <v>1</v>
+      </c>
+      <c r="G337" s="2">
+        <v>1</v>
+      </c>
+      <c r="H337" s="2"/>
+      <c r="I337" s="48" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" s="15">
+        <v>337</v>
+      </c>
+      <c r="B338" s="61" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C338" s="48" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D338" s="48" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E338" s="2">
+        <v>1</v>
+      </c>
+      <c r="F338" s="2">
+        <v>1</v>
+      </c>
+      <c r="G338" s="2">
+        <v>1</v>
+      </c>
+      <c r="H338" s="2"/>
+      <c r="I338" s="48" t="s">
         <v>1021</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E337" s="2">
-        <v>1</v>
-      </c>
-      <c r="F337" s="2">
-        <v>1</v>
-      </c>
-      <c r="G337" s="2">
-        <v>1</v>
-      </c>
-      <c r="I337" s="48" t="s">
-        <v>1023</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="1021">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4281,6 +4281,40 @@
   </si>
   <si>
     <t>2月30日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_049_XYHL</t>
+  </si>
+  <si>
+    <t>Act_049_XYHLManager</t>
+  </si>
+  <si>
+    <t>新游福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_003_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_004_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_003_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵换好礼</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5000,13 +5034,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C317" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A319" sqref="A319:A332"/>
+      <selection pane="bottomRight" activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13464,27 +13498,129 @@
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="65" t="s">
+      <c r="B332" s="47" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C332" s="49" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D332" s="47" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E332" s="2">
+        <v>1</v>
+      </c>
+      <c r="F332" s="2">
+        <v>1</v>
+      </c>
+      <c r="G332" s="2">
+        <v>1</v>
+      </c>
+      <c r="H332" s="2"/>
+      <c r="I332" s="48" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" s="15">
+        <v>332</v>
+      </c>
+      <c r="B333" s="65" t="s">
         <v>1009</v>
       </c>
-      <c r="C332" s="66" t="s">
+      <c r="C333" s="66" t="s">
         <v>1008</v>
       </c>
-      <c r="D332" s="65" t="s">
+      <c r="D333" s="65" t="s">
         <v>1010</v>
       </c>
-      <c r="E332" s="67">
-        <v>1</v>
-      </c>
-      <c r="F332" s="67">
-        <v>1</v>
-      </c>
-      <c r="G332" s="67">
-        <v>1</v>
-      </c>
-      <c r="H332" s="67"/>
-      <c r="I332" s="68" t="s">
+      <c r="E333" s="67">
+        <v>1</v>
+      </c>
+      <c r="F333" s="67">
+        <v>1</v>
+      </c>
+      <c r="G333" s="67">
+        <v>1</v>
+      </c>
+      <c r="H333" s="67"/>
+      <c r="I333" s="68" t="s">
         <v>1011</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="15">
+        <v>333</v>
+      </c>
+      <c r="B334" s="47" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C334" s="48" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2">
+        <v>1</v>
+      </c>
+      <c r="F334" s="2">
+        <v>1</v>
+      </c>
+      <c r="G334" s="2">
+        <v>1</v>
+      </c>
+      <c r="H334" s="2"/>
+      <c r="I334" s="48" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="15">
+        <v>334</v>
+      </c>
+      <c r="B335" s="47" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C335" s="48" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2">
+        <v>1</v>
+      </c>
+      <c r="F335" s="2">
+        <v>1</v>
+      </c>
+      <c r="G335" s="2">
+        <v>1</v>
+      </c>
+      <c r="H335" s="2"/>
+      <c r="I335" s="48" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="15">
+        <v>335</v>
+      </c>
+      <c r="B336" s="47" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C336" s="48" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2">
+        <v>1</v>
+      </c>
+      <c r="F336" s="2">
+        <v>1</v>
+      </c>
+      <c r="G336" s="2">
+        <v>1</v>
+      </c>
+      <c r="H336" s="2"/>
+      <c r="I336" s="48" t="s">
+        <v>990</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/game_module_config.xlsx
+++ b/config_2.9/game_module_config.xlsx
@@ -5037,10 +5037,10 @@
   <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B339" sqref="B339"/>
+      <selection pane="bottomRight" activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11454,13 +11454,13 @@
         <v>953</v>
       </c>
       <c r="E253" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G253" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" s="28"/>
       <c r="I253" s="27" t="s">
